--- a/reopentable_05_08.xlsx
+++ b/reopentable_05_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntomczak/Documents/1Projects/Corona_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B62B6F-AA1A-C242-B1B7-113F0CA38601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A529A-AEB6-4141-AF1F-8CF8837C4376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>New York</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>Minneapolis</t>
-  </si>
-  <si>
-    <t>Montr√©al</t>
-  </si>
-  <si>
-    <t>M√ºnchen</t>
   </si>
   <si>
     <t>Naples</t>
@@ -1007,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD48"/>
+  <dimension ref="A1:CD46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="B28" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7471,106 +7465,106 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="E27">
+        <v>-3</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>-11</v>
+      </c>
+      <c r="Q27">
         <v>-5</v>
       </c>
-      <c r="F27">
+      <c r="R27">
+        <v>-7</v>
+      </c>
+      <c r="S27">
         <v>-1</v>
       </c>
-      <c r="G27">
-        <v>14</v>
-      </c>
-      <c r="H27">
-        <v>42</v>
-      </c>
-      <c r="I27">
-        <v>13</v>
-      </c>
-      <c r="J27">
-        <v>21</v>
-      </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>-7</v>
-      </c>
-      <c r="N27">
-        <v>13</v>
-      </c>
-      <c r="O27">
-        <v>15</v>
-      </c>
-      <c r="P27">
-        <v>-32</v>
-      </c>
-      <c r="Q27">
-        <v>-21</v>
-      </c>
-      <c r="R27">
-        <v>7</v>
-      </c>
-      <c r="S27">
+      <c r="T27">
         <v>0</v>
       </c>
-      <c r="T27">
-        <v>7</v>
-      </c>
       <c r="U27">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>38</v>
+        <v>-6</v>
       </c>
       <c r="W27">
+        <v>-18</v>
+      </c>
+      <c r="X27">
         <v>-14</v>
       </c>
-      <c r="X27">
-        <v>-22</v>
-      </c>
       <c r="Y27">
-        <v>-26</v>
+        <v>-13</v>
       </c>
       <c r="Z27">
+        <v>-17</v>
+      </c>
+      <c r="AA27">
         <v>-24</v>
       </c>
-      <c r="AA27">
-        <v>-48</v>
-      </c>
       <c r="AB27">
-        <v>-43</v>
+        <v>-30</v>
       </c>
       <c r="AC27">
-        <v>-42</v>
+        <v>-38</v>
       </c>
       <c r="AD27">
-        <v>-66</v>
+        <v>-53</v>
       </c>
       <c r="AE27">
-        <v>-94</v>
+        <v>-72</v>
       </c>
       <c r="AF27">
-        <v>-97</v>
+        <v>-79</v>
       </c>
       <c r="AG27">
-        <v>-99</v>
+        <v>-84</v>
       </c>
       <c r="AH27">
-        <v>-99</v>
+        <v>-96</v>
       </c>
       <c r="AI27">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AJ27">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AK27">
         <v>-100</v>
@@ -7699,16 +7693,16 @@
         <v>-100</v>
       </c>
       <c r="CA27">
-        <v>-100</v>
+        <v>-77</v>
       </c>
       <c r="CB27">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="CC27">
-        <v>-100</v>
+        <v>-78</v>
       </c>
       <c r="CD27">
-        <v>-100</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="28" spans="1:82" x14ac:dyDescent="0.2">
@@ -7719,94 +7713,94 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E28">
+        <v>-10</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>-12</v>
+      </c>
+      <c r="I28">
+        <v>-14</v>
+      </c>
+      <c r="J28">
+        <v>-12</v>
+      </c>
+      <c r="K28">
+        <v>-14</v>
+      </c>
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-      <c r="H28">
-        <v>-6</v>
-      </c>
-      <c r="I28">
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>-3</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>-14</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>-3</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>5</v>
+      </c>
+      <c r="V28">
         <v>-4</v>
       </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28">
-        <v>-4</v>
-      </c>
-      <c r="L28">
-        <v>-3</v>
-      </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
-      <c r="N28">
-        <v>6</v>
-      </c>
-      <c r="O28">
-        <v>19</v>
-      </c>
-      <c r="P28">
-        <v>9</v>
-      </c>
-      <c r="Q28">
-        <v>-2</v>
-      </c>
-      <c r="R28">
-        <v>8</v>
-      </c>
-      <c r="S28">
-        <v>5</v>
-      </c>
-      <c r="T28">
-        <v>-6</v>
-      </c>
-      <c r="U28">
-        <v>13</v>
-      </c>
-      <c r="V28">
-        <v>-9</v>
-      </c>
       <c r="W28">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="X28">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="Y28">
         <v>-21</v>
       </c>
       <c r="Z28">
-        <v>-17</v>
+        <v>-30</v>
       </c>
       <c r="AA28">
-        <v>-28</v>
+        <v>-37</v>
       </c>
       <c r="AB28">
-        <v>-44</v>
+        <v>-40</v>
       </c>
       <c r="AC28">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="AD28">
-        <v>-66</v>
+        <v>-70</v>
       </c>
       <c r="AE28">
         <v>-92</v>
       </c>
       <c r="AF28">
-        <v>-99</v>
+        <v>-97</v>
       </c>
       <c r="AG28">
         <v>-99</v>
@@ -7967,100 +7961,100 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="D29">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>21</v>
+      </c>
+      <c r="I29">
+        <v>109</v>
+      </c>
+      <c r="J29">
+        <v>102</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>-21</v>
+      </c>
+      <c r="M29">
+        <v>-21</v>
+      </c>
+      <c r="N29">
+        <v>-16</v>
+      </c>
+      <c r="O29">
+        <v>-27</v>
+      </c>
+      <c r="P29">
+        <v>-47</v>
+      </c>
+      <c r="Q29">
+        <v>-59</v>
+      </c>
+      <c r="R29">
+        <v>-32</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
         <v>-3</v>
       </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>-1</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>5</v>
-      </c>
-      <c r="P29">
-        <v>-11</v>
-      </c>
-      <c r="Q29">
-        <v>-5</v>
-      </c>
-      <c r="R29">
-        <v>-7</v>
-      </c>
-      <c r="S29">
-        <v>-1</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>2</v>
-      </c>
-      <c r="V29">
-        <v>-6</v>
-      </c>
       <c r="W29">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="X29">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="Y29">
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="Z29">
-        <v>-17</v>
+        <v>-28</v>
       </c>
       <c r="AA29">
-        <v>-24</v>
+        <v>-32</v>
       </c>
       <c r="AB29">
-        <v>-30</v>
+        <v>-39</v>
       </c>
       <c r="AC29">
-        <v>-38</v>
+        <v>-54</v>
       </c>
       <c r="AD29">
-        <v>-53</v>
+        <v>-63</v>
       </c>
       <c r="AE29">
-        <v>-72</v>
+        <v>-100</v>
       </c>
       <c r="AF29">
-        <v>-79</v>
+        <v>-100</v>
       </c>
       <c r="AG29">
-        <v>-84</v>
+        <v>-100</v>
       </c>
       <c r="AH29">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="AI29">
         <v>-100</v>
@@ -8195,16 +8189,16 @@
         <v>-100</v>
       </c>
       <c r="CA29">
-        <v>-77</v>
+        <v>-100</v>
       </c>
       <c r="CB29">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="CC29">
-        <v>-78</v>
+        <v>-100</v>
       </c>
       <c r="CD29">
-        <v>-80</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="30" spans="1:82" x14ac:dyDescent="0.2">
@@ -8212,100 +8206,100 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
         <v>13</v>
       </c>
-      <c r="D30">
+      <c r="I30">
         <v>7</v>
       </c>
-      <c r="E30">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>-2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>-2</v>
+      </c>
+      <c r="O30">
+        <v>-2</v>
+      </c>
+      <c r="P30">
+        <v>-6</v>
+      </c>
+      <c r="Q30">
+        <v>-12</v>
+      </c>
+      <c r="R30">
+        <v>-12</v>
+      </c>
+      <c r="S30">
+        <v>-9</v>
+      </c>
+      <c r="T30">
+        <v>-15</v>
+      </c>
+      <c r="U30">
         <v>-10</v>
-      </c>
-      <c r="F30">
-        <v>7</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30">
-        <v>-12</v>
-      </c>
-      <c r="I30">
-        <v>-14</v>
-      </c>
-      <c r="J30">
-        <v>-12</v>
-      </c>
-      <c r="K30">
-        <v>-14</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30">
-        <v>12</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30">
-        <v>-3</v>
-      </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>-14</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>-3</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>5</v>
       </c>
       <c r="V30">
         <v>-4</v>
       </c>
       <c r="W30">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="X30">
-        <v>-7</v>
+        <v>-30</v>
       </c>
       <c r="Y30">
-        <v>-21</v>
+        <v>-36</v>
       </c>
       <c r="Z30">
-        <v>-30</v>
+        <v>-52</v>
       </c>
       <c r="AA30">
-        <v>-37</v>
+        <v>-61</v>
       </c>
       <c r="AB30">
-        <v>-40</v>
+        <v>-64</v>
       </c>
       <c r="AC30">
-        <v>-54</v>
+        <v>-69</v>
       </c>
       <c r="AD30">
-        <v>-70</v>
+        <v>-77</v>
       </c>
       <c r="AE30">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="AF30">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AG30">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AH30">
         <v>-100</v>
@@ -8460,103 +8454,103 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="D31">
+        <v>-3</v>
+      </c>
+      <c r="E31">
+        <v>-12</v>
+      </c>
+      <c r="F31">
+        <v>-7</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>23</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>21</v>
-      </c>
-      <c r="I31">
-        <v>109</v>
-      </c>
-      <c r="J31">
-        <v>102</v>
-      </c>
-      <c r="K31">
-        <v>9</v>
-      </c>
-      <c r="L31">
-        <v>-21</v>
-      </c>
-      <c r="M31">
-        <v>-21</v>
-      </c>
-      <c r="N31">
-        <v>-16</v>
-      </c>
       <c r="O31">
-        <v>-27</v>
+        <v>4</v>
       </c>
       <c r="P31">
+        <v>-18</v>
+      </c>
+      <c r="Q31">
+        <v>-18</v>
+      </c>
+      <c r="R31">
+        <v>-18</v>
+      </c>
+      <c r="S31">
+        <v>-2</v>
+      </c>
+      <c r="T31">
+        <v>-1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>-8</v>
+      </c>
+      <c r="W31">
+        <v>-34</v>
+      </c>
+      <c r="X31">
+        <v>-37</v>
+      </c>
+      <c r="Y31">
+        <v>-30</v>
+      </c>
+      <c r="Z31">
+        <v>-30</v>
+      </c>
+      <c r="AA31">
+        <v>-33</v>
+      </c>
+      <c r="AB31">
+        <v>-32</v>
+      </c>
+      <c r="AC31">
         <v>-47</v>
       </c>
-      <c r="Q31">
-        <v>-59</v>
-      </c>
-      <c r="R31">
-        <v>-32</v>
-      </c>
-      <c r="S31">
-        <v>5</v>
-      </c>
-      <c r="T31">
-        <v>6</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>-3</v>
-      </c>
-      <c r="W31">
-        <v>-13</v>
-      </c>
-      <c r="X31">
-        <v>-13</v>
-      </c>
-      <c r="Y31">
-        <v>-21</v>
-      </c>
-      <c r="Z31">
-        <v>-28</v>
-      </c>
-      <c r="AA31">
-        <v>-32</v>
-      </c>
-      <c r="AB31">
-        <v>-39</v>
-      </c>
-      <c r="AC31">
-        <v>-54</v>
-      </c>
       <c r="AD31">
-        <v>-63</v>
+        <v>-53</v>
       </c>
       <c r="AE31">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="AF31">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="AG31">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="AH31">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AI31">
         <v>-100</v>
@@ -8691,16 +8685,16 @@
         <v>-100</v>
       </c>
       <c r="CA31">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CB31">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CC31">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CD31">
-        <v>-100</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="32" spans="1:82" x14ac:dyDescent="0.2">
@@ -8708,91 +8702,91 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>-2</v>
+      </c>
+      <c r="J32">
+        <v>-2</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
+      <c r="M32">
         <v>11</v>
       </c>
-      <c r="E32">
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <v>21</v>
+      </c>
+      <c r="P32">
+        <v>13</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>8</v>
+      </c>
+      <c r="T32">
+        <v>-7</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
         <v>3</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>13</v>
-      </c>
-      <c r="I32">
-        <v>7</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>-2</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>-2</v>
-      </c>
-      <c r="O32">
-        <v>-2</v>
-      </c>
-      <c r="P32">
-        <v>-6</v>
-      </c>
-      <c r="Q32">
-        <v>-12</v>
-      </c>
-      <c r="R32">
-        <v>-12</v>
-      </c>
-      <c r="S32">
-        <v>-9</v>
-      </c>
-      <c r="T32">
-        <v>-15</v>
-      </c>
-      <c r="U32">
-        <v>-10</v>
-      </c>
-      <c r="V32">
-        <v>-4</v>
-      </c>
       <c r="W32">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="X32">
-        <v>-30</v>
+        <v>-14</v>
       </c>
       <c r="Y32">
-        <v>-36</v>
+        <v>-16</v>
       </c>
       <c r="Z32">
-        <v>-52</v>
+        <v>-39</v>
       </c>
       <c r="AA32">
-        <v>-61</v>
+        <v>-40</v>
       </c>
       <c r="AB32">
-        <v>-64</v>
+        <v>-48</v>
       </c>
       <c r="AC32">
-        <v>-69</v>
+        <v>-54</v>
       </c>
       <c r="AD32">
-        <v>-77</v>
+        <v>-85</v>
       </c>
       <c r="AE32">
         <v>-100</v>
@@ -8959,100 +8953,100 @@
         <v>34</v>
       </c>
       <c r="C33">
+        <v>-4</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>-2</v>
+      </c>
+      <c r="L33">
+        <v>-2</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>-5</v>
+      </c>
+      <c r="O33">
+        <v>-11</v>
+      </c>
+      <c r="P33">
+        <v>-13</v>
+      </c>
+      <c r="Q33">
+        <v>-21</v>
+      </c>
+      <c r="R33">
+        <v>-8</v>
+      </c>
+      <c r="S33">
+        <v>-8</v>
+      </c>
+      <c r="T33">
+        <v>-7</v>
+      </c>
+      <c r="U33">
         <v>-6</v>
-      </c>
-      <c r="D33">
-        <v>-3</v>
-      </c>
-      <c r="E33">
-        <v>-12</v>
-      </c>
-      <c r="F33">
-        <v>-7</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>14</v>
-      </c>
-      <c r="L33">
-        <v>21</v>
-      </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>4</v>
-      </c>
-      <c r="P33">
-        <v>-18</v>
-      </c>
-      <c r="Q33">
-        <v>-18</v>
-      </c>
-      <c r="R33">
-        <v>-18</v>
-      </c>
-      <c r="S33">
-        <v>-2</v>
-      </c>
-      <c r="T33">
-        <v>-1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
       </c>
       <c r="V33">
         <v>-8</v>
       </c>
       <c r="W33">
-        <v>-34</v>
+        <v>-18</v>
       </c>
       <c r="X33">
-        <v>-37</v>
+        <v>-13</v>
       </c>
       <c r="Y33">
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="Z33">
-        <v>-30</v>
+        <v>-21</v>
       </c>
       <c r="AA33">
-        <v>-33</v>
+        <v>-28</v>
       </c>
       <c r="AB33">
-        <v>-32</v>
+        <v>-27</v>
       </c>
       <c r="AC33">
-        <v>-47</v>
+        <v>-45</v>
       </c>
       <c r="AD33">
-        <v>-53</v>
+        <v>-66</v>
       </c>
       <c r="AE33">
-        <v>-85</v>
+        <v>-86</v>
       </c>
       <c r="AF33">
-        <v>-90</v>
+        <v>-99</v>
       </c>
       <c r="AG33">
-        <v>-93</v>
+        <v>-100</v>
       </c>
       <c r="AH33">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AI33">
         <v>-100</v>
@@ -9151,7 +9145,7 @@
         <v>-100</v>
       </c>
       <c r="BO33">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BP33">
         <v>-100</v>
@@ -9187,16 +9181,16 @@
         <v>-100</v>
       </c>
       <c r="CA33">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CB33">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CC33">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CD33">
-        <v>-95</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="34" spans="1:82" x14ac:dyDescent="0.2">
@@ -9210,85 +9204,85 @@
         <v>10</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>-14</v>
       </c>
       <c r="F34">
+        <v>-9</v>
+      </c>
+      <c r="G34">
+        <v>-4</v>
+      </c>
+      <c r="H34">
+        <v>-4</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>-3</v>
+      </c>
+      <c r="K34">
+        <v>-10</v>
+      </c>
+      <c r="L34">
+        <v>-19</v>
+      </c>
+      <c r="M34">
+        <v>-16</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>-12</v>
+      </c>
+      <c r="Q34">
+        <v>-11</v>
+      </c>
+      <c r="R34">
+        <v>-2</v>
+      </c>
+      <c r="S34">
+        <v>-10</v>
+      </c>
+      <c r="T34">
+        <v>-17</v>
+      </c>
+      <c r="U34">
+        <v>9</v>
+      </c>
+      <c r="V34">
         <v>1</v>
       </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>-2</v>
-      </c>
-      <c r="J34">
-        <v>-2</v>
-      </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <v>13</v>
-      </c>
-      <c r="M34">
-        <v>11</v>
-      </c>
-      <c r="N34">
-        <v>7</v>
-      </c>
-      <c r="O34">
-        <v>21</v>
-      </c>
-      <c r="P34">
-        <v>13</v>
-      </c>
-      <c r="Q34">
-        <v>4</v>
-      </c>
-      <c r="R34">
-        <v>6</v>
-      </c>
-      <c r="S34">
-        <v>8</v>
-      </c>
-      <c r="T34">
-        <v>-7</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>3</v>
-      </c>
       <c r="W34">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="X34">
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="Y34">
-        <v>-16</v>
+        <v>-24</v>
       </c>
       <c r="Z34">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AA34">
-        <v>-40</v>
+        <v>-42</v>
       </c>
       <c r="AB34">
         <v>-48</v>
       </c>
       <c r="AC34">
-        <v>-54</v>
+        <v>-48</v>
       </c>
       <c r="AD34">
-        <v>-85</v>
+        <v>-63</v>
       </c>
       <c r="AE34">
         <v>-100</v>
@@ -9455,94 +9449,94 @@
         <v>36</v>
       </c>
       <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>-4</v>
       </c>
-      <c r="D35">
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
+      </c>
+      <c r="I35">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>-7</v>
+      </c>
+      <c r="K35">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>-4</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>-3</v>
+      </c>
+      <c r="R35">
+        <v>-1</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>-1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>7</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>-2</v>
-      </c>
-      <c r="L35">
-        <v>-2</v>
-      </c>
-      <c r="M35">
-        <v>7</v>
-      </c>
-      <c r="N35">
-        <v>-5</v>
-      </c>
-      <c r="O35">
-        <v>-11</v>
-      </c>
-      <c r="P35">
-        <v>-13</v>
-      </c>
-      <c r="Q35">
-        <v>-21</v>
-      </c>
-      <c r="R35">
-        <v>-8</v>
-      </c>
-      <c r="S35">
-        <v>-8</v>
-      </c>
-      <c r="T35">
+      <c r="U35">
+        <v>-3</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>-16</v>
+      </c>
+      <c r="X35">
         <v>-7</v>
       </c>
-      <c r="U35">
-        <v>-6</v>
-      </c>
-      <c r="V35">
-        <v>-8</v>
-      </c>
-      <c r="W35">
-        <v>-18</v>
-      </c>
-      <c r="X35">
-        <v>-13</v>
-      </c>
       <c r="Y35">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="Z35">
-        <v>-21</v>
+        <v>-32</v>
       </c>
       <c r="AA35">
-        <v>-28</v>
+        <v>-41</v>
       </c>
       <c r="AB35">
-        <v>-27</v>
+        <v>-39</v>
       </c>
       <c r="AC35">
-        <v>-45</v>
+        <v>-54</v>
       </c>
       <c r="AD35">
-        <v>-66</v>
+        <v>-61</v>
       </c>
       <c r="AE35">
-        <v>-86</v>
+        <v>-100</v>
       </c>
       <c r="AF35">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AG35">
         <v>-100</v>
@@ -9647,7 +9641,7 @@
         <v>-100</v>
       </c>
       <c r="BO35">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BP35">
         <v>-100</v>
@@ -9703,91 +9697,91 @@
         <v>37</v>
       </c>
       <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="D36">
-        <v>24</v>
-      </c>
       <c r="E36">
-        <v>-14</v>
+        <v>-49</v>
       </c>
       <c r="F36">
         <v>-9</v>
       </c>
       <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>-11</v>
+      </c>
+      <c r="J36">
+        <v>-9</v>
+      </c>
+      <c r="K36">
+        <v>-5</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
         <v>-4</v>
       </c>
-      <c r="H36">
-        <v>-4</v>
-      </c>
-      <c r="I36">
-        <v>14</v>
-      </c>
-      <c r="J36">
-        <v>-3</v>
-      </c>
-      <c r="K36">
-        <v>-10</v>
-      </c>
-      <c r="L36">
-        <v>-19</v>
-      </c>
-      <c r="M36">
-        <v>-16</v>
-      </c>
       <c r="N36">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="O36">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="Q36">
+        <v>-9</v>
+      </c>
+      <c r="R36">
+        <v>-8</v>
+      </c>
+      <c r="S36">
+        <v>-13</v>
+      </c>
+      <c r="T36">
+        <v>-9</v>
+      </c>
+      <c r="U36">
+        <v>-9</v>
+      </c>
+      <c r="V36">
         <v>-11</v>
       </c>
-      <c r="R36">
-        <v>-2</v>
-      </c>
-      <c r="S36">
-        <v>-10</v>
-      </c>
-      <c r="T36">
-        <v>-17</v>
-      </c>
-      <c r="U36">
-        <v>9</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
       <c r="W36">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="X36">
-        <v>-31</v>
+        <v>-18</v>
       </c>
       <c r="Y36">
-        <v>-24</v>
+        <v>-15</v>
       </c>
       <c r="Z36">
-        <v>-42</v>
+        <v>-21</v>
       </c>
       <c r="AA36">
-        <v>-42</v>
+        <v>-29</v>
       </c>
       <c r="AB36">
-        <v>-48</v>
+        <v>-39</v>
       </c>
       <c r="AC36">
-        <v>-48</v>
+        <v>-55</v>
       </c>
       <c r="AD36">
-        <v>-63</v>
+        <v>-68</v>
       </c>
       <c r="AE36">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AF36">
         <v>-100</v>
@@ -9951,76 +9945,76 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="D37">
         <v>-4</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>-15</v>
       </c>
       <c r="I37">
-        <v>14</v>
+        <v>-15</v>
       </c>
       <c r="J37">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="O37">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="Q37">
-        <v>-3</v>
+        <v>-22</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="S37">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="U37">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>-23</v>
       </c>
       <c r="W37">
-        <v>-16</v>
+        <v>-32</v>
       </c>
       <c r="X37">
-        <v>-7</v>
+        <v>-22</v>
       </c>
       <c r="Y37">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="Z37">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="AA37">
         <v>-41</v>
@@ -10029,16 +10023,16 @@
         <v>-39</v>
       </c>
       <c r="AC37">
-        <v>-54</v>
+        <v>-45</v>
       </c>
       <c r="AD37">
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="AE37">
-        <v>-100</v>
+        <v>-83</v>
       </c>
       <c r="AF37">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="AG37">
         <v>-100</v>
@@ -10170,25 +10164,25 @@
         <v>-100</v>
       </c>
       <c r="BX37">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="BY37">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="BZ37">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="CA37">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="CB37">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="CC37">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="CD37">
-        <v>-100</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="38" spans="1:82" x14ac:dyDescent="0.2">
@@ -10199,91 +10193,91 @@
         <v>39</v>
       </c>
       <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
         <v>7</v>
       </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>-49</v>
-      </c>
       <c r="F38">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I38">
         <v>-11</v>
       </c>
       <c r="J38">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="K38">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>-2</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>-2</v>
+      </c>
+      <c r="R38">
+        <v>-3</v>
+      </c>
+      <c r="S38">
         <v>-1</v>
       </c>
-      <c r="M38">
-        <v>-4</v>
-      </c>
-      <c r="N38">
-        <v>-2</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>-6</v>
-      </c>
-      <c r="Q38">
-        <v>-9</v>
-      </c>
-      <c r="R38">
-        <v>-8</v>
-      </c>
-      <c r="S38">
+      <c r="T38">
+        <v>-1</v>
+      </c>
+      <c r="U38">
+        <v>-1</v>
+      </c>
+      <c r="V38">
+        <v>-7</v>
+      </c>
+      <c r="W38">
         <v>-13</v>
       </c>
-      <c r="T38">
-        <v>-9</v>
-      </c>
-      <c r="U38">
-        <v>-9</v>
-      </c>
-      <c r="V38">
-        <v>-11</v>
-      </c>
-      <c r="W38">
-        <v>-18</v>
-      </c>
       <c r="X38">
-        <v>-18</v>
+        <v>-34</v>
       </c>
       <c r="Y38">
-        <v>-15</v>
+        <v>-31</v>
       </c>
       <c r="Z38">
-        <v>-21</v>
+        <v>-43</v>
       </c>
       <c r="AA38">
-        <v>-29</v>
+        <v>-43</v>
       </c>
       <c r="AB38">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AC38">
-        <v>-55</v>
+        <v>-49</v>
       </c>
       <c r="AD38">
-        <v>-68</v>
+        <v>-62</v>
       </c>
       <c r="AE38">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AF38">
         <v>-100</v>
@@ -10447,94 +10441,94 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="D39">
+        <v>-11</v>
+      </c>
+      <c r="E39">
         <v>-4</v>
       </c>
-      <c r="E39">
-        <v>-5</v>
-      </c>
       <c r="F39">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="G39">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="H39">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="I39">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="J39">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K39">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="L39">
         <v>5</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="N39">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="P39">
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="Q39">
+        <v>-24</v>
+      </c>
+      <c r="R39">
+        <v>-24</v>
+      </c>
+      <c r="S39">
         <v>-22</v>
       </c>
-      <c r="R39">
-        <v>-10</v>
-      </c>
-      <c r="S39">
-        <v>-6</v>
-      </c>
       <c r="T39">
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="U39">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="V39">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="W39">
-        <v>-32</v>
+        <v>-41</v>
       </c>
       <c r="X39">
-        <v>-22</v>
+        <v>-43</v>
       </c>
       <c r="Y39">
-        <v>-27</v>
+        <v>-43</v>
       </c>
       <c r="Z39">
-        <v>-28</v>
+        <v>-51</v>
       </c>
       <c r="AA39">
-        <v>-41</v>
+        <v>-53</v>
       </c>
       <c r="AB39">
-        <v>-39</v>
+        <v>-58</v>
       </c>
       <c r="AC39">
-        <v>-45</v>
+        <v>-72</v>
       </c>
       <c r="AD39">
-        <v>-59</v>
+        <v>-80</v>
       </c>
       <c r="AE39">
-        <v>-83</v>
+        <v>-100</v>
       </c>
       <c r="AF39">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="AG39">
         <v>-100</v>
@@ -10666,25 +10660,25 @@
         <v>-100</v>
       </c>
       <c r="BX39">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="BY39">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="BZ39">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="CA39">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="CB39">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="CC39">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="CD39">
-        <v>-88</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="40" spans="1:82" x14ac:dyDescent="0.2">
@@ -10695,94 +10689,94 @@
         <v>41</v>
       </c>
       <c r="C40">
+        <v>-9</v>
+      </c>
+      <c r="D40">
+        <v>-12</v>
+      </c>
+      <c r="E40">
+        <v>-5</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>-5</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
         <v>-1</v>
       </c>
-      <c r="D40">
+      <c r="N40">
+        <v>17</v>
+      </c>
+      <c r="O40">
+        <v>8</v>
+      </c>
+      <c r="P40">
+        <v>25</v>
+      </c>
+      <c r="Q40">
+        <v>14</v>
+      </c>
+      <c r="R40">
         <v>9</v>
       </c>
-      <c r="E40">
-        <v>7</v>
-      </c>
-      <c r="F40">
-        <v>-1</v>
-      </c>
-      <c r="G40">
-        <v>-12</v>
-      </c>
-      <c r="H40">
-        <v>-1</v>
-      </c>
-      <c r="I40">
-        <v>-11</v>
-      </c>
-      <c r="J40">
-        <v>-2</v>
-      </c>
-      <c r="K40">
-        <v>-3</v>
-      </c>
-      <c r="L40">
-        <v>4</v>
-      </c>
-      <c r="M40">
-        <v>3</v>
-      </c>
-      <c r="N40">
-        <v>12</v>
-      </c>
-      <c r="O40">
-        <v>-2</v>
-      </c>
-      <c r="P40">
-        <v>4</v>
-      </c>
-      <c r="Q40">
-        <v>-2</v>
-      </c>
-      <c r="R40">
-        <v>-3</v>
-      </c>
       <c r="S40">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="T40">
         <v>-1</v>
       </c>
       <c r="U40">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="V40">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="W40">
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>-11</v>
+      </c>
+      <c r="Z40">
+        <v>-22</v>
+      </c>
+      <c r="AA40">
+        <v>-28</v>
+      </c>
+      <c r="AB40">
         <v>-34</v>
       </c>
-      <c r="Y40">
-        <v>-31</v>
-      </c>
-      <c r="Z40">
-        <v>-43</v>
-      </c>
-      <c r="AA40">
-        <v>-43</v>
-      </c>
-      <c r="AB40">
-        <v>-42</v>
-      </c>
       <c r="AC40">
-        <v>-49</v>
+        <v>-60</v>
       </c>
       <c r="AD40">
-        <v>-62</v>
+        <v>-65</v>
       </c>
       <c r="AE40">
-        <v>-100</v>
+        <v>-88</v>
       </c>
       <c r="AF40">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="AG40">
         <v>-100</v>
@@ -10943,100 +10937,100 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="D41">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="E41">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="H41">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="J41">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>5</v>
       </c>
       <c r="M41">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>-4</v>
+      </c>
+      <c r="P41">
+        <v>-7</v>
+      </c>
+      <c r="Q41">
+        <v>-6</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>-4</v>
+      </c>
+      <c r="T41">
+        <v>-2</v>
+      </c>
+      <c r="U41">
+        <v>-1</v>
+      </c>
+      <c r="V41">
         <v>-10</v>
       </c>
-      <c r="O41">
-        <v>-18</v>
-      </c>
-      <c r="P41">
+      <c r="W41">
+        <v>-4</v>
+      </c>
+      <c r="X41">
+        <v>-16</v>
+      </c>
+      <c r="Y41">
+        <v>-23</v>
+      </c>
+      <c r="Z41">
         <v>-22</v>
       </c>
-      <c r="Q41">
-        <v>-24</v>
-      </c>
-      <c r="R41">
-        <v>-24</v>
-      </c>
-      <c r="S41">
-        <v>-22</v>
-      </c>
-      <c r="T41">
-        <v>-18</v>
-      </c>
-      <c r="U41">
-        <v>-18</v>
-      </c>
-      <c r="V41">
-        <v>-26</v>
-      </c>
-      <c r="W41">
-        <v>-41</v>
-      </c>
-      <c r="X41">
-        <v>-43</v>
-      </c>
-      <c r="Y41">
-        <v>-43</v>
-      </c>
-      <c r="Z41">
-        <v>-51</v>
-      </c>
       <c r="AA41">
-        <v>-53</v>
+        <v>-29</v>
       </c>
       <c r="AB41">
-        <v>-58</v>
+        <v>-25</v>
       </c>
       <c r="AC41">
-        <v>-72</v>
+        <v>-38</v>
       </c>
       <c r="AD41">
-        <v>-80</v>
+        <v>-54</v>
       </c>
       <c r="AE41">
-        <v>-100</v>
+        <v>-76</v>
       </c>
       <c r="AF41">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="AG41">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="AH41">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="AI41">
         <v>-100</v>
@@ -11191,94 +11185,94 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="E42">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <v>5</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N42">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="P42">
-        <v>25</v>
+        <v>-29</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>-31</v>
       </c>
       <c r="R42">
-        <v>9</v>
+        <v>-31</v>
       </c>
       <c r="S42">
-        <v>-5</v>
+        <v>-36</v>
       </c>
       <c r="T42">
-        <v>-1</v>
+        <v>-34</v>
       </c>
       <c r="U42">
-        <v>19</v>
+        <v>-35</v>
       </c>
       <c r="V42">
-        <v>-3</v>
+        <v>-25</v>
       </c>
       <c r="W42">
-        <v>-22</v>
+        <v>-47</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>-49</v>
       </c>
       <c r="Y42">
-        <v>-11</v>
+        <v>-54</v>
       </c>
       <c r="Z42">
-        <v>-22</v>
+        <v>-58</v>
       </c>
       <c r="AA42">
-        <v>-28</v>
+        <v>-63</v>
       </c>
       <c r="AB42">
-        <v>-34</v>
+        <v>-63</v>
       </c>
       <c r="AC42">
-        <v>-60</v>
+        <v>-62</v>
       </c>
       <c r="AD42">
-        <v>-65</v>
+        <v>-83</v>
       </c>
       <c r="AE42">
-        <v>-88</v>
+        <v>-100</v>
       </c>
       <c r="AF42">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="AG42">
         <v>-100</v>
@@ -11439,100 +11433,100 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>-4</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>-6</v>
+      </c>
+      <c r="I43">
+        <v>-6</v>
+      </c>
+      <c r="J43">
+        <v>15</v>
+      </c>
+      <c r="K43">
         <v>5</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
-      <c r="G43">
-        <v>-5</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43">
-        <v>-3</v>
-      </c>
-      <c r="J43">
-        <v>11</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
       </c>
       <c r="L43">
         <v>5</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O43">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="P43">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="Q43">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S43">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="T43">
+        <v>-1</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>-2</v>
       </c>
-      <c r="U43">
-        <v>-1</v>
-      </c>
-      <c r="V43">
-        <v>-10</v>
-      </c>
       <c r="W43">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="X43">
+        <v>-15</v>
+      </c>
+      <c r="Y43">
+        <v>-14</v>
+      </c>
+      <c r="Z43">
         <v>-16</v>
       </c>
-      <c r="Y43">
+      <c r="AA43">
+        <v>-22</v>
+      </c>
+      <c r="AB43">
         <v>-23</v>
       </c>
-      <c r="Z43">
-        <v>-22</v>
-      </c>
-      <c r="AA43">
-        <v>-29</v>
-      </c>
-      <c r="AB43">
-        <v>-25</v>
-      </c>
       <c r="AC43">
-        <v>-38</v>
+        <v>-20</v>
       </c>
       <c r="AD43">
-        <v>-54</v>
+        <v>-48</v>
       </c>
       <c r="AE43">
-        <v>-76</v>
+        <v>-75</v>
       </c>
       <c r="AF43">
-        <v>-90</v>
+        <v>-84</v>
       </c>
       <c r="AG43">
-        <v>-93</v>
+        <v>-86</v>
       </c>
       <c r="AH43">
-        <v>-96</v>
+        <v>-95</v>
       </c>
       <c r="AI43">
         <v>-100</v>
@@ -11667,16 +11661,16 @@
         <v>-100</v>
       </c>
       <c r="CA43">
-        <v>-100</v>
+        <v>-80</v>
       </c>
       <c r="CB43">
-        <v>-100</v>
+        <v>-78</v>
       </c>
       <c r="CC43">
-        <v>-100</v>
+        <v>-83</v>
       </c>
       <c r="CD43">
-        <v>-100</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="44" spans="1:82" x14ac:dyDescent="0.2">
@@ -11687,88 +11681,88 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>-14</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>-8</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="H44">
         <v>12</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="L44">
+        <v>-17</v>
+      </c>
+      <c r="M44">
+        <v>-16</v>
+      </c>
+      <c r="N44">
+        <v>-5</v>
+      </c>
+      <c r="O44">
+        <v>-9</v>
+      </c>
+      <c r="P44">
+        <v>-10</v>
+      </c>
+      <c r="Q44">
+        <v>-9</v>
+      </c>
+      <c r="R44">
+        <v>-2</v>
+      </c>
+      <c r="S44">
+        <v>-2</v>
+      </c>
+      <c r="T44">
+        <v>-15</v>
+      </c>
+      <c r="U44">
+        <v>-7</v>
+      </c>
+      <c r="V44">
         <v>5</v>
       </c>
-      <c r="M44">
-        <v>7</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
+      <c r="W44">
         <v>-18</v>
       </c>
-      <c r="P44">
-        <v>-29</v>
-      </c>
-      <c r="Q44">
-        <v>-31</v>
-      </c>
-      <c r="R44">
-        <v>-31</v>
-      </c>
-      <c r="S44">
-        <v>-36</v>
-      </c>
-      <c r="T44">
-        <v>-34</v>
-      </c>
-      <c r="U44">
-        <v>-35</v>
-      </c>
-      <c r="V44">
-        <v>-25</v>
-      </c>
-      <c r="W44">
-        <v>-47</v>
-      </c>
       <c r="X44">
+        <v>-21</v>
+      </c>
+      <c r="Y44">
+        <v>-28</v>
+      </c>
+      <c r="Z44">
+        <v>-37</v>
+      </c>
+      <c r="AA44">
         <v>-49</v>
       </c>
-      <c r="Y44">
+      <c r="AB44">
+        <v>-49</v>
+      </c>
+      <c r="AC44">
         <v>-54</v>
       </c>
-      <c r="Z44">
-        <v>-58</v>
-      </c>
-      <c r="AA44">
-        <v>-63</v>
-      </c>
-      <c r="AB44">
-        <v>-63</v>
-      </c>
-      <c r="AC44">
-        <v>-62</v>
-      </c>
       <c r="AD44">
-        <v>-83</v>
+        <v>-76</v>
       </c>
       <c r="AE44">
         <v>-100</v>
@@ -11935,100 +11929,100 @@
         <v>46</v>
       </c>
       <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>7</v>
       </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
         <v>2</v>
       </c>
-      <c r="F45">
-        <v>-4</v>
-      </c>
-      <c r="G45">
-        <v>11</v>
-      </c>
-      <c r="H45">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>-5</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>-2</v>
+      </c>
+      <c r="P45">
+        <v>-10</v>
+      </c>
+      <c r="Q45">
         <v>-6</v>
       </c>
-      <c r="I45">
+      <c r="R45">
         <v>-6</v>
       </c>
-      <c r="J45">
-        <v>15</v>
-      </c>
-      <c r="K45">
-        <v>5</v>
-      </c>
-      <c r="L45">
-        <v>5</v>
-      </c>
-      <c r="M45">
-        <v>10</v>
-      </c>
-      <c r="N45">
-        <v>5</v>
-      </c>
-      <c r="O45">
+      <c r="S45">
+        <v>-2</v>
+      </c>
+      <c r="T45">
+        <v>-5</v>
+      </c>
+      <c r="U45">
         <v>-15</v>
       </c>
-      <c r="P45">
-        <v>12</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
-      <c r="R45">
-        <v>10</v>
-      </c>
-      <c r="S45">
+      <c r="V45">
         <v>-1</v>
       </c>
-      <c r="T45">
-        <v>-1</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>-2</v>
-      </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="Y45">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="Z45">
-        <v>-16</v>
+        <v>-24</v>
       </c>
       <c r="AA45">
-        <v>-22</v>
+        <v>-36</v>
       </c>
       <c r="AB45">
-        <v>-23</v>
+        <v>-33</v>
       </c>
       <c r="AC45">
-        <v>-20</v>
+        <v>-36</v>
       </c>
       <c r="AD45">
-        <v>-48</v>
+        <v>-53</v>
       </c>
       <c r="AE45">
-        <v>-75</v>
+        <v>-98</v>
       </c>
       <c r="AF45">
-        <v>-84</v>
+        <v>-99</v>
       </c>
       <c r="AG45">
-        <v>-86</v>
+        <v>-100</v>
       </c>
       <c r="AH45">
-        <v>-95</v>
+        <v>-100</v>
       </c>
       <c r="AI45">
         <v>-100</v>
@@ -12163,16 +12157,16 @@
         <v>-100</v>
       </c>
       <c r="CA45">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="CB45">
-        <v>-78</v>
+        <v>-100</v>
       </c>
       <c r="CC45">
-        <v>-83</v>
+        <v>-100</v>
       </c>
       <c r="CD45">
-        <v>-78</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="46" spans="1:82" x14ac:dyDescent="0.2">
@@ -12180,88 +12174,88 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="D46">
+        <v>57</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>13</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>-8</v>
       </c>
-      <c r="E46">
+      <c r="R46">
+        <v>8</v>
+      </c>
+      <c r="S46">
+        <v>-4</v>
+      </c>
+      <c r="T46">
+        <v>-5</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
         <v>-9</v>
       </c>
-      <c r="F46">
-        <v>-9</v>
-      </c>
-      <c r="G46">
-        <v>-4</v>
-      </c>
-      <c r="H46">
-        <v>12</v>
-      </c>
-      <c r="I46">
-        <v>-8</v>
-      </c>
-      <c r="J46">
-        <v>-7</v>
-      </c>
-      <c r="K46">
-        <v>-6</v>
-      </c>
-      <c r="L46">
-        <v>-17</v>
-      </c>
-      <c r="M46">
-        <v>-16</v>
-      </c>
-      <c r="N46">
-        <v>-5</v>
-      </c>
-      <c r="O46">
-        <v>-9</v>
-      </c>
-      <c r="P46">
-        <v>-10</v>
-      </c>
-      <c r="Q46">
-        <v>-9</v>
-      </c>
-      <c r="R46">
-        <v>-2</v>
-      </c>
-      <c r="S46">
-        <v>-2</v>
-      </c>
-      <c r="T46">
-        <v>-15</v>
-      </c>
-      <c r="U46">
-        <v>-7</v>
-      </c>
-      <c r="V46">
-        <v>5</v>
-      </c>
-      <c r="W46">
+      <c r="X46">
         <v>-18</v>
       </c>
-      <c r="X46">
-        <v>-21</v>
-      </c>
       <c r="Y46">
-        <v>-28</v>
+        <v>-22</v>
       </c>
       <c r="Z46">
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="AA46">
-        <v>-49</v>
+        <v>-44</v>
       </c>
       <c r="AB46">
-        <v>-49</v>
+        <v>-44</v>
       </c>
       <c r="AC46">
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="AD46">
         <v>-76</v>
@@ -12420,502 +12414,6 @@
         <v>-100</v>
       </c>
       <c r="CD46">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>7</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="G47">
-        <v>7</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>-5</v>
-      </c>
-      <c r="M47">
-        <v>-1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>-2</v>
-      </c>
-      <c r="P47">
-        <v>-10</v>
-      </c>
-      <c r="Q47">
-        <v>-6</v>
-      </c>
-      <c r="R47">
-        <v>-6</v>
-      </c>
-      <c r="S47">
-        <v>-2</v>
-      </c>
-      <c r="T47">
-        <v>-5</v>
-      </c>
-      <c r="U47">
-        <v>-15</v>
-      </c>
-      <c r="V47">
-        <v>-1</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47">
-        <v>-6</v>
-      </c>
-      <c r="Y47">
-        <v>-17</v>
-      </c>
-      <c r="Z47">
-        <v>-24</v>
-      </c>
-      <c r="AA47">
-        <v>-36</v>
-      </c>
-      <c r="AB47">
-        <v>-33</v>
-      </c>
-      <c r="AC47">
-        <v>-36</v>
-      </c>
-      <c r="AD47">
-        <v>-53</v>
-      </c>
-      <c r="AE47">
-        <v>-98</v>
-      </c>
-      <c r="AF47">
-        <v>-99</v>
-      </c>
-      <c r="AG47">
-        <v>-100</v>
-      </c>
-      <c r="AH47">
-        <v>-100</v>
-      </c>
-      <c r="AI47">
-        <v>-100</v>
-      </c>
-      <c r="AJ47">
-        <v>-100</v>
-      </c>
-      <c r="AK47">
-        <v>-100</v>
-      </c>
-      <c r="AL47">
-        <v>-100</v>
-      </c>
-      <c r="AM47">
-        <v>-100</v>
-      </c>
-      <c r="AN47">
-        <v>-100</v>
-      </c>
-      <c r="AO47">
-        <v>-100</v>
-      </c>
-      <c r="AP47">
-        <v>-100</v>
-      </c>
-      <c r="AQ47">
-        <v>-100</v>
-      </c>
-      <c r="AR47">
-        <v>-100</v>
-      </c>
-      <c r="AS47">
-        <v>-100</v>
-      </c>
-      <c r="AT47">
-        <v>-100</v>
-      </c>
-      <c r="AU47">
-        <v>-100</v>
-      </c>
-      <c r="AV47">
-        <v>-100</v>
-      </c>
-      <c r="AW47">
-        <v>-100</v>
-      </c>
-      <c r="AX47">
-        <v>-100</v>
-      </c>
-      <c r="AY47">
-        <v>-100</v>
-      </c>
-      <c r="AZ47">
-        <v>-100</v>
-      </c>
-      <c r="BA47">
-        <v>-100</v>
-      </c>
-      <c r="BB47">
-        <v>-100</v>
-      </c>
-      <c r="BC47">
-        <v>-100</v>
-      </c>
-      <c r="BD47">
-        <v>-100</v>
-      </c>
-      <c r="BE47">
-        <v>-100</v>
-      </c>
-      <c r="BF47">
-        <v>-100</v>
-      </c>
-      <c r="BG47">
-        <v>-100</v>
-      </c>
-      <c r="BH47">
-        <v>-100</v>
-      </c>
-      <c r="BI47">
-        <v>-100</v>
-      </c>
-      <c r="BJ47">
-        <v>-100</v>
-      </c>
-      <c r="BK47">
-        <v>-100</v>
-      </c>
-      <c r="BL47">
-        <v>-100</v>
-      </c>
-      <c r="BM47">
-        <v>-100</v>
-      </c>
-      <c r="BN47">
-        <v>-100</v>
-      </c>
-      <c r="BO47">
-        <v>-100</v>
-      </c>
-      <c r="BP47">
-        <v>-100</v>
-      </c>
-      <c r="BQ47">
-        <v>-100</v>
-      </c>
-      <c r="BR47">
-        <v>-100</v>
-      </c>
-      <c r="BS47">
-        <v>-100</v>
-      </c>
-      <c r="BT47">
-        <v>-100</v>
-      </c>
-      <c r="BU47">
-        <v>-100</v>
-      </c>
-      <c r="BV47">
-        <v>-100</v>
-      </c>
-      <c r="BW47">
-        <v>-100</v>
-      </c>
-      <c r="BX47">
-        <v>-100</v>
-      </c>
-      <c r="BY47">
-        <v>-100</v>
-      </c>
-      <c r="BZ47">
-        <v>-100</v>
-      </c>
-      <c r="CA47">
-        <v>-100</v>
-      </c>
-      <c r="CB47">
-        <v>-100</v>
-      </c>
-      <c r="CC47">
-        <v>-100</v>
-      </c>
-      <c r="CD47">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>-5</v>
-      </c>
-      <c r="D48">
-        <v>57</v>
-      </c>
-      <c r="E48">
-        <v>9</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>9</v>
-      </c>
-      <c r="H48">
-        <v>16</v>
-      </c>
-      <c r="I48">
-        <v>13</v>
-      </c>
-      <c r="J48">
-        <v>9</v>
-      </c>
-      <c r="K48">
-        <v>9</v>
-      </c>
-      <c r="L48">
-        <v>2</v>
-      </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>6</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>-8</v>
-      </c>
-      <c r="R48">
-        <v>8</v>
-      </c>
-      <c r="S48">
-        <v>-4</v>
-      </c>
-      <c r="T48">
-        <v>-5</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>-9</v>
-      </c>
-      <c r="X48">
-        <v>-18</v>
-      </c>
-      <c r="Y48">
-        <v>-22</v>
-      </c>
-      <c r="Z48">
-        <v>-38</v>
-      </c>
-      <c r="AA48">
-        <v>-44</v>
-      </c>
-      <c r="AB48">
-        <v>-44</v>
-      </c>
-      <c r="AC48">
-        <v>-55</v>
-      </c>
-      <c r="AD48">
-        <v>-76</v>
-      </c>
-      <c r="AE48">
-        <v>-100</v>
-      </c>
-      <c r="AF48">
-        <v>-100</v>
-      </c>
-      <c r="AG48">
-        <v>-100</v>
-      </c>
-      <c r="AH48">
-        <v>-100</v>
-      </c>
-      <c r="AI48">
-        <v>-100</v>
-      </c>
-      <c r="AJ48">
-        <v>-100</v>
-      </c>
-      <c r="AK48">
-        <v>-100</v>
-      </c>
-      <c r="AL48">
-        <v>-100</v>
-      </c>
-      <c r="AM48">
-        <v>-100</v>
-      </c>
-      <c r="AN48">
-        <v>-100</v>
-      </c>
-      <c r="AO48">
-        <v>-100</v>
-      </c>
-      <c r="AP48">
-        <v>-100</v>
-      </c>
-      <c r="AQ48">
-        <v>-100</v>
-      </c>
-      <c r="AR48">
-        <v>-100</v>
-      </c>
-      <c r="AS48">
-        <v>-100</v>
-      </c>
-      <c r="AT48">
-        <v>-100</v>
-      </c>
-      <c r="AU48">
-        <v>-100</v>
-      </c>
-      <c r="AV48">
-        <v>-100</v>
-      </c>
-      <c r="AW48">
-        <v>-100</v>
-      </c>
-      <c r="AX48">
-        <v>-100</v>
-      </c>
-      <c r="AY48">
-        <v>-100</v>
-      </c>
-      <c r="AZ48">
-        <v>-100</v>
-      </c>
-      <c r="BA48">
-        <v>-100</v>
-      </c>
-      <c r="BB48">
-        <v>-100</v>
-      </c>
-      <c r="BC48">
-        <v>-100</v>
-      </c>
-      <c r="BD48">
-        <v>-100</v>
-      </c>
-      <c r="BE48">
-        <v>-100</v>
-      </c>
-      <c r="BF48">
-        <v>-100</v>
-      </c>
-      <c r="BG48">
-        <v>-100</v>
-      </c>
-      <c r="BH48">
-        <v>-100</v>
-      </c>
-      <c r="BI48">
-        <v>-100</v>
-      </c>
-      <c r="BJ48">
-        <v>-100</v>
-      </c>
-      <c r="BK48">
-        <v>-100</v>
-      </c>
-      <c r="BL48">
-        <v>-100</v>
-      </c>
-      <c r="BM48">
-        <v>-100</v>
-      </c>
-      <c r="BN48">
-        <v>-100</v>
-      </c>
-      <c r="BO48">
-        <v>-100</v>
-      </c>
-      <c r="BP48">
-        <v>-100</v>
-      </c>
-      <c r="BQ48">
-        <v>-100</v>
-      </c>
-      <c r="BR48">
-        <v>-100</v>
-      </c>
-      <c r="BS48">
-        <v>-100</v>
-      </c>
-      <c r="BT48">
-        <v>-100</v>
-      </c>
-      <c r="BU48">
-        <v>-100</v>
-      </c>
-      <c r="BV48">
-        <v>-100</v>
-      </c>
-      <c r="BW48">
-        <v>-100</v>
-      </c>
-      <c r="BX48">
-        <v>-100</v>
-      </c>
-      <c r="BY48">
-        <v>-100</v>
-      </c>
-      <c r="BZ48">
-        <v>-100</v>
-      </c>
-      <c r="CA48">
-        <v>-100</v>
-      </c>
-      <c r="CB48">
-        <v>-100</v>
-      </c>
-      <c r="CC48">
-        <v>-100</v>
-      </c>
-      <c r="CD48">
         <v>-100</v>
       </c>
     </row>

--- a/reopentable_05_08.xlsx
+++ b/reopentable_05_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntomczak/Documents/1Projects/Corona_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A529A-AEB6-4141-AF1F-8CF8837C4376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC97AF4-BB50-E745-8508-75471CC3C0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reopentable-5_08" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>New York</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Ciudad de M√©xico</t>
   </si>
   <si>
     <t>Columbus</t>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>San Francisco</t>
-  </si>
-  <si>
-    <t>San Pedro Garza Garc√≠a</t>
   </si>
   <si>
     <t>Scottsdale</t>
@@ -1001,13 +995,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD46"/>
+  <dimension ref="A1:CD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B27:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3001,133 +2998,133 @@
         <v>11</v>
       </c>
       <c r="C9">
+        <v>-10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
         <v>-8</v>
       </c>
-      <c r="D9">
-        <v>-9</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>-3</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-2</v>
+        <v>-17</v>
       </c>
       <c r="K9">
+        <v>-14</v>
+      </c>
+      <c r="L9">
+        <v>-15</v>
+      </c>
+      <c r="M9">
+        <v>-15</v>
+      </c>
+      <c r="N9">
+        <v>-15</v>
+      </c>
+      <c r="O9">
+        <v>22</v>
+      </c>
+      <c r="P9">
+        <v>-14</v>
+      </c>
+      <c r="Q9">
+        <v>-9</v>
+      </c>
+      <c r="R9">
+        <v>-11</v>
+      </c>
+      <c r="S9">
         <v>-10</v>
       </c>
-      <c r="L9">
+      <c r="T9">
         <v>-9</v>
       </c>
-      <c r="M9">
-        <v>-8</v>
-      </c>
-      <c r="N9">
-        <v>-8</v>
-      </c>
-      <c r="O9">
-        <v>-8</v>
-      </c>
-      <c r="P9">
-        <v>-8</v>
-      </c>
-      <c r="Q9">
-        <v>-8</v>
-      </c>
-      <c r="R9">
-        <v>-4</v>
-      </c>
-      <c r="S9">
-        <v>-9</v>
-      </c>
-      <c r="T9">
-        <v>-8</v>
-      </c>
       <c r="U9">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="V9">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="X9">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="Y9">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="Z9">
-        <v>-16</v>
+        <v>-37</v>
       </c>
       <c r="AA9">
-        <v>-16</v>
+        <v>-38</v>
       </c>
       <c r="AB9">
-        <v>-20</v>
+        <v>-53</v>
       </c>
       <c r="AC9">
-        <v>-38</v>
+        <v>-49</v>
       </c>
       <c r="AD9">
-        <v>-58</v>
+        <v>-100</v>
       </c>
       <c r="AE9">
-        <v>-73</v>
+        <v>-100</v>
       </c>
       <c r="AF9">
-        <v>-81</v>
+        <v>-100</v>
       </c>
       <c r="AG9">
-        <v>-86</v>
+        <v>-100</v>
       </c>
       <c r="AH9">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="AI9">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="AJ9">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AK9">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="AL9">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="AM9">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="AN9">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AO9">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AP9">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AQ9">
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="AR9">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AS9">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AT9">
         <v>-100</v>
@@ -3249,88 +3246,88 @@
         <v>12</v>
       </c>
       <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-3</v>
+      </c>
+      <c r="H10">
+        <v>-2</v>
+      </c>
+      <c r="I10">
+        <v>-2</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>-7</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>-6</v>
+      </c>
+      <c r="R10">
+        <v>-8</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>-1</v>
+      </c>
+      <c r="V10">
+        <v>-2</v>
+      </c>
+      <c r="W10">
+        <v>-15</v>
+      </c>
+      <c r="X10">
         <v>-10</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-      <c r="F10">
-        <v>-6</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>-17</v>
-      </c>
-      <c r="K10">
-        <v>-14</v>
-      </c>
-      <c r="L10">
-        <v>-15</v>
-      </c>
-      <c r="M10">
-        <v>-15</v>
-      </c>
-      <c r="N10">
-        <v>-15</v>
-      </c>
-      <c r="O10">
-        <v>22</v>
-      </c>
-      <c r="P10">
-        <v>-14</v>
-      </c>
-      <c r="Q10">
-        <v>-9</v>
-      </c>
-      <c r="R10">
-        <v>-11</v>
-      </c>
-      <c r="S10">
-        <v>-10</v>
-      </c>
-      <c r="T10">
-        <v>-9</v>
-      </c>
-      <c r="U10">
-        <v>-5</v>
-      </c>
-      <c r="V10">
-        <v>3</v>
-      </c>
-      <c r="W10">
-        <v>-26</v>
-      </c>
-      <c r="X10">
-        <v>-19</v>
-      </c>
       <c r="Y10">
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="Z10">
-        <v>-37</v>
+        <v>-25</v>
       </c>
       <c r="AA10">
-        <v>-38</v>
+        <v>-35</v>
       </c>
       <c r="AB10">
-        <v>-53</v>
+        <v>-35</v>
       </c>
       <c r="AC10">
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="AD10">
-        <v>-100</v>
+        <v>-61</v>
       </c>
       <c r="AE10">
         <v>-100</v>
@@ -3468,25 +3465,25 @@
         <v>-100</v>
       </c>
       <c r="BX10">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="BY10">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="BZ10">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="CA10">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="CB10">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="CC10">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="CD10">
-        <v>-100</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.2">
@@ -3497,88 +3494,88 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="D11">
+        <v>-12</v>
+      </c>
+      <c r="E11">
+        <v>-9</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>-3</v>
+      </c>
+      <c r="I11">
+        <v>-10</v>
+      </c>
+      <c r="J11">
+        <v>-12</v>
+      </c>
+      <c r="K11">
+        <v>-2</v>
+      </c>
+      <c r="L11">
+        <v>-2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>27</v>
+      </c>
+      <c r="O11">
+        <v>38</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>-9</v>
+      </c>
+      <c r="R11">
+        <v>-3</v>
+      </c>
+      <c r="S11">
+        <v>-10</v>
+      </c>
+      <c r="T11">
+        <v>-9</v>
+      </c>
+      <c r="U11">
+        <v>-6</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>-20</v>
+      </c>
+      <c r="X11">
+        <v>-19</v>
+      </c>
+      <c r="Y11">
         <v>-4</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>-3</v>
-      </c>
-      <c r="H11">
-        <v>-2</v>
-      </c>
-      <c r="I11">
-        <v>-2</v>
-      </c>
-      <c r="J11">
-        <v>14</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>-7</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>11</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>-6</v>
-      </c>
-      <c r="R11">
-        <v>-8</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>-1</v>
-      </c>
-      <c r="V11">
-        <v>-2</v>
-      </c>
-      <c r="W11">
-        <v>-15</v>
-      </c>
-      <c r="X11">
-        <v>-10</v>
-      </c>
-      <c r="Y11">
-        <v>-12</v>
-      </c>
       <c r="Z11">
-        <v>-25</v>
+        <v>-17</v>
       </c>
       <c r="AA11">
-        <v>-35</v>
+        <v>-46</v>
       </c>
       <c r="AB11">
-        <v>-35</v>
+        <v>-46</v>
       </c>
       <c r="AC11">
-        <v>-42</v>
+        <v>-50</v>
       </c>
       <c r="AD11">
-        <v>-61</v>
+        <v>-56</v>
       </c>
       <c r="AE11">
         <v>-100</v>
@@ -3716,25 +3713,25 @@
         <v>-100</v>
       </c>
       <c r="BX11">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="BY11">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="BZ11">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="CA11">
-        <v>-93</v>
+        <v>-100</v>
       </c>
       <c r="CB11">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="CC11">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="CD11">
-        <v>-92</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.2">
@@ -3745,91 +3742,91 @@
         <v>14</v>
       </c>
       <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12">
         <v>-1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-3</v>
+      </c>
+      <c r="H12">
+        <v>-6</v>
+      </c>
+      <c r="I12">
         <v>-12</v>
       </c>
-      <c r="E12">
+      <c r="J12">
+        <v>-11</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>-4</v>
+      </c>
+      <c r="M12">
         <v>-9</v>
       </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
+      <c r="N12">
+        <v>-6</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
         <v>-3</v>
-      </c>
-      <c r="I12">
-        <v>-10</v>
-      </c>
-      <c r="J12">
-        <v>-12</v>
-      </c>
-      <c r="K12">
-        <v>-2</v>
-      </c>
-      <c r="L12">
-        <v>-2</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>27</v>
-      </c>
-      <c r="O12">
-        <v>38</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
       </c>
       <c r="Q12">
         <v>-9</v>
       </c>
       <c r="R12">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="S12">
+        <v>-11</v>
+      </c>
+      <c r="T12">
         <v>-10</v>
       </c>
-      <c r="T12">
-        <v>-9</v>
-      </c>
       <c r="U12">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="W12">
-        <v>-20</v>
+        <v>-11</v>
       </c>
       <c r="X12">
-        <v>-19</v>
+        <v>-29</v>
       </c>
       <c r="Y12">
-        <v>-4</v>
+        <v>-30</v>
       </c>
       <c r="Z12">
-        <v>-17</v>
+        <v>-46</v>
       </c>
       <c r="AA12">
         <v>-46</v>
       </c>
       <c r="AB12">
-        <v>-46</v>
+        <v>-54</v>
       </c>
       <c r="AC12">
-        <v>-50</v>
+        <v>-70</v>
       </c>
       <c r="AD12">
-        <v>-56</v>
+        <v>-71</v>
       </c>
       <c r="AE12">
-        <v>-100</v>
+        <v>-87</v>
       </c>
       <c r="AF12">
         <v>-100</v>
@@ -3993,100 +3990,100 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>-3</v>
-      </c>
-      <c r="H13">
-        <v>-6</v>
-      </c>
-      <c r="I13">
-        <v>-12</v>
-      </c>
       <c r="J13">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>-4</v>
       </c>
       <c r="M13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="N13">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>-5</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>-14</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>-14</v>
+      </c>
+      <c r="V13">
         <v>4</v>
       </c>
-      <c r="P13">
-        <v>-3</v>
-      </c>
-      <c r="Q13">
-        <v>-9</v>
-      </c>
-      <c r="R13">
-        <v>-2</v>
-      </c>
-      <c r="S13">
-        <v>-11</v>
-      </c>
-      <c r="T13">
+      <c r="W13">
+        <v>-19</v>
+      </c>
+      <c r="X13">
+        <v>-14</v>
+      </c>
+      <c r="Y13">
         <v>-10</v>
       </c>
-      <c r="U13">
-        <v>-4</v>
-      </c>
-      <c r="V13">
-        <v>-7</v>
-      </c>
-      <c r="W13">
-        <v>-11</v>
-      </c>
-      <c r="X13">
-        <v>-29</v>
-      </c>
-      <c r="Y13">
-        <v>-30</v>
-      </c>
       <c r="Z13">
+        <v>-23</v>
+      </c>
+      <c r="AA13">
+        <v>-33</v>
+      </c>
+      <c r="AB13">
+        <v>-40</v>
+      </c>
+      <c r="AC13">
         <v>-46</v>
       </c>
-      <c r="AA13">
-        <v>-46</v>
-      </c>
-      <c r="AB13">
-        <v>-54</v>
-      </c>
-      <c r="AC13">
-        <v>-70</v>
-      </c>
       <c r="AD13">
-        <v>-71</v>
+        <v>-64</v>
       </c>
       <c r="AE13">
-        <v>-87</v>
+        <v>-92</v>
       </c>
       <c r="AF13">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AG13">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AH13">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AI13">
         <v>-100</v>
@@ -4095,7 +4092,7 @@
         <v>-100</v>
       </c>
       <c r="AK13">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AL13">
         <v>-100</v>
@@ -4241,100 +4238,100 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="H14">
+        <v>-8</v>
+      </c>
+      <c r="I14">
+        <v>-5</v>
+      </c>
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>9</v>
-      </c>
       <c r="K14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="O14">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="P14">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>-15</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="S14">
+        <v>-11</v>
+      </c>
+      <c r="T14">
+        <v>-13</v>
+      </c>
+      <c r="U14">
+        <v>-3</v>
+      </c>
+      <c r="V14">
         <v>-14</v>
       </c>
-      <c r="T14">
-        <v>5</v>
-      </c>
-      <c r="U14">
-        <v>-14</v>
-      </c>
-      <c r="V14">
-        <v>4</v>
-      </c>
       <c r="W14">
+        <v>-15</v>
+      </c>
+      <c r="X14">
         <v>-19</v>
       </c>
-      <c r="X14">
-        <v>-14</v>
-      </c>
       <c r="Y14">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="Z14">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="AA14">
-        <v>-33</v>
+        <v>-28</v>
       </c>
       <c r="AB14">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="AC14">
+        <v>-44</v>
+      </c>
+      <c r="AD14">
         <v>-46</v>
       </c>
-      <c r="AD14">
-        <v>-64</v>
-      </c>
       <c r="AE14">
-        <v>-92</v>
+        <v>-88</v>
       </c>
       <c r="AF14">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AG14">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AH14">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AI14">
         <v>-100</v>
@@ -4343,7 +4340,7 @@
         <v>-100</v>
       </c>
       <c r="AK14">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AL14">
         <v>-100</v>
@@ -4489,91 +4486,91 @@
         <v>17</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>-3</v>
+      </c>
+      <c r="P15">
+        <v>-5</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>-5</v>
+      </c>
+      <c r="S15">
         <v>-8</v>
       </c>
-      <c r="D15">
-        <v>-4</v>
-      </c>
-      <c r="E15">
-        <v>-6</v>
-      </c>
-      <c r="F15">
-        <v>-14</v>
-      </c>
-      <c r="G15">
-        <v>-8</v>
-      </c>
-      <c r="H15">
-        <v>-8</v>
-      </c>
-      <c r="I15">
+      <c r="T15">
+        <v>-3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>-13</v>
+      </c>
+      <c r="X15">
+        <v>-16</v>
+      </c>
+      <c r="Y15">
         <v>-5</v>
       </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>-11</v>
-      </c>
-      <c r="M15">
-        <v>-7</v>
-      </c>
-      <c r="N15">
-        <v>-18</v>
-      </c>
-      <c r="O15">
-        <v>-17</v>
-      </c>
-      <c r="P15">
-        <v>-12</v>
-      </c>
-      <c r="Q15">
-        <v>-15</v>
-      </c>
-      <c r="R15">
-        <v>-8</v>
-      </c>
-      <c r="S15">
-        <v>-11</v>
-      </c>
-      <c r="T15">
-        <v>-13</v>
-      </c>
-      <c r="U15">
-        <v>-3</v>
-      </c>
-      <c r="V15">
-        <v>-14</v>
-      </c>
-      <c r="W15">
-        <v>-15</v>
-      </c>
-      <c r="X15">
-        <v>-19</v>
-      </c>
-      <c r="Y15">
-        <v>-15</v>
-      </c>
       <c r="Z15">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AA15">
         <v>-28</v>
       </c>
       <c r="AB15">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="AC15">
-        <v>-44</v>
+        <v>-55</v>
       </c>
       <c r="AD15">
-        <v>-46</v>
+        <v>-76</v>
       </c>
       <c r="AE15">
-        <v>-88</v>
+        <v>-95</v>
       </c>
       <c r="AF15">
         <v>-100</v>
@@ -4737,100 +4734,100 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="O16">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="P16">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="R16">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="S16">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="T16">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="W16">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="X16">
         <v>-16</v>
       </c>
       <c r="Y16">
-        <v>-5</v>
+        <v>-17</v>
       </c>
       <c r="Z16">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="AA16">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="AB16">
+        <v>-22</v>
+      </c>
+      <c r="AC16">
+        <v>-32</v>
+      </c>
+      <c r="AD16">
         <v>-40</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>-55</v>
       </c>
-      <c r="AD16">
-        <v>-76</v>
-      </c>
-      <c r="AE16">
-        <v>-95</v>
-      </c>
       <c r="AF16">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="AG16">
-        <v>-100</v>
+        <v>-83</v>
       </c>
       <c r="AH16">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AI16">
         <v>-100</v>
@@ -4985,244 +4982,244 @@
         <v>19</v>
       </c>
       <c r="C17">
+        <v>-2</v>
+      </c>
+      <c r="D17">
+        <v>-8</v>
+      </c>
+      <c r="E17">
         <v>-3</v>
       </c>
-      <c r="D17">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
+      <c r="H17">
+        <v>-10</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
         <v>9</v>
       </c>
-      <c r="G17">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="N17">
         <v>-6</v>
       </c>
       <c r="O17">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="R17">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="S17">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="U17">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="V17">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="W17">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="X17">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="Y17">
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="Z17">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="AA17">
-        <v>-18</v>
+        <v>-33</v>
       </c>
       <c r="AB17">
-        <v>-22</v>
+        <v>-34</v>
       </c>
       <c r="AC17">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="AD17">
-        <v>-40</v>
+        <v>-61</v>
       </c>
       <c r="AE17">
-        <v>-55</v>
+        <v>-100</v>
       </c>
       <c r="AF17">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="AG17">
-        <v>-83</v>
+        <v>-100</v>
       </c>
       <c r="AH17">
+        <v>-100</v>
+      </c>
+      <c r="AI17">
+        <v>-100</v>
+      </c>
+      <c r="AJ17">
+        <v>-100</v>
+      </c>
+      <c r="AK17">
+        <v>-100</v>
+      </c>
+      <c r="AL17">
+        <v>-100</v>
+      </c>
+      <c r="AM17">
+        <v>-100</v>
+      </c>
+      <c r="AN17">
+        <v>-100</v>
+      </c>
+      <c r="AO17">
+        <v>-100</v>
+      </c>
+      <c r="AP17">
+        <v>-100</v>
+      </c>
+      <c r="AQ17">
+        <v>-100</v>
+      </c>
+      <c r="AR17">
+        <v>-100</v>
+      </c>
+      <c r="AS17">
+        <v>-100</v>
+      </c>
+      <c r="AT17">
+        <v>-100</v>
+      </c>
+      <c r="AU17">
+        <v>-100</v>
+      </c>
+      <c r="AV17">
+        <v>-100</v>
+      </c>
+      <c r="AW17">
+        <v>-100</v>
+      </c>
+      <c r="AX17">
+        <v>-100</v>
+      </c>
+      <c r="AY17">
+        <v>-100</v>
+      </c>
+      <c r="AZ17">
+        <v>-100</v>
+      </c>
+      <c r="BA17">
+        <v>-100</v>
+      </c>
+      <c r="BB17">
+        <v>-100</v>
+      </c>
+      <c r="BC17">
+        <v>-100</v>
+      </c>
+      <c r="BD17">
+        <v>-100</v>
+      </c>
+      <c r="BE17">
+        <v>-100</v>
+      </c>
+      <c r="BF17">
+        <v>-100</v>
+      </c>
+      <c r="BG17">
+        <v>-100</v>
+      </c>
+      <c r="BH17">
+        <v>-100</v>
+      </c>
+      <c r="BI17">
+        <v>-100</v>
+      </c>
+      <c r="BJ17">
+        <v>-100</v>
+      </c>
+      <c r="BK17">
+        <v>-100</v>
+      </c>
+      <c r="BL17">
+        <v>-100</v>
+      </c>
+      <c r="BM17">
+        <v>-100</v>
+      </c>
+      <c r="BN17">
+        <v>-100</v>
+      </c>
+      <c r="BO17">
+        <v>-100</v>
+      </c>
+      <c r="BP17">
+        <v>-100</v>
+      </c>
+      <c r="BQ17">
+        <v>-100</v>
+      </c>
+      <c r="BR17">
+        <v>-100</v>
+      </c>
+      <c r="BS17">
+        <v>-100</v>
+      </c>
+      <c r="BT17">
+        <v>-100</v>
+      </c>
+      <c r="BU17">
+        <v>-100</v>
+      </c>
+      <c r="BV17">
+        <v>-100</v>
+      </c>
+      <c r="BW17">
         <v>-99</v>
       </c>
-      <c r="AI17">
-        <v>-100</v>
-      </c>
-      <c r="AJ17">
-        <v>-100</v>
-      </c>
-      <c r="AK17">
-        <v>-100</v>
-      </c>
-      <c r="AL17">
-        <v>-100</v>
-      </c>
-      <c r="AM17">
-        <v>-100</v>
-      </c>
-      <c r="AN17">
-        <v>-100</v>
-      </c>
-      <c r="AO17">
-        <v>-100</v>
-      </c>
-      <c r="AP17">
-        <v>-100</v>
-      </c>
-      <c r="AQ17">
-        <v>-100</v>
-      </c>
-      <c r="AR17">
-        <v>-100</v>
-      </c>
-      <c r="AS17">
-        <v>-100</v>
-      </c>
-      <c r="AT17">
-        <v>-100</v>
-      </c>
-      <c r="AU17">
-        <v>-100</v>
-      </c>
-      <c r="AV17">
-        <v>-100</v>
-      </c>
-      <c r="AW17">
-        <v>-100</v>
-      </c>
-      <c r="AX17">
-        <v>-100</v>
-      </c>
-      <c r="AY17">
-        <v>-100</v>
-      </c>
-      <c r="AZ17">
-        <v>-100</v>
-      </c>
-      <c r="BA17">
-        <v>-100</v>
-      </c>
-      <c r="BB17">
-        <v>-100</v>
-      </c>
-      <c r="BC17">
-        <v>-100</v>
-      </c>
-      <c r="BD17">
-        <v>-100</v>
-      </c>
-      <c r="BE17">
-        <v>-100</v>
-      </c>
-      <c r="BF17">
-        <v>-100</v>
-      </c>
-      <c r="BG17">
-        <v>-100</v>
-      </c>
-      <c r="BH17">
-        <v>-100</v>
-      </c>
-      <c r="BI17">
-        <v>-100</v>
-      </c>
-      <c r="BJ17">
-        <v>-100</v>
-      </c>
-      <c r="BK17">
-        <v>-100</v>
-      </c>
-      <c r="BL17">
-        <v>-100</v>
-      </c>
-      <c r="BM17">
-        <v>-100</v>
-      </c>
-      <c r="BN17">
-        <v>-100</v>
-      </c>
-      <c r="BO17">
-        <v>-100</v>
-      </c>
-      <c r="BP17">
-        <v>-100</v>
-      </c>
-      <c r="BQ17">
-        <v>-100</v>
-      </c>
-      <c r="BR17">
-        <v>-100</v>
-      </c>
-      <c r="BS17">
-        <v>-100</v>
-      </c>
-      <c r="BT17">
-        <v>-100</v>
-      </c>
-      <c r="BU17">
-        <v>-100</v>
-      </c>
-      <c r="BV17">
-        <v>-100</v>
-      </c>
-      <c r="BW17">
-        <v>-100</v>
-      </c>
       <c r="BX17">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="BY17">
-        <v>-100</v>
+        <v>-87</v>
       </c>
       <c r="BZ17">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="CA17">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="CB17">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="CC17">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="CD17">
-        <v>-100</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="18" spans="1:82" x14ac:dyDescent="0.2">
@@ -5233,88 +5230,88 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>-2</v>
+        <v>52</v>
       </c>
       <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>-28</v>
+      </c>
+      <c r="F18">
+        <v>-15</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>-4</v>
+      </c>
+      <c r="L18">
+        <v>-3</v>
+      </c>
+      <c r="M18">
         <v>-8</v>
       </c>
-      <c r="E18">
-        <v>-3</v>
-      </c>
-      <c r="F18">
+      <c r="N18">
         <v>3</v>
       </c>
-      <c r="G18">
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>-5</v>
+      </c>
+      <c r="Q18">
+        <v>-7</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>-10</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>-6</v>
-      </c>
-      <c r="N18">
-        <v>-6</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>-8</v>
-      </c>
-      <c r="R18">
-        <v>-8</v>
-      </c>
-      <c r="S18">
-        <v>7</v>
-      </c>
-      <c r="T18">
-        <v>6</v>
-      </c>
-      <c r="U18">
-        <v>10</v>
-      </c>
       <c r="V18">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="W18">
-        <v>-14</v>
+        <v>-29</v>
       </c>
       <c r="X18">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="Y18">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="Z18">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="AA18">
-        <v>-33</v>
+        <v>-47</v>
       </c>
       <c r="AB18">
-        <v>-34</v>
+        <v>-58</v>
       </c>
       <c r="AC18">
-        <v>-40</v>
+        <v>-49</v>
       </c>
       <c r="AD18">
-        <v>-61</v>
+        <v>-71</v>
       </c>
       <c r="AE18">
         <v>-100</v>
@@ -5449,28 +5446,28 @@
         <v>-100</v>
       </c>
       <c r="BW18">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BX18">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="BY18">
-        <v>-87</v>
+        <v>-100</v>
       </c>
       <c r="BZ18">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="CA18">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="CB18">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="CC18">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="CD18">
-        <v>-87</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="19" spans="1:82" x14ac:dyDescent="0.2">
@@ -5481,91 +5478,91 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>-22</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>-19</v>
       </c>
       <c r="E19">
+        <v>-6</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>-4</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>-2</v>
+      </c>
+      <c r="J19">
+        <v>-3</v>
+      </c>
+      <c r="K19">
+        <v>-17</v>
+      </c>
+      <c r="L19">
+        <v>-9</v>
+      </c>
+      <c r="M19">
+        <v>-10</v>
+      </c>
+      <c r="N19">
+        <v>-6</v>
+      </c>
+      <c r="O19">
+        <v>-17</v>
+      </c>
+      <c r="P19">
         <v>-28</v>
       </c>
-      <c r="F19">
-        <v>-15</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>16</v>
-      </c>
-      <c r="K19">
-        <v>-4</v>
-      </c>
-      <c r="L19">
-        <v>-3</v>
-      </c>
-      <c r="M19">
+      <c r="Q19">
+        <v>-31</v>
+      </c>
+      <c r="R19">
+        <v>-13</v>
+      </c>
+      <c r="S19">
+        <v>-9</v>
+      </c>
+      <c r="T19">
         <v>-8</v>
       </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>15</v>
-      </c>
-      <c r="P19">
-        <v>-5</v>
-      </c>
-      <c r="Q19">
+      <c r="U19">
         <v>-7</v>
       </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
       <c r="V19">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="W19">
-        <v>-29</v>
+        <v>-11</v>
       </c>
       <c r="X19">
+        <v>-19</v>
+      </c>
+      <c r="Y19">
+        <v>-13</v>
+      </c>
+      <c r="Z19">
         <v>-20</v>
       </c>
-      <c r="Y19">
-        <v>-25</v>
-      </c>
-      <c r="Z19">
-        <v>-35</v>
-      </c>
       <c r="AA19">
-        <v>-47</v>
+        <v>-32</v>
       </c>
       <c r="AB19">
+        <v>-36</v>
+      </c>
+      <c r="AC19">
+        <v>-48</v>
+      </c>
+      <c r="AD19">
         <v>-58</v>
       </c>
-      <c r="AC19">
-        <v>-49</v>
-      </c>
-      <c r="AD19">
-        <v>-71</v>
-      </c>
       <c r="AE19">
-        <v>-100</v>
+        <v>-88</v>
       </c>
       <c r="AF19">
         <v>-100</v>
@@ -5729,91 +5726,91 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
         <v>-4</v>
       </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
       <c r="I20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J20">
         <v>-3</v>
       </c>
       <c r="K20">
-        <v>-17</v>
+        <v>-1</v>
       </c>
       <c r="L20">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="M20">
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <v>-4</v>
+      </c>
+      <c r="O20">
+        <v>-2</v>
+      </c>
+      <c r="P20">
         <v>-10</v>
       </c>
-      <c r="N20">
-        <v>-6</v>
-      </c>
-      <c r="O20">
-        <v>-17</v>
-      </c>
-      <c r="P20">
-        <v>-28</v>
-      </c>
       <c r="Q20">
-        <v>-31</v>
+        <v>-10</v>
       </c>
       <c r="R20">
+        <v>-10</v>
+      </c>
+      <c r="S20">
         <v>-13</v>
       </c>
-      <c r="S20">
-        <v>-9</v>
-      </c>
       <c r="T20">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="U20">
         <v>-7</v>
       </c>
       <c r="V20">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="W20">
-        <v>-11</v>
+        <v>-22</v>
       </c>
       <c r="X20">
+        <v>-23</v>
+      </c>
+      <c r="Y20">
         <v>-19</v>
       </c>
-      <c r="Y20">
-        <v>-13</v>
-      </c>
       <c r="Z20">
-        <v>-20</v>
+        <v>-29</v>
       </c>
       <c r="AA20">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="AB20">
-        <v>-36</v>
+        <v>-31</v>
       </c>
       <c r="AC20">
-        <v>-48</v>
+        <v>-43</v>
       </c>
       <c r="AD20">
-        <v>-58</v>
+        <v>-61</v>
       </c>
       <c r="AE20">
-        <v>-88</v>
+        <v>-89</v>
       </c>
       <c r="AF20">
         <v>-100</v>
@@ -5977,91 +5974,91 @@
         <v>23</v>
       </c>
       <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>13</v>
+      </c>
+      <c r="O21">
+        <v>-3</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="D21">
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>-5</v>
+      </c>
+      <c r="T21">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-      <c r="H21">
-        <v>-4</v>
-      </c>
-      <c r="I21">
-        <v>-3</v>
-      </c>
-      <c r="J21">
-        <v>-3</v>
-      </c>
-      <c r="K21">
-        <v>-1</v>
-      </c>
-      <c r="L21">
-        <v>-4</v>
-      </c>
-      <c r="M21">
-        <v>-1</v>
-      </c>
-      <c r="N21">
-        <v>-4</v>
-      </c>
-      <c r="O21">
+      <c r="U21">
         <v>-2</v>
       </c>
-      <c r="P21">
-        <v>-10</v>
-      </c>
-      <c r="Q21">
-        <v>-10</v>
-      </c>
-      <c r="R21">
-        <v>-10</v>
-      </c>
-      <c r="S21">
-        <v>-13</v>
-      </c>
-      <c r="T21">
-        <v>-7</v>
-      </c>
-      <c r="U21">
-        <v>-7</v>
-      </c>
       <c r="V21">
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="W21">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="X21">
         <v>-23</v>
       </c>
       <c r="Y21">
-        <v>-19</v>
+        <v>-26</v>
       </c>
       <c r="Z21">
-        <v>-29</v>
+        <v>-38</v>
       </c>
       <c r="AA21">
-        <v>-36</v>
+        <v>-48</v>
       </c>
       <c r="AB21">
-        <v>-31</v>
+        <v>-47</v>
       </c>
       <c r="AC21">
-        <v>-43</v>
+        <v>-57</v>
       </c>
       <c r="AD21">
-        <v>-61</v>
+        <v>-82</v>
       </c>
       <c r="AE21">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="AF21">
         <v>-100</v>
@@ -6225,88 +6222,88 @@
         <v>24</v>
       </c>
       <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>8</v>
-      </c>
       <c r="H22">
-        <v>29</v>
+        <v>-11</v>
       </c>
       <c r="I22">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="J22">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
         <v>13</v>
       </c>
-      <c r="O22">
-        <v>-3</v>
-      </c>
       <c r="P22">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="R22">
-        <v>7</v>
+        <v>-15</v>
       </c>
       <c r="S22">
+        <v>-7</v>
+      </c>
+      <c r="T22">
+        <v>-7</v>
+      </c>
+      <c r="U22">
         <v>-5</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>-2</v>
-      </c>
       <c r="V22">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>-27</v>
+        <v>-22</v>
       </c>
       <c r="X22">
-        <v>-23</v>
+        <v>-21</v>
       </c>
       <c r="Y22">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="Z22">
-        <v>-38</v>
+        <v>-30</v>
       </c>
       <c r="AA22">
-        <v>-48</v>
+        <v>-33</v>
       </c>
       <c r="AB22">
-        <v>-47</v>
+        <v>-52</v>
       </c>
       <c r="AC22">
         <v>-57</v>
       </c>
       <c r="AD22">
-        <v>-82</v>
+        <v>-75</v>
       </c>
       <c r="AE22">
         <v>-100</v>
@@ -6473,91 +6470,91 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>-8</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>-7</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>-9</v>
+      </c>
+      <c r="L23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-      <c r="H23">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>-18</v>
+      </c>
+      <c r="P23">
+        <v>-13</v>
+      </c>
+      <c r="Q23">
+        <v>-15</v>
+      </c>
+      <c r="R23">
+        <v>-6</v>
+      </c>
+      <c r="S23">
+        <v>-2</v>
+      </c>
+      <c r="T23">
         <v>-11</v>
       </c>
-      <c r="I23">
-        <v>-5</v>
-      </c>
-      <c r="J23">
-        <v>-5</v>
-      </c>
-      <c r="K23">
-        <v>-11</v>
-      </c>
-      <c r="L23">
+      <c r="U23">
+        <v>-2</v>
+      </c>
+      <c r="V23">
+        <v>10</v>
+      </c>
+      <c r="W23">
         <v>-9</v>
       </c>
-      <c r="M23">
-        <v>-13</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23">
-        <v>13</v>
-      </c>
-      <c r="P23">
-        <v>-6</v>
-      </c>
-      <c r="Q23">
-        <v>-13</v>
-      </c>
-      <c r="R23">
+      <c r="X23">
         <v>-15</v>
       </c>
-      <c r="S23">
-        <v>-7</v>
-      </c>
-      <c r="T23">
-        <v>-7</v>
-      </c>
-      <c r="U23">
-        <v>-5</v>
-      </c>
-      <c r="V23">
-        <v>3</v>
-      </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>-18</v>
+      </c>
+      <c r="Z23">
         <v>-22</v>
       </c>
-      <c r="X23">
-        <v>-21</v>
-      </c>
-      <c r="Y23">
-        <v>-24</v>
-      </c>
-      <c r="Z23">
+      <c r="AA23">
+        <v>-27</v>
+      </c>
+      <c r="AB23">
         <v>-30</v>
       </c>
-      <c r="AA23">
-        <v>-33</v>
-      </c>
-      <c r="AB23">
-        <v>-52</v>
-      </c>
       <c r="AC23">
-        <v>-57</v>
+        <v>-36</v>
       </c>
       <c r="AD23">
-        <v>-75</v>
+        <v>-46</v>
       </c>
       <c r="AE23">
-        <v>-100</v>
+        <v>-78</v>
       </c>
       <c r="AF23">
         <v>-100</v>
@@ -6721,91 +6718,91 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E24">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K24">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="P24">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="Q24">
+        <v>-8</v>
+      </c>
+      <c r="R24">
         <v>-15</v>
       </c>
-      <c r="R24">
-        <v>-6</v>
-      </c>
       <c r="S24">
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="T24">
+        <v>-8</v>
+      </c>
+      <c r="U24">
+        <v>-3</v>
+      </c>
+      <c r="V24">
+        <v>-10</v>
+      </c>
+      <c r="W24">
         <v>-11</v>
       </c>
-      <c r="U24">
-        <v>-2</v>
-      </c>
-      <c r="V24">
-        <v>10</v>
-      </c>
-      <c r="W24">
-        <v>-9</v>
-      </c>
       <c r="X24">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="Y24">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="Z24">
         <v>-22</v>
       </c>
       <c r="AA24">
-        <v>-27</v>
+        <v>-21</v>
       </c>
       <c r="AB24">
-        <v>-30</v>
+        <v>-24</v>
       </c>
       <c r="AC24">
-        <v>-36</v>
+        <v>-23</v>
       </c>
       <c r="AD24">
-        <v>-46</v>
+        <v>-43</v>
       </c>
       <c r="AE24">
-        <v>-78</v>
+        <v>-71</v>
       </c>
       <c r="AF24">
         <v>-100</v>
@@ -6969,91 +6966,91 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>-14</v>
       </c>
       <c r="D25">
-        <v>-2</v>
+        <v>27</v>
       </c>
       <c r="E25">
+        <v>-33</v>
+      </c>
+      <c r="F25">
+        <v>-15</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>33</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>11</v>
+      </c>
+      <c r="O25">
+        <v>14</v>
+      </c>
+      <c r="P25">
+        <v>-19</v>
+      </c>
+      <c r="Q25">
+        <v>-3</v>
+      </c>
+      <c r="R25">
         <v>6</v>
       </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>9</v>
-      </c>
-      <c r="I25">
-        <v>16</v>
-      </c>
-      <c r="J25">
-        <v>26</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>5</v>
-      </c>
-      <c r="P25">
-        <v>-8</v>
-      </c>
-      <c r="Q25">
-        <v>-8</v>
-      </c>
-      <c r="R25">
-        <v>-15</v>
-      </c>
       <c r="S25">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="T25">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="U25">
-        <v>-3</v>
+        <v>61</v>
       </c>
       <c r="V25">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="W25">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="X25">
+        <v>-14</v>
+      </c>
+      <c r="Y25">
         <v>-17</v>
       </c>
-      <c r="Y25">
-        <v>-20</v>
-      </c>
       <c r="Z25">
+        <v>-28</v>
+      </c>
+      <c r="AA25">
         <v>-22</v>
       </c>
-      <c r="AA25">
-        <v>-21</v>
-      </c>
       <c r="AB25">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="AC25">
-        <v>-23</v>
+        <v>-33</v>
       </c>
       <c r="AD25">
-        <v>-43</v>
+        <v>-76</v>
       </c>
       <c r="AE25">
-        <v>-71</v>
+        <v>-100</v>
       </c>
       <c r="AF25">
         <v>-100</v>
@@ -7217,100 +7214,100 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>-5</v>
       </c>
       <c r="E26">
-        <v>-33</v>
+        <v>-3</v>
       </c>
       <c r="F26">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J26">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="P26">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="Q26">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="S26">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
         <v>-6</v>
       </c>
-      <c r="U26">
-        <v>61</v>
-      </c>
-      <c r="V26">
-        <v>23</v>
-      </c>
       <c r="W26">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="X26">
         <v>-14</v>
       </c>
       <c r="Y26">
+        <v>-13</v>
+      </c>
+      <c r="Z26">
         <v>-17</v>
       </c>
-      <c r="Z26">
-        <v>-28</v>
-      </c>
       <c r="AA26">
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="AB26">
-        <v>-35</v>
+        <v>-30</v>
       </c>
       <c r="AC26">
-        <v>-33</v>
+        <v>-38</v>
       </c>
       <c r="AD26">
-        <v>-76</v>
+        <v>-53</v>
       </c>
       <c r="AE26">
-        <v>-100</v>
+        <v>-72</v>
       </c>
       <c r="AF26">
-        <v>-100</v>
+        <v>-79</v>
       </c>
       <c r="AG26">
-        <v>-100</v>
+        <v>-84</v>
       </c>
       <c r="AH26">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="AI26">
         <v>-100</v>
@@ -7445,16 +7442,16 @@
         <v>-100</v>
       </c>
       <c r="CA26">
-        <v>-100</v>
+        <v>-77</v>
       </c>
       <c r="CB26">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="CC26">
-        <v>-100</v>
+        <v>-78</v>
       </c>
       <c r="CD26">
-        <v>-100</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="27" spans="1:82" x14ac:dyDescent="0.2">
@@ -7465,100 +7462,100 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="F27">
         <v>7</v>
       </c>
       <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>-12</v>
+      </c>
+      <c r="I27">
+        <v>-14</v>
+      </c>
+      <c r="J27">
+        <v>-12</v>
+      </c>
+      <c r="K27">
+        <v>-14</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="H27">
+      <c r="O27">
+        <v>-3</v>
+      </c>
+      <c r="P27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>-1</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <v>7</v>
-      </c>
-      <c r="L27">
+      <c r="Q27">
+        <v>-14</v>
+      </c>
+      <c r="R27">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>5</v>
-      </c>
-      <c r="P27">
-        <v>-11</v>
-      </c>
-      <c r="Q27">
-        <v>-5</v>
-      </c>
-      <c r="R27">
-        <v>-7</v>
-      </c>
       <c r="S27">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V27">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="W27">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="X27">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="Y27">
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="Z27">
-        <v>-17</v>
+        <v>-30</v>
       </c>
       <c r="AA27">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="AB27">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="AC27">
-        <v>-38</v>
+        <v>-54</v>
       </c>
       <c r="AD27">
-        <v>-53</v>
+        <v>-70</v>
       </c>
       <c r="AE27">
-        <v>-72</v>
+        <v>-92</v>
       </c>
       <c r="AF27">
-        <v>-79</v>
+        <v>-97</v>
       </c>
       <c r="AG27">
-        <v>-84</v>
+        <v>-99</v>
       </c>
       <c r="AH27">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="AI27">
         <v>-100</v>
@@ -7693,16 +7690,16 @@
         <v>-100</v>
       </c>
       <c r="CA27">
-        <v>-77</v>
+        <v>-100</v>
       </c>
       <c r="CB27">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="CC27">
-        <v>-78</v>
+        <v>-100</v>
       </c>
       <c r="CD27">
-        <v>-80</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="28" spans="1:82" x14ac:dyDescent="0.2">
@@ -7713,97 +7710,97 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>-10</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28">
-        <v>-12</v>
+        <v>21</v>
       </c>
       <c r="I28">
-        <v>-14</v>
+        <v>109</v>
       </c>
       <c r="J28">
-        <v>-12</v>
+        <v>102</v>
       </c>
       <c r="K28">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>-21</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>-21</v>
       </c>
       <c r="N28">
+        <v>-16</v>
+      </c>
+      <c r="O28">
+        <v>-27</v>
+      </c>
+      <c r="P28">
+        <v>-47</v>
+      </c>
+      <c r="Q28">
+        <v>-59</v>
+      </c>
+      <c r="R28">
+        <v>-32</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
         <v>3</v>
       </c>
-      <c r="O28">
+      <c r="V28">
         <v>-3</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28">
-        <v>-14</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28">
-        <v>-3</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>5</v>
-      </c>
-      <c r="V28">
-        <v>-4</v>
       </c>
       <c r="W28">
         <v>-13</v>
       </c>
       <c r="X28">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="Y28">
         <v>-21</v>
       </c>
       <c r="Z28">
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="AA28">
-        <v>-37</v>
+        <v>-32</v>
       </c>
       <c r="AB28">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="AC28">
         <v>-54</v>
       </c>
       <c r="AD28">
-        <v>-70</v>
+        <v>-63</v>
       </c>
       <c r="AE28">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="AF28">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AG28">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AH28">
         <v>-100</v>
@@ -7958,91 +7955,91 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>-2</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>-2</v>
+      </c>
+      <c r="O29">
+        <v>-2</v>
+      </c>
+      <c r="P29">
+        <v>-6</v>
+      </c>
+      <c r="Q29">
+        <v>-12</v>
+      </c>
+      <c r="R29">
+        <v>-12</v>
+      </c>
+      <c r="S29">
         <v>-9</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>14</v>
-      </c>
-      <c r="F29">
-        <v>23</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>21</v>
-      </c>
-      <c r="I29">
-        <v>109</v>
-      </c>
-      <c r="J29">
-        <v>102</v>
-      </c>
-      <c r="K29">
-        <v>9</v>
-      </c>
-      <c r="L29">
-        <v>-21</v>
-      </c>
-      <c r="M29">
-        <v>-21</v>
-      </c>
-      <c r="N29">
-        <v>-16</v>
-      </c>
-      <c r="O29">
-        <v>-27</v>
-      </c>
-      <c r="P29">
-        <v>-47</v>
-      </c>
-      <c r="Q29">
-        <v>-59</v>
-      </c>
-      <c r="R29">
-        <v>-32</v>
-      </c>
-      <c r="S29">
-        <v>5</v>
-      </c>
       <c r="T29">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="V29">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="W29">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="X29">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="Y29">
-        <v>-21</v>
+        <v>-36</v>
       </c>
       <c r="Z29">
-        <v>-28</v>
+        <v>-52</v>
       </c>
       <c r="AA29">
-        <v>-32</v>
+        <v>-61</v>
       </c>
       <c r="AB29">
-        <v>-39</v>
+        <v>-64</v>
       </c>
       <c r="AC29">
-        <v>-54</v>
+        <v>-69</v>
       </c>
       <c r="AD29">
-        <v>-63</v>
+        <v>-77</v>
       </c>
       <c r="AE29">
         <v>-100</v>
@@ -8206,103 +8203,103 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>-6</v>
+      </c>
+      <c r="D30">
+        <v>-3</v>
+      </c>
+      <c r="E30">
+        <v>-12</v>
+      </c>
+      <c r="F30">
+        <v>-7</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="K30">
+        <v>14</v>
+      </c>
+      <c r="L30">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
         <v>1</v>
       </c>
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>13</v>
-      </c>
-      <c r="I30">
-        <v>7</v>
-      </c>
-      <c r="J30">
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>-18</v>
+      </c>
+      <c r="Q30">
+        <v>-18</v>
+      </c>
+      <c r="R30">
+        <v>-18</v>
+      </c>
+      <c r="S30">
+        <v>-2</v>
+      </c>
+      <c r="T30">
+        <v>-1</v>
+      </c>
+      <c r="U30">
         <v>1</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>-2</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>-2</v>
-      </c>
-      <c r="O30">
-        <v>-2</v>
-      </c>
-      <c r="P30">
-        <v>-6</v>
-      </c>
-      <c r="Q30">
-        <v>-12</v>
-      </c>
-      <c r="R30">
-        <v>-12</v>
-      </c>
-      <c r="S30">
-        <v>-9</v>
-      </c>
-      <c r="T30">
-        <v>-15</v>
-      </c>
-      <c r="U30">
-        <v>-10</v>
-      </c>
       <c r="V30">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="W30">
-        <v>-18</v>
+        <v>-34</v>
       </c>
       <c r="X30">
+        <v>-37</v>
+      </c>
+      <c r="Y30">
         <v>-30</v>
       </c>
-      <c r="Y30">
-        <v>-36</v>
-      </c>
       <c r="Z30">
-        <v>-52</v>
+        <v>-30</v>
       </c>
       <c r="AA30">
-        <v>-61</v>
+        <v>-33</v>
       </c>
       <c r="AB30">
-        <v>-64</v>
+        <v>-32</v>
       </c>
       <c r="AC30">
-        <v>-69</v>
+        <v>-47</v>
       </c>
       <c r="AD30">
-        <v>-77</v>
+        <v>-53</v>
       </c>
       <c r="AE30">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="AF30">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="AG30">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="AH30">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AI30">
         <v>-100</v>
@@ -8437,16 +8434,16 @@
         <v>-100</v>
       </c>
       <c r="CA30">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CB30">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CC30">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CD30">
-        <v>-100</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="31" spans="1:82" x14ac:dyDescent="0.2">
@@ -8457,100 +8454,100 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>-3</v>
+        <v>55</v>
       </c>
       <c r="E31">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>-2</v>
+      </c>
+      <c r="J31">
+        <v>-2</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <v>11</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>21</v>
+      </c>
+      <c r="P31">
+        <v>13</v>
+      </c>
+      <c r="Q31">
         <v>4</v>
       </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>14</v>
-      </c>
-      <c r="L31">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>5</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31">
-        <v>-18</v>
-      </c>
-      <c r="Q31">
-        <v>-18</v>
-      </c>
       <c r="R31">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="S31">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="U31">
         <v>1</v>
       </c>
       <c r="V31">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="W31">
-        <v>-34</v>
+        <v>-7</v>
       </c>
       <c r="X31">
-        <v>-37</v>
+        <v>-14</v>
       </c>
       <c r="Y31">
-        <v>-30</v>
+        <v>-16</v>
       </c>
       <c r="Z31">
-        <v>-30</v>
+        <v>-39</v>
       </c>
       <c r="AA31">
-        <v>-33</v>
+        <v>-40</v>
       </c>
       <c r="AB31">
-        <v>-32</v>
+        <v>-48</v>
       </c>
       <c r="AC31">
-        <v>-47</v>
+        <v>-54</v>
       </c>
       <c r="AD31">
-        <v>-53</v>
+        <v>-85</v>
       </c>
       <c r="AE31">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="AF31">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="AG31">
-        <v>-93</v>
+        <v>-100</v>
       </c>
       <c r="AH31">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AI31">
         <v>-100</v>
@@ -8685,16 +8682,16 @@
         <v>-100</v>
       </c>
       <c r="CA31">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CB31">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CC31">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CD31">
-        <v>-95</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="32" spans="1:82" x14ac:dyDescent="0.2">
@@ -8705,94 +8702,94 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>11</v>
       </c>
       <c r="F32">
+        <v>-1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
       <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
         <v>-2</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>-2</v>
       </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>13</v>
-      </c>
       <c r="M32">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N32">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="O32">
-        <v>21</v>
+        <v>-11</v>
       </c>
       <c r="P32">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>-21</v>
       </c>
       <c r="R32">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="S32">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="T32">
         <v>-7</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="W32">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="X32">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="Y32">
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="Z32">
-        <v>-39</v>
+        <v>-21</v>
       </c>
       <c r="AA32">
-        <v>-40</v>
+        <v>-28</v>
       </c>
       <c r="AB32">
-        <v>-48</v>
+        <v>-27</v>
       </c>
       <c r="AC32">
-        <v>-54</v>
+        <v>-45</v>
       </c>
       <c r="AD32">
-        <v>-85</v>
+        <v>-66</v>
       </c>
       <c r="AE32">
-        <v>-100</v>
+        <v>-86</v>
       </c>
       <c r="AF32">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AG32">
         <v>-100</v>
@@ -8897,7 +8894,7 @@
         <v>-100</v>
       </c>
       <c r="BO32">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BP32">
         <v>-100</v>
@@ -8953,94 +8950,94 @@
         <v>34</v>
       </c>
       <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>-14</v>
+      </c>
+      <c r="F33">
+        <v>-9</v>
+      </c>
+      <c r="G33">
         <v>-4</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>11</v>
-      </c>
-      <c r="F33">
-        <v>-1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
+        <v>-4</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>-3</v>
+      </c>
+      <c r="K33">
+        <v>-10</v>
+      </c>
+      <c r="L33">
+        <v>-19</v>
+      </c>
+      <c r="M33">
+        <v>-16</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>32</v>
+      </c>
+      <c r="P33">
+        <v>-12</v>
+      </c>
+      <c r="Q33">
+        <v>-11</v>
+      </c>
+      <c r="R33">
+        <v>-2</v>
+      </c>
+      <c r="S33">
+        <v>-10</v>
+      </c>
+      <c r="T33">
+        <v>-17</v>
+      </c>
+      <c r="U33">
+        <v>9</v>
+      </c>
+      <c r="V33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>7</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33">
-        <v>-2</v>
-      </c>
-      <c r="L33">
-        <v>-2</v>
-      </c>
-      <c r="M33">
-        <v>7</v>
-      </c>
-      <c r="N33">
-        <v>-5</v>
-      </c>
-      <c r="O33">
-        <v>-11</v>
-      </c>
-      <c r="P33">
+      <c r="W33">
         <v>-13</v>
       </c>
-      <c r="Q33">
-        <v>-21</v>
-      </c>
-      <c r="R33">
-        <v>-8</v>
-      </c>
-      <c r="S33">
-        <v>-8</v>
-      </c>
-      <c r="T33">
-        <v>-7</v>
-      </c>
-      <c r="U33">
-        <v>-6</v>
-      </c>
-      <c r="V33">
-        <v>-8</v>
-      </c>
-      <c r="W33">
-        <v>-18</v>
-      </c>
       <c r="X33">
-        <v>-13</v>
+        <v>-31</v>
       </c>
       <c r="Y33">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="Z33">
-        <v>-21</v>
+        <v>-42</v>
       </c>
       <c r="AA33">
-        <v>-28</v>
+        <v>-42</v>
       </c>
       <c r="AB33">
-        <v>-27</v>
+        <v>-48</v>
       </c>
       <c r="AC33">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="AD33">
-        <v>-66</v>
+        <v>-63</v>
       </c>
       <c r="AE33">
-        <v>-86</v>
+        <v>-100</v>
       </c>
       <c r="AF33">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AG33">
         <v>-100</v>
@@ -9145,7 +9142,7 @@
         <v>-100</v>
       </c>
       <c r="BO33">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BP33">
         <v>-100</v>
@@ -9201,88 +9198,88 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>-4</v>
       </c>
       <c r="E34">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="H34">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="I34">
         <v>14</v>
       </c>
       <c r="J34">
+        <v>-7</v>
+      </c>
+      <c r="K34">
+        <v>17</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>-4</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>9</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
         <v>-3</v>
       </c>
-      <c r="K34">
-        <v>-10</v>
-      </c>
-      <c r="L34">
-        <v>-19</v>
-      </c>
-      <c r="M34">
+      <c r="R34">
+        <v>-1</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>-3</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
         <v>-16</v>
       </c>
-      <c r="N34">
-        <v>5</v>
-      </c>
-      <c r="O34">
-        <v>32</v>
-      </c>
-      <c r="P34">
-        <v>-12</v>
-      </c>
-      <c r="Q34">
-        <v>-11</v>
-      </c>
-      <c r="R34">
-        <v>-2</v>
-      </c>
-      <c r="S34">
-        <v>-10</v>
-      </c>
-      <c r="T34">
-        <v>-17</v>
-      </c>
-      <c r="U34">
-        <v>9</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>-13</v>
-      </c>
       <c r="X34">
-        <v>-31</v>
+        <v>-7</v>
       </c>
       <c r="Y34">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="Z34">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="AA34">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="AB34">
-        <v>-48</v>
+        <v>-39</v>
       </c>
       <c r="AC34">
-        <v>-48</v>
+        <v>-54</v>
       </c>
       <c r="AD34">
-        <v>-63</v>
+        <v>-61</v>
       </c>
       <c r="AE34">
         <v>-100</v>
@@ -9449,91 +9446,91 @@
         <v>36</v>
       </c>
       <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>-49</v>
+      </c>
+      <c r="F35">
+        <v>-9</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>-4</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>11</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <v>22</v>
-      </c>
       <c r="I35">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="J35">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="K35">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="M35">
         <v>-4</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="O35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="Q35">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="U35">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="V35">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="W35">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="X35">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="Y35">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="Z35">
-        <v>-32</v>
+        <v>-21</v>
       </c>
       <c r="AA35">
-        <v>-41</v>
+        <v>-29</v>
       </c>
       <c r="AB35">
         <v>-39</v>
       </c>
       <c r="AC35">
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="AD35">
-        <v>-61</v>
+        <v>-68</v>
       </c>
       <c r="AE35">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AF35">
         <v>-100</v>
@@ -9697,94 +9694,94 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="E36">
-        <v>-49</v>
+        <v>-5</v>
       </c>
       <c r="F36">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>-15</v>
       </c>
       <c r="I36">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="J36">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="K36">
         <v>-5</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>-6</v>
       </c>
       <c r="Q36">
-        <v>-9</v>
+        <v>-22</v>
       </c>
       <c r="R36">
+        <v>-10</v>
+      </c>
+      <c r="S36">
+        <v>-6</v>
+      </c>
+      <c r="T36">
         <v>-8</v>
       </c>
-      <c r="S36">
-        <v>-13</v>
-      </c>
-      <c r="T36">
-        <v>-9</v>
-      </c>
       <c r="U36">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="V36">
-        <v>-11</v>
+        <v>-23</v>
       </c>
       <c r="W36">
-        <v>-18</v>
+        <v>-32</v>
       </c>
       <c r="X36">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="Y36">
-        <v>-15</v>
+        <v>-27</v>
       </c>
       <c r="Z36">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="AA36">
-        <v>-29</v>
+        <v>-41</v>
       </c>
       <c r="AB36">
         <v>-39</v>
       </c>
       <c r="AC36">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="AD36">
-        <v>-68</v>
+        <v>-59</v>
       </c>
       <c r="AE36">
-        <v>-97</v>
+        <v>-83</v>
       </c>
       <c r="AF36">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="AG36">
         <v>-100</v>
@@ -9916,25 +9913,25 @@
         <v>-100</v>
       </c>
       <c r="BX36">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="BY36">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="BZ36">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="CA36">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="CB36">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="CC36">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="CD36">
-        <v>-100</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="37" spans="1:82" x14ac:dyDescent="0.2">
@@ -9945,94 +9942,94 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="D37">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G37">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="H37">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="K37">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P37">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="Q37">
-        <v>-22</v>
+        <v>-2</v>
       </c>
       <c r="R37">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="S37">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="T37">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="U37">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="V37">
-        <v>-23</v>
+        <v>-7</v>
       </c>
       <c r="W37">
-        <v>-32</v>
+        <v>-13</v>
       </c>
       <c r="X37">
-        <v>-22</v>
+        <v>-34</v>
       </c>
       <c r="Y37">
-        <v>-27</v>
+        <v>-31</v>
       </c>
       <c r="Z37">
-        <v>-28</v>
+        <v>-43</v>
       </c>
       <c r="AA37">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="AB37">
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AC37">
-        <v>-45</v>
+        <v>-49</v>
       </c>
       <c r="AD37">
-        <v>-59</v>
+        <v>-62</v>
       </c>
       <c r="AE37">
-        <v>-83</v>
+        <v>-100</v>
       </c>
       <c r="AF37">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="AG37">
         <v>-100</v>
@@ -10164,25 +10161,25 @@
         <v>-100</v>
       </c>
       <c r="BX37">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="BY37">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="BZ37">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="CA37">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="CB37">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="CC37">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="CD37">
-        <v>-88</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="38" spans="1:82" x14ac:dyDescent="0.2">
@@ -10193,88 +10190,88 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="D38">
+        <v>-11</v>
+      </c>
+      <c r="E38">
+        <v>-4</v>
+      </c>
+      <c r="F38">
+        <v>-8</v>
+      </c>
+      <c r="G38">
+        <v>-9</v>
+      </c>
+      <c r="H38">
+        <v>-9</v>
+      </c>
+      <c r="I38">
         <v>9</v>
       </c>
-      <c r="E38">
-        <v>7</v>
-      </c>
-      <c r="F38">
-        <v>-1</v>
-      </c>
-      <c r="G38">
-        <v>-12</v>
-      </c>
-      <c r="H38">
-        <v>-1</v>
-      </c>
-      <c r="I38">
-        <v>-11</v>
-      </c>
       <c r="J38">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="K38">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="N38">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="O38">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>-22</v>
       </c>
       <c r="Q38">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="R38">
-        <v>-3</v>
+        <v>-24</v>
       </c>
       <c r="S38">
-        <v>-1</v>
+        <v>-22</v>
       </c>
       <c r="T38">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="U38">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="V38">
-        <v>-7</v>
+        <v>-26</v>
       </c>
       <c r="W38">
-        <v>-13</v>
+        <v>-41</v>
       </c>
       <c r="X38">
-        <v>-34</v>
+        <v>-43</v>
       </c>
       <c r="Y38">
-        <v>-31</v>
+        <v>-43</v>
       </c>
       <c r="Z38">
-        <v>-43</v>
+        <v>-51</v>
       </c>
       <c r="AA38">
-        <v>-43</v>
+        <v>-53</v>
       </c>
       <c r="AB38">
-        <v>-42</v>
+        <v>-58</v>
       </c>
       <c r="AC38">
-        <v>-49</v>
+        <v>-72</v>
       </c>
       <c r="AD38">
-        <v>-62</v>
+        <v>-80</v>
       </c>
       <c r="AE38">
         <v>-100</v>
@@ -10441,100 +10438,100 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="D39">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="E39">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="H39">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="J39">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K39">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>5</v>
       </c>
       <c r="M39">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>-4</v>
+      </c>
+      <c r="P39">
+        <v>-7</v>
+      </c>
+      <c r="Q39">
+        <v>-6</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>-4</v>
+      </c>
+      <c r="T39">
+        <v>-2</v>
+      </c>
+      <c r="U39">
+        <v>-1</v>
+      </c>
+      <c r="V39">
         <v>-10</v>
       </c>
-      <c r="O39">
-        <v>-18</v>
-      </c>
-      <c r="P39">
+      <c r="W39">
+        <v>-4</v>
+      </c>
+      <c r="X39">
+        <v>-16</v>
+      </c>
+      <c r="Y39">
+        <v>-23</v>
+      </c>
+      <c r="Z39">
         <v>-22</v>
       </c>
-      <c r="Q39">
-        <v>-24</v>
-      </c>
-      <c r="R39">
-        <v>-24</v>
-      </c>
-      <c r="S39">
-        <v>-22</v>
-      </c>
-      <c r="T39">
-        <v>-18</v>
-      </c>
-      <c r="U39">
-        <v>-18</v>
-      </c>
-      <c r="V39">
-        <v>-26</v>
-      </c>
-      <c r="W39">
-        <v>-41</v>
-      </c>
-      <c r="X39">
-        <v>-43</v>
-      </c>
-      <c r="Y39">
-        <v>-43</v>
-      </c>
-      <c r="Z39">
-        <v>-51</v>
-      </c>
       <c r="AA39">
-        <v>-53</v>
+        <v>-29</v>
       </c>
       <c r="AB39">
-        <v>-58</v>
+        <v>-25</v>
       </c>
       <c r="AC39">
-        <v>-72</v>
+        <v>-38</v>
       </c>
       <c r="AD39">
-        <v>-80</v>
+        <v>-54</v>
       </c>
       <c r="AE39">
-        <v>-100</v>
+        <v>-76</v>
       </c>
       <c r="AF39">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="AG39">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="AH39">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="AI39">
         <v>-100</v>
@@ -10689,94 +10686,94 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>5</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N40">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="P40">
-        <v>25</v>
+        <v>-29</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>-31</v>
       </c>
       <c r="R40">
-        <v>9</v>
+        <v>-31</v>
       </c>
       <c r="S40">
-        <v>-5</v>
+        <v>-36</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>-34</v>
       </c>
       <c r="U40">
-        <v>19</v>
+        <v>-35</v>
       </c>
       <c r="V40">
-        <v>-3</v>
+        <v>-25</v>
       </c>
       <c r="W40">
-        <v>-22</v>
+        <v>-47</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>-49</v>
       </c>
       <c r="Y40">
-        <v>-11</v>
+        <v>-54</v>
       </c>
       <c r="Z40">
-        <v>-22</v>
+        <v>-58</v>
       </c>
       <c r="AA40">
-        <v>-28</v>
+        <v>-63</v>
       </c>
       <c r="AB40">
-        <v>-34</v>
+        <v>-63</v>
       </c>
       <c r="AC40">
-        <v>-60</v>
+        <v>-62</v>
       </c>
       <c r="AD40">
-        <v>-65</v>
+        <v>-83</v>
       </c>
       <c r="AE40">
-        <v>-88</v>
+        <v>-100</v>
       </c>
       <c r="AF40">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="AG40">
         <v>-100</v>
@@ -10937,100 +10934,100 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>-4</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>-6</v>
+      </c>
+      <c r="I41">
+        <v>-6</v>
+      </c>
+      <c r="J41">
+        <v>15</v>
+      </c>
+      <c r="K41">
         <v>5</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-      <c r="G41">
-        <v>-5</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41">
-        <v>-3</v>
-      </c>
-      <c r="J41">
-        <v>11</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
       </c>
       <c r="L41">
         <v>5</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="P41">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="Q41">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S41">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="T41">
+        <v>-1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>-2</v>
       </c>
-      <c r="U41">
-        <v>-1</v>
-      </c>
-      <c r="V41">
-        <v>-10</v>
-      </c>
       <c r="W41">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="X41">
+        <v>-15</v>
+      </c>
+      <c r="Y41">
+        <v>-14</v>
+      </c>
+      <c r="Z41">
         <v>-16</v>
       </c>
-      <c r="Y41">
+      <c r="AA41">
+        <v>-22</v>
+      </c>
+      <c r="AB41">
         <v>-23</v>
       </c>
-      <c r="Z41">
-        <v>-22</v>
-      </c>
-      <c r="AA41">
-        <v>-29</v>
-      </c>
-      <c r="AB41">
-        <v>-25</v>
-      </c>
       <c r="AC41">
-        <v>-38</v>
+        <v>-20</v>
       </c>
       <c r="AD41">
-        <v>-54</v>
+        <v>-48</v>
       </c>
       <c r="AE41">
-        <v>-76</v>
+        <v>-75</v>
       </c>
       <c r="AF41">
-        <v>-90</v>
+        <v>-84</v>
       </c>
       <c r="AG41">
-        <v>-93</v>
+        <v>-86</v>
       </c>
       <c r="AH41">
-        <v>-96</v>
+        <v>-95</v>
       </c>
       <c r="AI41">
         <v>-100</v>
@@ -11165,16 +11162,16 @@
         <v>-100</v>
       </c>
       <c r="CA41">
-        <v>-100</v>
+        <v>-80</v>
       </c>
       <c r="CB41">
-        <v>-100</v>
+        <v>-78</v>
       </c>
       <c r="CC41">
-        <v>-100</v>
+        <v>-83</v>
       </c>
       <c r="CD41">
-        <v>-100</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="42" spans="1:82" x14ac:dyDescent="0.2">
@@ -11185,88 +11182,88 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>-14</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>-8</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="H42">
         <v>12</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="L42">
+        <v>-17</v>
+      </c>
+      <c r="M42">
+        <v>-16</v>
+      </c>
+      <c r="N42">
+        <v>-5</v>
+      </c>
+      <c r="O42">
+        <v>-9</v>
+      </c>
+      <c r="P42">
+        <v>-10</v>
+      </c>
+      <c r="Q42">
+        <v>-9</v>
+      </c>
+      <c r="R42">
+        <v>-2</v>
+      </c>
+      <c r="S42">
+        <v>-2</v>
+      </c>
+      <c r="T42">
+        <v>-15</v>
+      </c>
+      <c r="U42">
+        <v>-7</v>
+      </c>
+      <c r="V42">
         <v>5</v>
       </c>
-      <c r="M42">
-        <v>7</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
+      <c r="W42">
         <v>-18</v>
       </c>
-      <c r="P42">
-        <v>-29</v>
-      </c>
-      <c r="Q42">
-        <v>-31</v>
-      </c>
-      <c r="R42">
-        <v>-31</v>
-      </c>
-      <c r="S42">
-        <v>-36</v>
-      </c>
-      <c r="T42">
-        <v>-34</v>
-      </c>
-      <c r="U42">
-        <v>-35</v>
-      </c>
-      <c r="V42">
-        <v>-25</v>
-      </c>
-      <c r="W42">
-        <v>-47</v>
-      </c>
       <c r="X42">
+        <v>-21</v>
+      </c>
+      <c r="Y42">
+        <v>-28</v>
+      </c>
+      <c r="Z42">
+        <v>-37</v>
+      </c>
+      <c r="AA42">
         <v>-49</v>
       </c>
-      <c r="Y42">
+      <c r="AB42">
+        <v>-49</v>
+      </c>
+      <c r="AC42">
         <v>-54</v>
       </c>
-      <c r="Z42">
-        <v>-58</v>
-      </c>
-      <c r="AA42">
-        <v>-63</v>
-      </c>
-      <c r="AB42">
-        <v>-63</v>
-      </c>
-      <c r="AC42">
-        <v>-62</v>
-      </c>
       <c r="AD42">
-        <v>-83</v>
+        <v>-76</v>
       </c>
       <c r="AE42">
         <v>-100</v>
@@ -11433,100 +11430,100 @@
         <v>44</v>
       </c>
       <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>7</v>
       </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>-4</v>
-      </c>
-      <c r="G43">
-        <v>11</v>
-      </c>
-      <c r="H43">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>-5</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>-2</v>
+      </c>
+      <c r="P43">
+        <v>-10</v>
+      </c>
+      <c r="Q43">
         <v>-6</v>
       </c>
-      <c r="I43">
+      <c r="R43">
         <v>-6</v>
       </c>
-      <c r="J43">
-        <v>15</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="L43">
-        <v>5</v>
-      </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-      <c r="N43">
-        <v>5</v>
-      </c>
-      <c r="O43">
+      <c r="S43">
+        <v>-2</v>
+      </c>
+      <c r="T43">
+        <v>-5</v>
+      </c>
+      <c r="U43">
         <v>-15</v>
       </c>
-      <c r="P43">
-        <v>12</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-      <c r="R43">
-        <v>10</v>
-      </c>
-      <c r="S43">
+      <c r="V43">
         <v>-1</v>
       </c>
-      <c r="T43">
-        <v>-1</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>-2</v>
-      </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="Y43">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="Z43">
-        <v>-16</v>
+        <v>-24</v>
       </c>
       <c r="AA43">
-        <v>-22</v>
+        <v>-36</v>
       </c>
       <c r="AB43">
-        <v>-23</v>
+        <v>-33</v>
       </c>
       <c r="AC43">
-        <v>-20</v>
+        <v>-36</v>
       </c>
       <c r="AD43">
-        <v>-48</v>
+        <v>-53</v>
       </c>
       <c r="AE43">
-        <v>-75</v>
+        <v>-98</v>
       </c>
       <c r="AF43">
-        <v>-84</v>
+        <v>-99</v>
       </c>
       <c r="AG43">
-        <v>-86</v>
+        <v>-100</v>
       </c>
       <c r="AH43">
-        <v>-95</v>
+        <v>-100</v>
       </c>
       <c r="AI43">
         <v>-100</v>
@@ -11661,16 +11658,16 @@
         <v>-100</v>
       </c>
       <c r="CA43">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="CB43">
-        <v>-78</v>
+        <v>-100</v>
       </c>
       <c r="CC43">
-        <v>-83</v>
+        <v>-100</v>
       </c>
       <c r="CD43">
-        <v>-78</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="44" spans="1:82" x14ac:dyDescent="0.2">
@@ -11678,88 +11675,88 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="D44">
+        <v>57</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>13</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>-8</v>
       </c>
-      <c r="E44">
+      <c r="R44">
+        <v>8</v>
+      </c>
+      <c r="S44">
+        <v>-4</v>
+      </c>
+      <c r="T44">
+        <v>-5</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
         <v>-9</v>
       </c>
-      <c r="F44">
-        <v>-9</v>
-      </c>
-      <c r="G44">
-        <v>-4</v>
-      </c>
-      <c r="H44">
-        <v>12</v>
-      </c>
-      <c r="I44">
-        <v>-8</v>
-      </c>
-      <c r="J44">
-        <v>-7</v>
-      </c>
-      <c r="K44">
-        <v>-6</v>
-      </c>
-      <c r="L44">
-        <v>-17</v>
-      </c>
-      <c r="M44">
-        <v>-16</v>
-      </c>
-      <c r="N44">
-        <v>-5</v>
-      </c>
-      <c r="O44">
-        <v>-9</v>
-      </c>
-      <c r="P44">
-        <v>-10</v>
-      </c>
-      <c r="Q44">
-        <v>-9</v>
-      </c>
-      <c r="R44">
-        <v>-2</v>
-      </c>
-      <c r="S44">
-        <v>-2</v>
-      </c>
-      <c r="T44">
-        <v>-15</v>
-      </c>
-      <c r="U44">
-        <v>-7</v>
-      </c>
-      <c r="V44">
-        <v>5</v>
-      </c>
-      <c r="W44">
+      <c r="X44">
         <v>-18</v>
       </c>
-      <c r="X44">
-        <v>-21</v>
-      </c>
       <c r="Y44">
-        <v>-28</v>
+        <v>-22</v>
       </c>
       <c r="Z44">
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="AA44">
-        <v>-49</v>
+        <v>-44</v>
       </c>
       <c r="AB44">
-        <v>-49</v>
+        <v>-44</v>
       </c>
       <c r="AC44">
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="AD44">
         <v>-76</v>
@@ -11918,502 +11915,6 @@
         <v>-100</v>
       </c>
       <c r="CD44">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45">
-        <v>9</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>7</v>
-      </c>
-      <c r="F45">
-        <v>6</v>
-      </c>
-      <c r="G45">
-        <v>7</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>3</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>-5</v>
-      </c>
-      <c r="M45">
-        <v>-1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>-2</v>
-      </c>
-      <c r="P45">
-        <v>-10</v>
-      </c>
-      <c r="Q45">
-        <v>-6</v>
-      </c>
-      <c r="R45">
-        <v>-6</v>
-      </c>
-      <c r="S45">
-        <v>-2</v>
-      </c>
-      <c r="T45">
-        <v>-5</v>
-      </c>
-      <c r="U45">
-        <v>-15</v>
-      </c>
-      <c r="V45">
-        <v>-1</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>-6</v>
-      </c>
-      <c r="Y45">
-        <v>-17</v>
-      </c>
-      <c r="Z45">
-        <v>-24</v>
-      </c>
-      <c r="AA45">
-        <v>-36</v>
-      </c>
-      <c r="AB45">
-        <v>-33</v>
-      </c>
-      <c r="AC45">
-        <v>-36</v>
-      </c>
-      <c r="AD45">
-        <v>-53</v>
-      </c>
-      <c r="AE45">
-        <v>-98</v>
-      </c>
-      <c r="AF45">
-        <v>-99</v>
-      </c>
-      <c r="AG45">
-        <v>-100</v>
-      </c>
-      <c r="AH45">
-        <v>-100</v>
-      </c>
-      <c r="AI45">
-        <v>-100</v>
-      </c>
-      <c r="AJ45">
-        <v>-100</v>
-      </c>
-      <c r="AK45">
-        <v>-100</v>
-      </c>
-      <c r="AL45">
-        <v>-100</v>
-      </c>
-      <c r="AM45">
-        <v>-100</v>
-      </c>
-      <c r="AN45">
-        <v>-100</v>
-      </c>
-      <c r="AO45">
-        <v>-100</v>
-      </c>
-      <c r="AP45">
-        <v>-100</v>
-      </c>
-      <c r="AQ45">
-        <v>-100</v>
-      </c>
-      <c r="AR45">
-        <v>-100</v>
-      </c>
-      <c r="AS45">
-        <v>-100</v>
-      </c>
-      <c r="AT45">
-        <v>-100</v>
-      </c>
-      <c r="AU45">
-        <v>-100</v>
-      </c>
-      <c r="AV45">
-        <v>-100</v>
-      </c>
-      <c r="AW45">
-        <v>-100</v>
-      </c>
-      <c r="AX45">
-        <v>-100</v>
-      </c>
-      <c r="AY45">
-        <v>-100</v>
-      </c>
-      <c r="AZ45">
-        <v>-100</v>
-      </c>
-      <c r="BA45">
-        <v>-100</v>
-      </c>
-      <c r="BB45">
-        <v>-100</v>
-      </c>
-      <c r="BC45">
-        <v>-100</v>
-      </c>
-      <c r="BD45">
-        <v>-100</v>
-      </c>
-      <c r="BE45">
-        <v>-100</v>
-      </c>
-      <c r="BF45">
-        <v>-100</v>
-      </c>
-      <c r="BG45">
-        <v>-100</v>
-      </c>
-      <c r="BH45">
-        <v>-100</v>
-      </c>
-      <c r="BI45">
-        <v>-100</v>
-      </c>
-      <c r="BJ45">
-        <v>-100</v>
-      </c>
-      <c r="BK45">
-        <v>-100</v>
-      </c>
-      <c r="BL45">
-        <v>-100</v>
-      </c>
-      <c r="BM45">
-        <v>-100</v>
-      </c>
-      <c r="BN45">
-        <v>-100</v>
-      </c>
-      <c r="BO45">
-        <v>-100</v>
-      </c>
-      <c r="BP45">
-        <v>-100</v>
-      </c>
-      <c r="BQ45">
-        <v>-100</v>
-      </c>
-      <c r="BR45">
-        <v>-100</v>
-      </c>
-      <c r="BS45">
-        <v>-100</v>
-      </c>
-      <c r="BT45">
-        <v>-100</v>
-      </c>
-      <c r="BU45">
-        <v>-100</v>
-      </c>
-      <c r="BV45">
-        <v>-100</v>
-      </c>
-      <c r="BW45">
-        <v>-100</v>
-      </c>
-      <c r="BX45">
-        <v>-100</v>
-      </c>
-      <c r="BY45">
-        <v>-100</v>
-      </c>
-      <c r="BZ45">
-        <v>-100</v>
-      </c>
-      <c r="CA45">
-        <v>-100</v>
-      </c>
-      <c r="CB45">
-        <v>-100</v>
-      </c>
-      <c r="CC45">
-        <v>-100</v>
-      </c>
-      <c r="CD45">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>-5</v>
-      </c>
-      <c r="D46">
-        <v>57</v>
-      </c>
-      <c r="E46">
-        <v>9</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>9</v>
-      </c>
-      <c r="H46">
-        <v>16</v>
-      </c>
-      <c r="I46">
-        <v>13</v>
-      </c>
-      <c r="J46">
-        <v>9</v>
-      </c>
-      <c r="K46">
-        <v>9</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>4</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>6</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>-8</v>
-      </c>
-      <c r="R46">
-        <v>8</v>
-      </c>
-      <c r="S46">
-        <v>-4</v>
-      </c>
-      <c r="T46">
-        <v>-5</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>-9</v>
-      </c>
-      <c r="X46">
-        <v>-18</v>
-      </c>
-      <c r="Y46">
-        <v>-22</v>
-      </c>
-      <c r="Z46">
-        <v>-38</v>
-      </c>
-      <c r="AA46">
-        <v>-44</v>
-      </c>
-      <c r="AB46">
-        <v>-44</v>
-      </c>
-      <c r="AC46">
-        <v>-55</v>
-      </c>
-      <c r="AD46">
-        <v>-76</v>
-      </c>
-      <c r="AE46">
-        <v>-100</v>
-      </c>
-      <c r="AF46">
-        <v>-100</v>
-      </c>
-      <c r="AG46">
-        <v>-100</v>
-      </c>
-      <c r="AH46">
-        <v>-100</v>
-      </c>
-      <c r="AI46">
-        <v>-100</v>
-      </c>
-      <c r="AJ46">
-        <v>-100</v>
-      </c>
-      <c r="AK46">
-        <v>-100</v>
-      </c>
-      <c r="AL46">
-        <v>-100</v>
-      </c>
-      <c r="AM46">
-        <v>-100</v>
-      </c>
-      <c r="AN46">
-        <v>-100</v>
-      </c>
-      <c r="AO46">
-        <v>-100</v>
-      </c>
-      <c r="AP46">
-        <v>-100</v>
-      </c>
-      <c r="AQ46">
-        <v>-100</v>
-      </c>
-      <c r="AR46">
-        <v>-100</v>
-      </c>
-      <c r="AS46">
-        <v>-100</v>
-      </c>
-      <c r="AT46">
-        <v>-100</v>
-      </c>
-      <c r="AU46">
-        <v>-100</v>
-      </c>
-      <c r="AV46">
-        <v>-100</v>
-      </c>
-      <c r="AW46">
-        <v>-100</v>
-      </c>
-      <c r="AX46">
-        <v>-100</v>
-      </c>
-      <c r="AY46">
-        <v>-100</v>
-      </c>
-      <c r="AZ46">
-        <v>-100</v>
-      </c>
-      <c r="BA46">
-        <v>-100</v>
-      </c>
-      <c r="BB46">
-        <v>-100</v>
-      </c>
-      <c r="BC46">
-        <v>-100</v>
-      </c>
-      <c r="BD46">
-        <v>-100</v>
-      </c>
-      <c r="BE46">
-        <v>-100</v>
-      </c>
-      <c r="BF46">
-        <v>-100</v>
-      </c>
-      <c r="BG46">
-        <v>-100</v>
-      </c>
-      <c r="BH46">
-        <v>-100</v>
-      </c>
-      <c r="BI46">
-        <v>-100</v>
-      </c>
-      <c r="BJ46">
-        <v>-100</v>
-      </c>
-      <c r="BK46">
-        <v>-100</v>
-      </c>
-      <c r="BL46">
-        <v>-100</v>
-      </c>
-      <c r="BM46">
-        <v>-100</v>
-      </c>
-      <c r="BN46">
-        <v>-100</v>
-      </c>
-      <c r="BO46">
-        <v>-100</v>
-      </c>
-      <c r="BP46">
-        <v>-100</v>
-      </c>
-      <c r="BQ46">
-        <v>-100</v>
-      </c>
-      <c r="BR46">
-        <v>-100</v>
-      </c>
-      <c r="BS46">
-        <v>-100</v>
-      </c>
-      <c r="BT46">
-        <v>-100</v>
-      </c>
-      <c r="BU46">
-        <v>-100</v>
-      </c>
-      <c r="BV46">
-        <v>-100</v>
-      </c>
-      <c r="BW46">
-        <v>-100</v>
-      </c>
-      <c r="BX46">
-        <v>-100</v>
-      </c>
-      <c r="BY46">
-        <v>-100</v>
-      </c>
-      <c r="BZ46">
-        <v>-100</v>
-      </c>
-      <c r="CA46">
-        <v>-100</v>
-      </c>
-      <c r="CB46">
-        <v>-100</v>
-      </c>
-      <c r="CC46">
-        <v>-100</v>
-      </c>
-      <c r="CD46">
         <v>-100</v>
       </c>
     </row>

--- a/reopentable_05_08.xlsx
+++ b/reopentable_05_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntomczak/Documents/1Projects/Corona_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC97AF4-BB50-E745-8508-75471CC3C0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B41A38-5869-A945-BE51-8B47449DE56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reopentable-5_08" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>New York</t>
   </si>
@@ -156,12 +156,18 @@
   <si>
     <t>Vancouver</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,6 +301,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -638,8 +657,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -995,11 +1017,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD44"/>
+  <dimension ref="A1:CD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1007,251 +1027,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>9</v>
-      </c>
-      <c r="E1">
-        <v>-5</v>
-      </c>
-      <c r="F1">
-        <v>-5</v>
-      </c>
-      <c r="G1">
-        <v>-3</v>
-      </c>
-      <c r="H1">
-        <v>-7</v>
-      </c>
-      <c r="I1">
-        <v>-6</v>
-      </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>-3</v>
-      </c>
-      <c r="L1">
-        <v>-4</v>
-      </c>
-      <c r="M1">
-        <v>7</v>
-      </c>
-      <c r="N1">
-        <v>1</v>
-      </c>
-      <c r="O1">
-        <v>8</v>
-      </c>
-      <c r="P1">
-        <v>-17</v>
-      </c>
-      <c r="Q1">
-        <v>-21</v>
-      </c>
-      <c r="R1">
-        <v>-11</v>
-      </c>
-      <c r="S1">
-        <v>-9</v>
-      </c>
-      <c r="T1">
-        <v>-2</v>
-      </c>
-      <c r="U1">
-        <v>1</v>
-      </c>
-      <c r="V1">
-        <v>13</v>
-      </c>
-      <c r="W1">
-        <v>1</v>
-      </c>
-      <c r="X1">
-        <v>-14</v>
-      </c>
-      <c r="Y1">
-        <v>-14</v>
-      </c>
-      <c r="Z1">
-        <v>-26</v>
-      </c>
-      <c r="AA1">
-        <v>-35</v>
-      </c>
-      <c r="AB1">
-        <v>-34</v>
-      </c>
-      <c r="AC1">
-        <v>-44</v>
-      </c>
-      <c r="AD1">
-        <v>-78</v>
-      </c>
-      <c r="AE1">
-        <v>-93</v>
-      </c>
-      <c r="AF1">
-        <v>-96</v>
-      </c>
-      <c r="AG1">
-        <v>-97</v>
-      </c>
-      <c r="AH1">
-        <v>-99</v>
-      </c>
-      <c r="AI1">
-        <v>-100</v>
-      </c>
-      <c r="AJ1">
-        <v>-100</v>
-      </c>
-      <c r="AK1">
-        <v>-100</v>
-      </c>
-      <c r="AL1">
-        <v>-100</v>
-      </c>
-      <c r="AM1">
-        <v>-100</v>
-      </c>
-      <c r="AN1">
-        <v>-100</v>
-      </c>
-      <c r="AO1">
-        <v>-100</v>
-      </c>
-      <c r="AP1">
-        <v>-100</v>
-      </c>
-      <c r="AQ1">
-        <v>-100</v>
-      </c>
-      <c r="AR1">
-        <v>-100</v>
-      </c>
-      <c r="AS1">
-        <v>-100</v>
-      </c>
-      <c r="AT1">
-        <v>-100</v>
-      </c>
-      <c r="AU1">
-        <v>-100</v>
-      </c>
-      <c r="AV1">
-        <v>-100</v>
-      </c>
-      <c r="AW1">
-        <v>-100</v>
-      </c>
-      <c r="AX1">
-        <v>-100</v>
-      </c>
-      <c r="AY1">
-        <v>-100</v>
-      </c>
-      <c r="AZ1">
-        <v>-100</v>
-      </c>
-      <c r="BA1">
-        <v>-100</v>
-      </c>
-      <c r="BB1">
-        <v>-100</v>
-      </c>
-      <c r="BC1">
-        <v>-100</v>
-      </c>
-      <c r="BD1">
-        <v>-100</v>
-      </c>
-      <c r="BE1">
-        <v>-100</v>
-      </c>
-      <c r="BF1">
-        <v>-100</v>
-      </c>
-      <c r="BG1">
-        <v>-100</v>
-      </c>
-      <c r="BH1">
-        <v>-100</v>
-      </c>
-      <c r="BI1">
-        <v>-100</v>
-      </c>
-      <c r="BJ1">
-        <v>-100</v>
-      </c>
-      <c r="BK1">
-        <v>-100</v>
-      </c>
-      <c r="BL1">
-        <v>-100</v>
-      </c>
-      <c r="BM1">
-        <v>-100</v>
-      </c>
-      <c r="BN1">
-        <v>-100</v>
-      </c>
-      <c r="BO1">
-        <v>-100</v>
-      </c>
-      <c r="BP1">
-        <v>-100</v>
-      </c>
-      <c r="BQ1">
-        <v>-100</v>
-      </c>
-      <c r="BR1">
-        <v>-100</v>
-      </c>
-      <c r="BS1">
-        <v>-100</v>
-      </c>
-      <c r="BT1">
-        <v>-99</v>
-      </c>
-      <c r="BU1">
-        <v>-98</v>
-      </c>
-      <c r="BV1">
-        <v>-99</v>
-      </c>
-      <c r="BW1">
-        <v>-98</v>
-      </c>
-      <c r="BX1">
-        <v>-97</v>
-      </c>
-      <c r="BY1">
-        <v>-98</v>
-      </c>
-      <c r="BZ1">
-        <v>-98</v>
-      </c>
-      <c r="CA1">
-        <v>-97</v>
-      </c>
-      <c r="CB1">
-        <v>-96</v>
-      </c>
-      <c r="CC1">
-        <v>-97</v>
-      </c>
-      <c r="CD1">
-        <v>-94</v>
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3">
+        <v>43879</v>
+      </c>
+      <c r="D1" s="3">
+        <v>43880</v>
+      </c>
+      <c r="E1" s="3">
+        <v>43881</v>
+      </c>
+      <c r="F1" s="3">
+        <v>43882</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43883</v>
+      </c>
+      <c r="H1" s="3">
+        <v>43884</v>
+      </c>
+      <c r="I1" s="3">
+        <v>43885</v>
+      </c>
+      <c r="J1" s="3">
+        <v>43886</v>
+      </c>
+      <c r="K1" s="3">
+        <v>43887</v>
+      </c>
+      <c r="L1" s="3">
+        <v>43888</v>
+      </c>
+      <c r="M1" s="3">
+        <v>43889</v>
+      </c>
+      <c r="N1" s="3">
+        <v>43890</v>
+      </c>
+      <c r="O1" s="3">
+        <v>43891</v>
+      </c>
+      <c r="P1" s="3">
+        <v>43892</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>43893</v>
+      </c>
+      <c r="R1" s="3">
+        <v>43894</v>
+      </c>
+      <c r="S1" s="3">
+        <v>43895</v>
+      </c>
+      <c r="T1" s="3">
+        <v>43896</v>
+      </c>
+      <c r="U1" s="3">
+        <v>43897</v>
+      </c>
+      <c r="V1" s="3">
+        <v>43898</v>
+      </c>
+      <c r="W1" s="3">
+        <v>43899</v>
+      </c>
+      <c r="X1" s="3">
+        <v>43900</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>43901</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>43902</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>43903</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>43904</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>43905</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>43906</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>43907</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>43908</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>43909</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>43910</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>43911</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>43912</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>43913</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>43914</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>43915</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>43916</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>43917</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>43918</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>43919</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>43920</v>
+      </c>
+      <c r="AS1" s="3">
+        <v>43921</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>43922</v>
+      </c>
+      <c r="AU1" s="3">
+        <v>43923</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>43924</v>
+      </c>
+      <c r="AW1" s="3">
+        <v>43925</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>43926</v>
+      </c>
+      <c r="AY1" s="3">
+        <v>43927</v>
+      </c>
+      <c r="AZ1" s="3">
+        <v>43928</v>
+      </c>
+      <c r="BA1" s="3">
+        <v>43929</v>
+      </c>
+      <c r="BB1" s="3">
+        <v>43930</v>
+      </c>
+      <c r="BC1" s="3">
+        <v>43931</v>
+      </c>
+      <c r="BD1" s="3">
+        <v>43932</v>
+      </c>
+      <c r="BE1" s="3">
+        <v>43933</v>
+      </c>
+      <c r="BF1" s="3">
+        <v>43934</v>
+      </c>
+      <c r="BG1" s="3">
+        <v>43935</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>43936</v>
+      </c>
+      <c r="BI1" s="3">
+        <v>43937</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>43938</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>43939</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>43940</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>43941</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>43942</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>43943</v>
+      </c>
+      <c r="BP1" s="3">
+        <v>43944</v>
+      </c>
+      <c r="BQ1" s="3">
+        <v>43945</v>
+      </c>
+      <c r="BR1" s="3">
+        <v>43946</v>
+      </c>
+      <c r="BS1" s="3">
+        <v>43947</v>
+      </c>
+      <c r="BT1" s="3">
+        <v>43948</v>
+      </c>
+      <c r="BU1" s="3">
+        <v>43949</v>
+      </c>
+      <c r="BV1" s="3">
+        <v>43950</v>
+      </c>
+      <c r="BW1" s="3">
+        <v>43951</v>
+      </c>
+      <c r="BX1" s="3">
+        <v>43952</v>
+      </c>
+      <c r="BY1" s="3">
+        <v>43953</v>
+      </c>
+      <c r="BZ1" s="3">
+        <v>43954</v>
+      </c>
+      <c r="CA1" s="3">
+        <v>43955</v>
+      </c>
+      <c r="CB1" s="3">
+        <v>43956</v>
+      </c>
+      <c r="CC1" s="3">
+        <v>43957</v>
+      </c>
+      <c r="CD1" s="3">
+        <v>43958</v>
       </c>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.2">
@@ -1259,104 +1279,104 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
+        <v>-5</v>
+      </c>
+      <c r="G2">
+        <v>-3</v>
+      </c>
+      <c r="H2">
+        <v>-7</v>
+      </c>
+      <c r="I2">
         <v>-6</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
       <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>-3</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>8</v>
       </c>
-      <c r="N2">
-        <v>9</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
       <c r="P2">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="Q2">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="R2">
         <v>-11</v>
       </c>
       <c r="S2">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U2">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>-23</v>
+        <v>13</v>
       </c>
       <c r="W2">
-        <v>-41</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>-31</v>
+        <v>-14</v>
       </c>
       <c r="Y2">
-        <v>-30</v>
+        <v>-14</v>
       </c>
       <c r="Z2">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="AA2">
         <v>-35</v>
       </c>
       <c r="AB2">
-        <v>-36</v>
+        <v>-34</v>
       </c>
       <c r="AC2">
-        <v>-54</v>
+        <v>-44</v>
       </c>
       <c r="AD2">
-        <v>-71</v>
+        <v>-78</v>
       </c>
       <c r="AE2">
+        <v>-93</v>
+      </c>
+      <c r="AF2">
+        <v>-96</v>
+      </c>
+      <c r="AG2">
+        <v>-97</v>
+      </c>
+      <c r="AH2">
         <v>-99</v>
       </c>
-      <c r="AF2">
-        <v>-100</v>
-      </c>
-      <c r="AG2">
-        <v>-100</v>
-      </c>
-      <c r="AH2">
-        <v>-100</v>
-      </c>
       <c r="AI2">
         <v>-100</v>
       </c>
@@ -1370,121 +1390,121 @@
         <v>-100</v>
       </c>
       <c r="AM2">
+        <v>-100</v>
+      </c>
+      <c r="AN2">
+        <v>-100</v>
+      </c>
+      <c r="AO2">
+        <v>-100</v>
+      </c>
+      <c r="AP2">
+        <v>-100</v>
+      </c>
+      <c r="AQ2">
+        <v>-100</v>
+      </c>
+      <c r="AR2">
+        <v>-100</v>
+      </c>
+      <c r="AS2">
+        <v>-100</v>
+      </c>
+      <c r="AT2">
+        <v>-100</v>
+      </c>
+      <c r="AU2">
+        <v>-100</v>
+      </c>
+      <c r="AV2">
+        <v>-100</v>
+      </c>
+      <c r="AW2">
+        <v>-100</v>
+      </c>
+      <c r="AX2">
+        <v>-100</v>
+      </c>
+      <c r="AY2">
+        <v>-100</v>
+      </c>
+      <c r="AZ2">
+        <v>-100</v>
+      </c>
+      <c r="BA2">
+        <v>-100</v>
+      </c>
+      <c r="BB2">
+        <v>-100</v>
+      </c>
+      <c r="BC2">
+        <v>-100</v>
+      </c>
+      <c r="BD2">
+        <v>-100</v>
+      </c>
+      <c r="BE2">
+        <v>-100</v>
+      </c>
+      <c r="BF2">
+        <v>-100</v>
+      </c>
+      <c r="BG2">
+        <v>-100</v>
+      </c>
+      <c r="BH2">
+        <v>-100</v>
+      </c>
+      <c r="BI2">
+        <v>-100</v>
+      </c>
+      <c r="BJ2">
+        <v>-100</v>
+      </c>
+      <c r="BK2">
+        <v>-100</v>
+      </c>
+      <c r="BL2">
+        <v>-100</v>
+      </c>
+      <c r="BM2">
+        <v>-100</v>
+      </c>
+      <c r="BN2">
+        <v>-100</v>
+      </c>
+      <c r="BO2">
+        <v>-100</v>
+      </c>
+      <c r="BP2">
+        <v>-100</v>
+      </c>
+      <c r="BQ2">
+        <v>-100</v>
+      </c>
+      <c r="BR2">
+        <v>-100</v>
+      </c>
+      <c r="BS2">
+        <v>-100</v>
+      </c>
+      <c r="BT2">
         <v>-99</v>
       </c>
-      <c r="AN2">
-        <v>-100</v>
-      </c>
-      <c r="AO2">
-        <v>-100</v>
-      </c>
-      <c r="AP2">
-        <v>-100</v>
-      </c>
-      <c r="AQ2">
-        <v>-100</v>
-      </c>
-      <c r="AR2">
-        <v>-100</v>
-      </c>
-      <c r="AS2">
-        <v>-100</v>
-      </c>
-      <c r="AT2">
-        <v>-100</v>
-      </c>
-      <c r="AU2">
-        <v>-100</v>
-      </c>
-      <c r="AV2">
-        <v>-100</v>
-      </c>
-      <c r="AW2">
-        <v>-100</v>
-      </c>
-      <c r="AX2">
-        <v>-100</v>
-      </c>
-      <c r="AY2">
-        <v>-100</v>
-      </c>
-      <c r="AZ2">
-        <v>-100</v>
-      </c>
-      <c r="BA2">
-        <v>-100</v>
-      </c>
-      <c r="BB2">
-        <v>-100</v>
-      </c>
-      <c r="BC2">
+      <c r="BU2">
+        <v>-98</v>
+      </c>
+      <c r="BV2">
         <v>-99</v>
       </c>
-      <c r="BD2">
-        <v>-100</v>
-      </c>
-      <c r="BE2">
-        <v>-100</v>
-      </c>
-      <c r="BF2">
-        <v>-100</v>
-      </c>
-      <c r="BG2">
-        <v>-100</v>
-      </c>
-      <c r="BH2">
-        <v>-100</v>
-      </c>
-      <c r="BI2">
-        <v>-100</v>
-      </c>
-      <c r="BJ2">
-        <v>-100</v>
-      </c>
-      <c r="BK2">
-        <v>-100</v>
-      </c>
-      <c r="BL2">
-        <v>-100</v>
-      </c>
-      <c r="BM2">
-        <v>-100</v>
-      </c>
-      <c r="BN2">
-        <v>-100</v>
-      </c>
-      <c r="BO2">
-        <v>-100</v>
-      </c>
-      <c r="BP2">
-        <v>-100</v>
-      </c>
-      <c r="BQ2">
-        <v>-100</v>
-      </c>
-      <c r="BR2">
-        <v>-100</v>
-      </c>
-      <c r="BS2">
-        <v>-100</v>
-      </c>
-      <c r="BT2">
-        <v>-100</v>
-      </c>
-      <c r="BU2">
-        <v>-100</v>
-      </c>
-      <c r="BV2">
-        <v>-100</v>
-      </c>
       <c r="BW2">
-        <v>-100</v>
+        <v>-98</v>
       </c>
       <c r="BX2">
-        <v>-94</v>
+        <v>-97</v>
       </c>
       <c r="BY2">
-        <v>-96</v>
+        <v>-98</v>
       </c>
       <c r="BZ2">
         <v>-98</v>
@@ -1493,13 +1513,13 @@
         <v>-97</v>
       </c>
       <c r="CB2">
-        <v>-95</v>
+        <v>-96</v>
       </c>
       <c r="CC2">
-        <v>-96</v>
+        <v>-97</v>
       </c>
       <c r="CD2">
-        <v>-95</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.2">
@@ -1507,94 +1527,94 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>-9</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
       <c r="I3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>-3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>-4</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
-      </c>
-      <c r="M3">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
       <c r="O3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="R3">
-        <v>23</v>
+        <v>-11</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>14</v>
+        <v>-13</v>
       </c>
       <c r="V3">
-        <v>-4</v>
+        <v>-23</v>
       </c>
       <c r="W3">
-        <v>-17</v>
+        <v>-41</v>
       </c>
       <c r="X3">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="Y3">
-        <v>-22</v>
+        <v>-30</v>
       </c>
       <c r="Z3">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="AA3">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="AB3">
-        <v>-39</v>
+        <v>-36</v>
       </c>
       <c r="AC3">
-        <v>-48</v>
+        <v>-54</v>
       </c>
       <c r="AD3">
-        <v>-75</v>
+        <v>-71</v>
       </c>
       <c r="AE3">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AF3">
         <v>-100</v>
@@ -1618,7 +1638,7 @@
         <v>-100</v>
       </c>
       <c r="AM3">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AN3">
         <v>-100</v>
@@ -1666,7 +1686,7 @@
         <v>-100</v>
       </c>
       <c r="BC3">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BD3">
         <v>-100</v>
@@ -1729,25 +1749,25 @@
         <v>-100</v>
       </c>
       <c r="BX3">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="BY3">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="BZ3">
-        <v>-100</v>
+        <v>-98</v>
       </c>
       <c r="CA3">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="CB3">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="CC3">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CD3">
-        <v>-100</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.2">
@@ -1755,91 +1775,91 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="G4">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>-4</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
         <v>14</v>
       </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>-19</v>
       </c>
       <c r="Q4">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="R4">
+        <v>23</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>14</v>
+      </c>
+      <c r="V4">
         <v>-4</v>
       </c>
-      <c r="S4">
-        <v>11</v>
-      </c>
-      <c r="T4">
-        <v>7</v>
-      </c>
-      <c r="U4">
-        <v>-1</v>
-      </c>
-      <c r="V4">
-        <v>10</v>
-      </c>
       <c r="W4">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="X4">
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="Y4">
+        <v>-22</v>
+      </c>
+      <c r="Z4">
         <v>-30</v>
       </c>
-      <c r="Z4">
-        <v>-47</v>
-      </c>
       <c r="AA4">
-        <v>-56</v>
+        <v>-30</v>
       </c>
       <c r="AB4">
-        <v>-64</v>
+        <v>-39</v>
       </c>
       <c r="AC4">
-        <v>-70</v>
+        <v>-48</v>
       </c>
       <c r="AD4">
-        <v>-81</v>
+        <v>-75</v>
       </c>
       <c r="AE4">
         <v>-100</v>
@@ -2003,103 +2023,103 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E5">
+        <v>-3</v>
+      </c>
+      <c r="F5">
+        <v>-12</v>
+      </c>
+      <c r="G5">
+        <v>-2</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>-4</v>
-      </c>
       <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>-3</v>
-      </c>
       <c r="L5">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O5">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="R5">
         <v>-4</v>
       </c>
       <c r="S5">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="V5">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="W5">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="X5">
-        <v>-8</v>
+        <v>-29</v>
       </c>
       <c r="Y5">
-        <v>-7</v>
+        <v>-30</v>
       </c>
       <c r="Z5">
-        <v>-27</v>
+        <v>-47</v>
       </c>
       <c r="AA5">
-        <v>-48</v>
+        <v>-56</v>
       </c>
       <c r="AB5">
-        <v>-51</v>
+        <v>-64</v>
       </c>
       <c r="AC5">
-        <v>-54</v>
+        <v>-70</v>
       </c>
       <c r="AD5">
-        <v>-73</v>
+        <v>-81</v>
       </c>
       <c r="AE5">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="AF5">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AG5">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AH5">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AI5">
         <v>-100</v>
@@ -2251,103 +2271,103 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>-4</v>
+      </c>
+      <c r="J6">
         <v>1</v>
-      </c>
-      <c r="D6">
-        <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>-27</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>-11</v>
-      </c>
-      <c r="I6">
-        <v>-6</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
       </c>
       <c r="K6">
         <v>-3</v>
       </c>
       <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>13</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="P6">
+        <v>-11</v>
+      </c>
+      <c r="Q6">
+        <v>-9</v>
+      </c>
+      <c r="R6">
+        <v>-4</v>
+      </c>
+      <c r="S6">
         <v>-2</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>-10</v>
+      </c>
+      <c r="V6">
+        <v>-4</v>
+      </c>
+      <c r="W6">
+        <v>-11</v>
+      </c>
+      <c r="X6">
         <v>-8</v>
       </c>
-      <c r="R6">
-        <v>-1</v>
-      </c>
-      <c r="S6">
+      <c r="Y6">
         <v>-7</v>
       </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>-5</v>
-      </c>
-      <c r="V6">
-        <v>-10</v>
-      </c>
-      <c r="W6">
-        <v>-8</v>
-      </c>
-      <c r="X6">
-        <v>-12</v>
-      </c>
-      <c r="Y6">
-        <v>-18</v>
-      </c>
       <c r="Z6">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="AA6">
-        <v>-35</v>
+        <v>-48</v>
       </c>
       <c r="AB6">
-        <v>-34</v>
+        <v>-51</v>
       </c>
       <c r="AC6">
-        <v>-36</v>
+        <v>-54</v>
       </c>
       <c r="AD6">
-        <v>-68</v>
+        <v>-73</v>
       </c>
       <c r="AE6">
-        <v>-97</v>
+        <v>-96</v>
       </c>
       <c r="AF6">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AG6">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AH6">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AI6">
         <v>-100</v>
@@ -2499,94 +2519,94 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>-3</v>
       </c>
       <c r="E7">
-        <v>-5</v>
+        <v>-27</v>
       </c>
       <c r="F7">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="I7">
         <v>-6</v>
       </c>
       <c r="J7">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>-2</v>
+      </c>
+      <c r="Q7">
         <v>-8</v>
       </c>
-      <c r="M7">
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7">
+        <v>-7</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>-5</v>
+      </c>
+      <c r="V7">
+        <v>-10</v>
+      </c>
+      <c r="W7">
         <v>-8</v>
       </c>
-      <c r="N7">
-        <v>-3</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>-21</v>
-      </c>
-      <c r="Q7">
-        <v>-16</v>
-      </c>
-      <c r="R7">
-        <v>-10</v>
-      </c>
-      <c r="S7">
-        <v>-11</v>
-      </c>
-      <c r="T7">
-        <v>-8</v>
-      </c>
-      <c r="U7">
-        <v>4</v>
-      </c>
-      <c r="V7">
-        <v>13</v>
-      </c>
-      <c r="W7">
-        <v>-25</v>
-      </c>
       <c r="X7">
-        <v>-23</v>
+        <v>-12</v>
       </c>
       <c r="Y7">
-        <v>-27</v>
+        <v>-18</v>
       </c>
       <c r="Z7">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="AA7">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="AB7">
-        <v>-49</v>
+        <v>-34</v>
       </c>
       <c r="AC7">
-        <v>-53</v>
+        <v>-36</v>
       </c>
       <c r="AD7">
-        <v>-75</v>
+        <v>-68</v>
       </c>
       <c r="AE7">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AF7">
         <v>-100</v>
@@ -2747,91 +2767,91 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>-3</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <v>-16</v>
+      </c>
+      <c r="K8">
+        <v>-15</v>
+      </c>
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8">
+        <v>-8</v>
+      </c>
+      <c r="N8">
+        <v>-3</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>-6</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>-8</v>
-      </c>
-      <c r="H8">
-        <v>-12</v>
-      </c>
-      <c r="I8">
-        <v>-8</v>
-      </c>
-      <c r="J8">
-        <v>-7</v>
-      </c>
-      <c r="K8">
-        <v>-33</v>
-      </c>
-      <c r="L8">
-        <v>-15</v>
-      </c>
-      <c r="M8">
-        <v>-16</v>
-      </c>
-      <c r="N8">
-        <v>-11</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
       <c r="P8">
-        <v>-5</v>
+        <v>-21</v>
       </c>
       <c r="Q8">
         <v>-16</v>
       </c>
       <c r="R8">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="S8">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="T8">
-        <v>-21</v>
+        <v>-8</v>
       </c>
       <c r="U8">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="V8">
+        <v>13</v>
+      </c>
+      <c r="W8">
+        <v>-25</v>
+      </c>
+      <c r="X8">
         <v>-23</v>
       </c>
-      <c r="W8">
-        <v>-18</v>
-      </c>
-      <c r="X8">
-        <v>-13</v>
-      </c>
       <c r="Y8">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="Z8">
-        <v>-19</v>
+        <v>-31</v>
       </c>
       <c r="AA8">
         <v>-37</v>
       </c>
       <c r="AB8">
-        <v>-52</v>
+        <v>-49</v>
       </c>
       <c r="AC8">
         <v>-53</v>
       </c>
       <c r="AD8">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="AE8">
         <v>-100</v>
@@ -2995,16 +3015,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F9">
         <v>-6</v>
@@ -3013,70 +3033,70 @@
         <v>-8</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>-12</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="J9">
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="K9">
-        <v>-14</v>
+        <v>-33</v>
       </c>
       <c r="L9">
         <v>-15</v>
       </c>
       <c r="M9">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="N9">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="O9">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="P9">
+        <v>-5</v>
+      </c>
+      <c r="Q9">
+        <v>-16</v>
+      </c>
+      <c r="R9">
+        <v>-9</v>
+      </c>
+      <c r="S9">
+        <v>-6</v>
+      </c>
+      <c r="T9">
+        <v>-21</v>
+      </c>
+      <c r="U9">
         <v>-14</v>
       </c>
-      <c r="Q9">
-        <v>-9</v>
-      </c>
-      <c r="R9">
-        <v>-11</v>
-      </c>
-      <c r="S9">
-        <v>-10</v>
-      </c>
-      <c r="T9">
-        <v>-9</v>
-      </c>
-      <c r="U9">
-        <v>-5</v>
-      </c>
       <c r="V9">
-        <v>3</v>
+        <v>-23</v>
       </c>
       <c r="W9">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="X9">
+        <v>-13</v>
+      </c>
+      <c r="Y9">
+        <v>-20</v>
+      </c>
+      <c r="Z9">
         <v>-19</v>
       </c>
-      <c r="Y9">
-        <v>-19</v>
-      </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-37</v>
       </c>
-      <c r="AA9">
-        <v>-38</v>
-      </c>
       <c r="AB9">
+        <v>-52</v>
+      </c>
+      <c r="AC9">
         <v>-53</v>
-      </c>
-      <c r="AC9">
-        <v>-49</v>
       </c>
       <c r="AD9">
         <v>-100</v>
@@ -3243,91 +3263,91 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F10">
+        <v>-6</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>-17</v>
+      </c>
+      <c r="K10">
+        <v>-14</v>
+      </c>
+      <c r="L10">
+        <v>-15</v>
+      </c>
+      <c r="M10">
+        <v>-15</v>
+      </c>
+      <c r="N10">
+        <v>-15</v>
+      </c>
+      <c r="O10">
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <v>-14</v>
+      </c>
+      <c r="Q10">
+        <v>-9</v>
+      </c>
+      <c r="R10">
+        <v>-11</v>
+      </c>
+      <c r="S10">
+        <v>-10</v>
+      </c>
+      <c r="T10">
+        <v>-9</v>
+      </c>
+      <c r="U10">
+        <v>-5</v>
+      </c>
+      <c r="V10">
         <v>3</v>
       </c>
-      <c r="G10">
-        <v>-3</v>
-      </c>
-      <c r="H10">
-        <v>-2</v>
-      </c>
-      <c r="I10">
-        <v>-2</v>
-      </c>
-      <c r="J10">
-        <v>14</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>-7</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>11</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>-6</v>
-      </c>
-      <c r="R10">
-        <v>-8</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10">
-        <v>-1</v>
-      </c>
-      <c r="V10">
-        <v>-2</v>
-      </c>
       <c r="W10">
-        <v>-15</v>
+        <v>-26</v>
       </c>
       <c r="X10">
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="Y10">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="Z10">
-        <v>-25</v>
+        <v>-37</v>
       </c>
       <c r="AA10">
-        <v>-35</v>
+        <v>-38</v>
       </c>
       <c r="AB10">
-        <v>-35</v>
+        <v>-53</v>
       </c>
       <c r="AC10">
-        <v>-42</v>
+        <v>-49</v>
       </c>
       <c r="AD10">
-        <v>-61</v>
+        <v>-100</v>
       </c>
       <c r="AE10">
         <v>-100</v>
@@ -3465,25 +3485,25 @@
         <v>-100</v>
       </c>
       <c r="BX10">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="BY10">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="BZ10">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="CA10">
-        <v>-93</v>
+        <v>-100</v>
       </c>
       <c r="CB10">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="CC10">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="CD10">
-        <v>-92</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.2">
@@ -3491,91 +3511,91 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>-3</v>
+      </c>
+      <c r="H11">
+        <v>-2</v>
+      </c>
+      <c r="I11">
+        <v>-2</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>-7</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>-6</v>
+      </c>
+      <c r="R11">
+        <v>-8</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
         <v>-1</v>
       </c>
-      <c r="D11">
+      <c r="V11">
+        <v>-2</v>
+      </c>
+      <c r="W11">
+        <v>-15</v>
+      </c>
+      <c r="X11">
+        <v>-10</v>
+      </c>
+      <c r="Y11">
         <v>-12</v>
       </c>
-      <c r="E11">
-        <v>-9</v>
-      </c>
-      <c r="F11">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>-3</v>
-      </c>
-      <c r="I11">
-        <v>-10</v>
-      </c>
-      <c r="J11">
-        <v>-12</v>
-      </c>
-      <c r="K11">
-        <v>-2</v>
-      </c>
-      <c r="L11">
-        <v>-2</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>27</v>
-      </c>
-      <c r="O11">
-        <v>38</v>
-      </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-      <c r="Q11">
-        <v>-9</v>
-      </c>
-      <c r="R11">
-        <v>-3</v>
-      </c>
-      <c r="S11">
-        <v>-10</v>
-      </c>
-      <c r="T11">
-        <v>-9</v>
-      </c>
-      <c r="U11">
-        <v>-6</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>-20</v>
-      </c>
-      <c r="X11">
-        <v>-19</v>
-      </c>
-      <c r="Y11">
-        <v>-4</v>
-      </c>
       <c r="Z11">
-        <v>-17</v>
+        <v>-25</v>
       </c>
       <c r="AA11">
-        <v>-46</v>
+        <v>-35</v>
       </c>
       <c r="AB11">
-        <v>-46</v>
+        <v>-35</v>
       </c>
       <c r="AC11">
-        <v>-50</v>
+        <v>-42</v>
       </c>
       <c r="AD11">
-        <v>-56</v>
+        <v>-61</v>
       </c>
       <c r="AE11">
         <v>-100</v>
@@ -3713,25 +3733,25 @@
         <v>-100</v>
       </c>
       <c r="BX11">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="BY11">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="BZ11">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="CA11">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="CB11">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="CC11">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="CD11">
-        <v>-100</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.2">
@@ -3739,94 +3759,94 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-12</v>
+      </c>
+      <c r="E12">
+        <v>-9</v>
+      </c>
+      <c r="F12">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>-5</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>-3</v>
       </c>
-      <c r="H12">
-        <v>-6</v>
-      </c>
       <c r="I12">
+        <v>-10</v>
+      </c>
+      <c r="J12">
         <v>-12</v>
       </c>
-      <c r="J12">
-        <v>-11</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L12">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M12">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>-6</v>
+        <v>27</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="P12">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>-9</v>
       </c>
       <c r="R12">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="S12">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="T12">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="U12">
+        <v>-6</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>-20</v>
+      </c>
+      <c r="X12">
+        <v>-19</v>
+      </c>
+      <c r="Y12">
         <v>-4</v>
       </c>
-      <c r="V12">
-        <v>-7</v>
-      </c>
-      <c r="W12">
-        <v>-11</v>
-      </c>
-      <c r="X12">
-        <v>-29</v>
-      </c>
-      <c r="Y12">
-        <v>-30</v>
-      </c>
       <c r="Z12">
-        <v>-46</v>
+        <v>-17</v>
       </c>
       <c r="AA12">
         <v>-46</v>
       </c>
       <c r="AB12">
-        <v>-54</v>
+        <v>-46</v>
       </c>
       <c r="AC12">
-        <v>-70</v>
+        <v>-50</v>
       </c>
       <c r="AD12">
-        <v>-71</v>
+        <v>-56</v>
       </c>
       <c r="AE12">
-        <v>-87</v>
+        <v>-100</v>
       </c>
       <c r="AF12">
         <v>-100</v>
@@ -3987,103 +4007,103 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="I13">
+        <v>-12</v>
+      </c>
+      <c r="J13">
+        <v>-11</v>
+      </c>
+      <c r="K13">
         <v>0</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
       </c>
       <c r="L13">
         <v>-4</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="O13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="S13">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="U13">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="W13">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="X13">
-        <v>-14</v>
+        <v>-29</v>
       </c>
       <c r="Y13">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="Z13">
-        <v>-23</v>
+        <v>-46</v>
       </c>
       <c r="AA13">
-        <v>-33</v>
+        <v>-46</v>
       </c>
       <c r="AB13">
-        <v>-40</v>
+        <v>-54</v>
       </c>
       <c r="AC13">
-        <v>-46</v>
+        <v>-70</v>
       </c>
       <c r="AD13">
-        <v>-64</v>
+        <v>-71</v>
       </c>
       <c r="AE13">
-        <v>-92</v>
+        <v>-87</v>
       </c>
       <c r="AF13">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AG13">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AH13">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AI13">
         <v>-100</v>
@@ -4092,7 +4112,7 @@
         <v>-100</v>
       </c>
       <c r="AK13">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AL13">
         <v>-100</v>
@@ -4235,103 +4255,103 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>-4</v>
       </c>
-      <c r="E14">
-        <v>-6</v>
-      </c>
-      <c r="F14">
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>-5</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
         <v>-14</v>
       </c>
-      <c r="G14">
-        <v>-8</v>
-      </c>
-      <c r="H14">
-        <v>-8</v>
-      </c>
-      <c r="I14">
-        <v>-5</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>-11</v>
-      </c>
-      <c r="M14">
-        <v>-7</v>
-      </c>
-      <c r="N14">
-        <v>-18</v>
-      </c>
-      <c r="O14">
-        <v>-17</v>
-      </c>
-      <c r="P14">
-        <v>-12</v>
-      </c>
-      <c r="Q14">
-        <v>-15</v>
-      </c>
-      <c r="R14">
-        <v>-8</v>
-      </c>
-      <c r="S14">
-        <v>-11</v>
-      </c>
       <c r="T14">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>-19</v>
+      </c>
+      <c r="X14">
         <v>-14</v>
       </c>
-      <c r="W14">
-        <v>-15</v>
-      </c>
-      <c r="X14">
-        <v>-19</v>
-      </c>
       <c r="Y14">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="Z14">
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="AA14">
-        <v>-28</v>
+        <v>-33</v>
       </c>
       <c r="AB14">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="AC14">
-        <v>-44</v>
+        <v>-46</v>
       </c>
       <c r="AD14">
-        <v>-46</v>
+        <v>-64</v>
       </c>
       <c r="AE14">
-        <v>-88</v>
+        <v>-92</v>
       </c>
       <c r="AF14">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AG14">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AH14">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AI14">
         <v>-100</v>
@@ -4340,7 +4360,7 @@
         <v>-100</v>
       </c>
       <c r="AK14">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AL14">
         <v>-100</v>
@@ -4483,94 +4503,94 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="G15">
+        <v>-8</v>
+      </c>
+      <c r="H15">
+        <v>-8</v>
+      </c>
+      <c r="I15">
+        <v>-5</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
         <v>6</v>
       </c>
-      <c r="H15">
-        <v>9</v>
-      </c>
-      <c r="I15">
-        <v>11</v>
-      </c>
-      <c r="J15">
-        <v>14</v>
-      </c>
-      <c r="K15">
-        <v>13</v>
-      </c>
       <c r="L15">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="O15">
+        <v>-17</v>
+      </c>
+      <c r="P15">
+        <v>-12</v>
+      </c>
+      <c r="Q15">
+        <v>-15</v>
+      </c>
+      <c r="R15">
+        <v>-8</v>
+      </c>
+      <c r="S15">
+        <v>-11</v>
+      </c>
+      <c r="T15">
+        <v>-13</v>
+      </c>
+      <c r="U15">
         <v>-3</v>
       </c>
-      <c r="P15">
-        <v>-5</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>-5</v>
-      </c>
-      <c r="S15">
-        <v>-8</v>
-      </c>
-      <c r="T15">
-        <v>-3</v>
-      </c>
-      <c r="U15">
-        <v>4</v>
-      </c>
       <c r="V15">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="W15">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="X15">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="Y15">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="Z15">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="AA15">
         <v>-28</v>
       </c>
       <c r="AB15">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="AC15">
-        <v>-55</v>
+        <v>-44</v>
       </c>
       <c r="AD15">
-        <v>-76</v>
+        <v>-46</v>
       </c>
       <c r="AE15">
-        <v>-95</v>
+        <v>-88</v>
       </c>
       <c r="AF15">
         <v>-100</v>
@@ -4731,103 +4751,103 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>-3</v>
       </c>
-      <c r="D16">
+      <c r="P16">
+        <v>-5</v>
+      </c>
+      <c r="Q16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>-1</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
+      <c r="R16">
+        <v>-5</v>
+      </c>
+      <c r="S16">
+        <v>-8</v>
+      </c>
+      <c r="T16">
+        <v>-3</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>7</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>-6</v>
-      </c>
-      <c r="O16">
-        <v>-9</v>
-      </c>
-      <c r="P16">
-        <v>-6</v>
-      </c>
-      <c r="Q16">
-        <v>-9</v>
-      </c>
-      <c r="R16">
-        <v>-11</v>
-      </c>
-      <c r="S16">
+      <c r="W16">
         <v>-13</v>
-      </c>
-      <c r="T16">
-        <v>-12</v>
-      </c>
-      <c r="U16">
-        <v>-9</v>
-      </c>
-      <c r="V16">
-        <v>-18</v>
-      </c>
-      <c r="W16">
-        <v>-15</v>
       </c>
       <c r="X16">
         <v>-16</v>
       </c>
       <c r="Y16">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="Z16">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="AA16">
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="AB16">
-        <v>-22</v>
+        <v>-40</v>
       </c>
       <c r="AC16">
-        <v>-32</v>
+        <v>-55</v>
       </c>
       <c r="AD16">
-        <v>-40</v>
+        <v>-76</v>
       </c>
       <c r="AE16">
-        <v>-55</v>
+        <v>-95</v>
       </c>
       <c r="AF16">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="AG16">
-        <v>-83</v>
+        <v>-100</v>
       </c>
       <c r="AH16">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AI16">
         <v>-100</v>
@@ -4979,103 +4999,103 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D17">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>7</v>
       </c>
-      <c r="K17">
-        <v>9</v>
-      </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>-6</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="Q17">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="R17">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>-13</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>-12</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>-18</v>
       </c>
       <c r="W17">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="X17">
+        <v>-16</v>
+      </c>
+      <c r="Y17">
         <v>-17</v>
       </c>
-      <c r="Y17">
-        <v>-8</v>
-      </c>
       <c r="Z17">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="AA17">
-        <v>-33</v>
+        <v>-18</v>
       </c>
       <c r="AB17">
-        <v>-34</v>
+        <v>-22</v>
       </c>
       <c r="AC17">
+        <v>-32</v>
+      </c>
+      <c r="AD17">
         <v>-40</v>
       </c>
-      <c r="AD17">
-        <v>-61</v>
-      </c>
       <c r="AE17">
-        <v>-100</v>
+        <v>-55</v>
       </c>
       <c r="AF17">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="AG17">
-        <v>-100</v>
+        <v>-83</v>
       </c>
       <c r="AH17">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AI17">
         <v>-100</v>
@@ -5198,28 +5218,28 @@
         <v>-100</v>
       </c>
       <c r="BW17">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BX17">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="BY17">
-        <v>-87</v>
+        <v>-100</v>
       </c>
       <c r="BZ17">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="CA17">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="CB17">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="CC17">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="CD17">
-        <v>-87</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:82" x14ac:dyDescent="0.2">
@@ -5227,91 +5247,91 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>-2</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="E18">
-        <v>-28</v>
+        <v>-3</v>
       </c>
       <c r="F18">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>-10</v>
+      </c>
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-      <c r="I18">
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>-6</v>
+      </c>
+      <c r="N18">
+        <v>-6</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>-8</v>
+      </c>
+      <c r="R18">
+        <v>-8</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
         <v>10</v>
       </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
-      <c r="K18">
-        <v>-4</v>
-      </c>
-      <c r="L18">
-        <v>-3</v>
-      </c>
-      <c r="M18">
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <v>-14</v>
+      </c>
+      <c r="X18">
+        <v>-17</v>
+      </c>
+      <c r="Y18">
         <v>-8</v>
       </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>15</v>
-      </c>
-      <c r="P18">
-        <v>-5</v>
-      </c>
-      <c r="Q18">
-        <v>-7</v>
-      </c>
-      <c r="R18">
-        <v>3</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>-1</v>
-      </c>
-      <c r="W18">
-        <v>-29</v>
-      </c>
-      <c r="X18">
-        <v>-20</v>
-      </c>
-      <c r="Y18">
-        <v>-25</v>
-      </c>
       <c r="Z18">
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="AA18">
-        <v>-47</v>
+        <v>-33</v>
       </c>
       <c r="AB18">
-        <v>-58</v>
+        <v>-34</v>
       </c>
       <c r="AC18">
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="AD18">
-        <v>-71</v>
+        <v>-61</v>
       </c>
       <c r="AE18">
         <v>-100</v>
@@ -5446,28 +5466,28 @@
         <v>-100</v>
       </c>
       <c r="BW18">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BX18">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="BY18">
-        <v>-100</v>
+        <v>-87</v>
       </c>
       <c r="BZ18">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="CA18">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="CB18">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="CC18">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="CD18">
-        <v>-100</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="19" spans="1:82" x14ac:dyDescent="0.2">
@@ -5475,94 +5495,94 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>-22</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>-6</v>
+        <v>-28</v>
       </c>
       <c r="F19">
+        <v>-15</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>-4</v>
+      </c>
+      <c r="L19">
+        <v>-3</v>
+      </c>
+      <c r="M19">
+        <v>-8</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+      <c r="P19">
+        <v>-5</v>
+      </c>
+      <c r="Q19">
+        <v>-7</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>-4</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>-2</v>
-      </c>
-      <c r="J19">
-        <v>-3</v>
-      </c>
-      <c r="K19">
-        <v>-17</v>
-      </c>
-      <c r="L19">
-        <v>-9</v>
-      </c>
-      <c r="M19">
-        <v>-10</v>
-      </c>
-      <c r="N19">
-        <v>-6</v>
-      </c>
-      <c r="O19">
-        <v>-17</v>
-      </c>
-      <c r="P19">
-        <v>-28</v>
-      </c>
-      <c r="Q19">
-        <v>-31</v>
-      </c>
-      <c r="R19">
-        <v>-13</v>
-      </c>
-      <c r="S19">
-        <v>-9</v>
-      </c>
-      <c r="T19">
-        <v>-8</v>
-      </c>
       <c r="U19">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="W19">
-        <v>-11</v>
+        <v>-29</v>
       </c>
       <c r="X19">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="Y19">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="Z19">
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="AA19">
-        <v>-32</v>
+        <v>-47</v>
       </c>
       <c r="AB19">
-        <v>-36</v>
+        <v>-58</v>
       </c>
       <c r="AC19">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="AD19">
-        <v>-58</v>
+        <v>-71</v>
       </c>
       <c r="AE19">
-        <v>-88</v>
+        <v>-100</v>
       </c>
       <c r="AF19">
         <v>-100</v>
@@ -5723,94 +5743,94 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>-22</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>-19</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H20">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J20">
         <v>-3</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>-17</v>
       </c>
       <c r="L20">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="N20">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="O20">
-        <v>-2</v>
+        <v>-17</v>
       </c>
       <c r="P20">
-        <v>-10</v>
+        <v>-28</v>
       </c>
       <c r="Q20">
-        <v>-10</v>
+        <v>-31</v>
       </c>
       <c r="R20">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="S20">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="T20">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="U20">
         <v>-7</v>
       </c>
       <c r="V20">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="W20">
-        <v>-22</v>
+        <v>-11</v>
       </c>
       <c r="X20">
-        <v>-23</v>
+        <v>-19</v>
       </c>
       <c r="Y20">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="Z20">
-        <v>-29</v>
+        <v>-20</v>
       </c>
       <c r="AA20">
+        <v>-32</v>
+      </c>
+      <c r="AB20">
         <v>-36</v>
       </c>
-      <c r="AB20">
-        <v>-31</v>
-      </c>
       <c r="AC20">
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="AD20">
-        <v>-61</v>
+        <v>-58</v>
       </c>
       <c r="AE20">
-        <v>-89</v>
+        <v>-88</v>
       </c>
       <c r="AF20">
         <v>-100</v>
@@ -5971,94 +5991,94 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>-4</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="J21">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="N21">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="O21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="R21">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="S21">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="U21">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="V21">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="W21">
-        <v>-27</v>
+        <v>-22</v>
       </c>
       <c r="X21">
         <v>-23</v>
       </c>
       <c r="Y21">
-        <v>-26</v>
+        <v>-19</v>
       </c>
       <c r="Z21">
-        <v>-38</v>
+        <v>-29</v>
       </c>
       <c r="AA21">
-        <v>-48</v>
+        <v>-36</v>
       </c>
       <c r="AB21">
-        <v>-47</v>
+        <v>-31</v>
       </c>
       <c r="AC21">
-        <v>-57</v>
+        <v>-43</v>
       </c>
       <c r="AD21">
-        <v>-82</v>
+        <v>-61</v>
       </c>
       <c r="AE21">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="AF21">
         <v>-100</v>
@@ -6219,91 +6239,91 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>-3</v>
+      </c>
+      <c r="P22">
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
         <v>7</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>-11</v>
-      </c>
-      <c r="I22">
+      <c r="S22">
         <v>-5</v>
       </c>
-      <c r="J22">
-        <v>-5</v>
-      </c>
-      <c r="K22">
-        <v>-11</v>
-      </c>
-      <c r="L22">
-        <v>-9</v>
-      </c>
-      <c r="M22">
-        <v>-13</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>13</v>
-      </c>
-      <c r="P22">
-        <v>-6</v>
-      </c>
-      <c r="Q22">
-        <v>-13</v>
-      </c>
-      <c r="R22">
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>-2</v>
+      </c>
+      <c r="V22">
         <v>-15</v>
       </c>
-      <c r="S22">
-        <v>-7</v>
-      </c>
-      <c r="T22">
-        <v>-7</v>
-      </c>
-      <c r="U22">
-        <v>-5</v>
-      </c>
-      <c r="V22">
-        <v>3</v>
-      </c>
       <c r="W22">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="X22">
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="Y22">
-        <v>-24</v>
+        <v>-26</v>
       </c>
       <c r="Z22">
-        <v>-30</v>
+        <v>-38</v>
       </c>
       <c r="AA22">
-        <v>-33</v>
+        <v>-48</v>
       </c>
       <c r="AB22">
-        <v>-52</v>
+        <v>-47</v>
       </c>
       <c r="AC22">
         <v>-57</v>
       </c>
       <c r="AD22">
-        <v>-75</v>
+        <v>-82</v>
       </c>
       <c r="AE22">
         <v>-100</v>
@@ -6467,94 +6487,94 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>-8</v>
-      </c>
-      <c r="E23">
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>-11</v>
+      </c>
+      <c r="I23">
         <v>-5</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
+      <c r="J23">
+        <v>-5</v>
+      </c>
+      <c r="K23">
+        <v>-11</v>
+      </c>
+      <c r="L23">
+        <v>-9</v>
+      </c>
+      <c r="M23">
+        <v>-13</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>-6</v>
+      </c>
+      <c r="Q23">
+        <v>-13</v>
+      </c>
+      <c r="R23">
+        <v>-15</v>
+      </c>
+      <c r="S23">
         <v>-7</v>
       </c>
-      <c r="I23">
-        <v>17</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>-9</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23">
-        <v>-18</v>
-      </c>
-      <c r="P23">
-        <v>-13</v>
-      </c>
-      <c r="Q23">
-        <v>-15</v>
-      </c>
-      <c r="R23">
-        <v>-6</v>
-      </c>
-      <c r="S23">
-        <v>-2</v>
-      </c>
       <c r="T23">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="U23">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="V23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W23">
-        <v>-9</v>
+        <v>-22</v>
       </c>
       <c r="X23">
-        <v>-15</v>
+        <v>-21</v>
       </c>
       <c r="Y23">
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="Z23">
-        <v>-22</v>
+        <v>-30</v>
       </c>
       <c r="AA23">
-        <v>-27</v>
+        <v>-33</v>
       </c>
       <c r="AB23">
-        <v>-30</v>
+        <v>-52</v>
       </c>
       <c r="AC23">
-        <v>-36</v>
+        <v>-57</v>
       </c>
       <c r="AD23">
-        <v>-46</v>
+        <v>-75</v>
       </c>
       <c r="AE23">
-        <v>-78</v>
+        <v>-100</v>
       </c>
       <c r="AF23">
         <v>-100</v>
@@ -6715,94 +6735,94 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="I24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>-18</v>
       </c>
       <c r="P24">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="Q24">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="R24">
+        <v>-6</v>
+      </c>
+      <c r="S24">
+        <v>-2</v>
+      </c>
+      <c r="T24">
+        <v>-11</v>
+      </c>
+      <c r="U24">
+        <v>-2</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>-9</v>
+      </c>
+      <c r="X24">
         <v>-15</v>
       </c>
-      <c r="S24">
-        <v>-16</v>
-      </c>
-      <c r="T24">
-        <v>-8</v>
-      </c>
-      <c r="U24">
-        <v>-3</v>
-      </c>
-      <c r="V24">
-        <v>-10</v>
-      </c>
-      <c r="W24">
-        <v>-11</v>
-      </c>
-      <c r="X24">
-        <v>-17</v>
-      </c>
       <c r="Y24">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="Z24">
         <v>-22</v>
       </c>
       <c r="AA24">
-        <v>-21</v>
+        <v>-27</v>
       </c>
       <c r="AB24">
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="AC24">
-        <v>-23</v>
+        <v>-36</v>
       </c>
       <c r="AD24">
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="AE24">
-        <v>-71</v>
+        <v>-78</v>
       </c>
       <c r="AF24">
         <v>-100</v>
@@ -6963,94 +6983,94 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>-2</v>
       </c>
       <c r="E25">
-        <v>-33</v>
+        <v>6</v>
       </c>
       <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>26</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>-8</v>
+      </c>
+      <c r="Q25">
+        <v>-8</v>
+      </c>
+      <c r="R25">
         <v>-15</v>
       </c>
-      <c r="G25">
-        <v>12</v>
-      </c>
-      <c r="H25">
-        <v>33</v>
-      </c>
-      <c r="I25">
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <v>27</v>
-      </c>
-      <c r="K25">
-        <v>12</v>
-      </c>
-      <c r="L25">
-        <v>29</v>
-      </c>
-      <c r="M25">
-        <v>39</v>
-      </c>
-      <c r="N25">
-        <v>11</v>
-      </c>
-      <c r="O25">
-        <v>14</v>
-      </c>
-      <c r="P25">
-        <v>-19</v>
-      </c>
-      <c r="Q25">
+      <c r="S25">
+        <v>-16</v>
+      </c>
+      <c r="T25">
+        <v>-8</v>
+      </c>
+      <c r="U25">
         <v>-3</v>
       </c>
-      <c r="R25">
-        <v>6</v>
-      </c>
-      <c r="S25">
-        <v>-13</v>
-      </c>
-      <c r="T25">
-        <v>-6</v>
-      </c>
-      <c r="U25">
-        <v>61</v>
-      </c>
       <c r="V25">
-        <v>23</v>
+        <v>-10</v>
       </c>
       <c r="W25">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="X25">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="Y25">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="Z25">
-        <v>-28</v>
+        <v>-22</v>
       </c>
       <c r="AA25">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="AB25">
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="AC25">
-        <v>-33</v>
+        <v>-23</v>
       </c>
       <c r="AD25">
-        <v>-76</v>
+        <v>-43</v>
       </c>
       <c r="AE25">
-        <v>-100</v>
+        <v>-71</v>
       </c>
       <c r="AF25">
         <v>-100</v>
@@ -7211,103 +7231,103 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="D26">
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="E26">
+        <v>-33</v>
+      </c>
+      <c r="F26">
+        <v>-15</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>39</v>
+      </c>
+      <c r="N26">
+        <v>11</v>
+      </c>
+      <c r="O26">
+        <v>14</v>
+      </c>
+      <c r="P26">
+        <v>-19</v>
+      </c>
+      <c r="Q26">
         <v>-3</v>
       </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>-1</v>
-      </c>
-      <c r="J26">
-        <v>8</v>
-      </c>
-      <c r="K26">
-        <v>7</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>5</v>
-      </c>
-      <c r="P26">
-        <v>-11</v>
-      </c>
-      <c r="Q26">
-        <v>-5</v>
-      </c>
       <c r="R26">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="V26">
-        <v>-6</v>
+        <v>23</v>
       </c>
       <c r="W26">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="X26">
         <v>-14</v>
       </c>
       <c r="Y26">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="Z26">
-        <v>-17</v>
+        <v>-28</v>
       </c>
       <c r="AA26">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="AB26">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="AC26">
-        <v>-38</v>
+        <v>-33</v>
       </c>
       <c r="AD26">
-        <v>-53</v>
+        <v>-76</v>
       </c>
       <c r="AE26">
-        <v>-72</v>
+        <v>-100</v>
       </c>
       <c r="AF26">
-        <v>-79</v>
+        <v>-100</v>
       </c>
       <c r="AG26">
-        <v>-84</v>
+        <v>-100</v>
       </c>
       <c r="AH26">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="AI26">
         <v>-100</v>
@@ -7442,16 +7462,16 @@
         <v>-100</v>
       </c>
       <c r="CA26">
-        <v>-77</v>
+        <v>-100</v>
       </c>
       <c r="CB26">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="CC26">
-        <v>-78</v>
+        <v>-100</v>
       </c>
       <c r="CD26">
-        <v>-80</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="27" spans="1:82" x14ac:dyDescent="0.2">
@@ -7459,103 +7479,103 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="E27">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="F27">
         <v>7</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="J27">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="Q27">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="S27">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="W27">
+        <v>-18</v>
+      </c>
+      <c r="X27">
+        <v>-14</v>
+      </c>
+      <c r="Y27">
         <v>-13</v>
       </c>
-      <c r="X27">
-        <v>-7</v>
-      </c>
-      <c r="Y27">
-        <v>-21</v>
-      </c>
       <c r="Z27">
+        <v>-17</v>
+      </c>
+      <c r="AA27">
+        <v>-24</v>
+      </c>
+      <c r="AB27">
         <v>-30</v>
       </c>
-      <c r="AA27">
-        <v>-37</v>
-      </c>
-      <c r="AB27">
-        <v>-40</v>
-      </c>
       <c r="AC27">
-        <v>-54</v>
+        <v>-38</v>
       </c>
       <c r="AD27">
-        <v>-70</v>
+        <v>-53</v>
       </c>
       <c r="AE27">
-        <v>-92</v>
+        <v>-72</v>
       </c>
       <c r="AF27">
-        <v>-97</v>
+        <v>-79</v>
       </c>
       <c r="AG27">
-        <v>-99</v>
+        <v>-84</v>
       </c>
       <c r="AH27">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="AI27">
         <v>-100</v>
@@ -7690,16 +7710,16 @@
         <v>-100</v>
       </c>
       <c r="CA27">
-        <v>-100</v>
+        <v>-77</v>
       </c>
       <c r="CB27">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="CC27">
-        <v>-100</v>
+        <v>-78</v>
       </c>
       <c r="CD27">
-        <v>-100</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="28" spans="1:82" x14ac:dyDescent="0.2">
@@ -7707,100 +7727,100 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>-10</v>
       </c>
       <c r="F28">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>-12</v>
       </c>
       <c r="I28">
-        <v>109</v>
+        <v>-14</v>
       </c>
       <c r="J28">
-        <v>102</v>
+        <v>-12</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>-14</v>
       </c>
       <c r="L28">
-        <v>-21</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>-21</v>
+        <v>12</v>
       </c>
       <c r="N28">
-        <v>-16</v>
+        <v>3</v>
       </c>
       <c r="O28">
-        <v>-27</v>
+        <v>-3</v>
       </c>
       <c r="P28">
-        <v>-47</v>
+        <v>2</v>
       </c>
       <c r="Q28">
-        <v>-59</v>
+        <v>-14</v>
       </c>
       <c r="R28">
-        <v>-32</v>
+        <v>2</v>
       </c>
       <c r="S28">
+        <v>-3</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>5</v>
       </c>
-      <c r="T28">
-        <v>6</v>
-      </c>
-      <c r="U28">
-        <v>3</v>
-      </c>
       <c r="V28">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="W28">
         <v>-13</v>
       </c>
       <c r="X28">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="Y28">
         <v>-21</v>
       </c>
       <c r="Z28">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="AA28">
-        <v>-32</v>
+        <v>-37</v>
       </c>
       <c r="AB28">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="AC28">
         <v>-54</v>
       </c>
       <c r="AD28">
-        <v>-63</v>
+        <v>-70</v>
       </c>
       <c r="AE28">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="AF28">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AG28">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AH28">
         <v>-100</v>
@@ -7955,91 +7975,91 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C29">
+        <v>-9</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
       <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>21</v>
+      </c>
+      <c r="I29">
+        <v>109</v>
+      </c>
+      <c r="J29">
+        <v>102</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>-21</v>
+      </c>
+      <c r="M29">
+        <v>-21</v>
+      </c>
+      <c r="N29">
+        <v>-16</v>
+      </c>
+      <c r="O29">
+        <v>-27</v>
+      </c>
+      <c r="P29">
+        <v>-47</v>
+      </c>
+      <c r="Q29">
+        <v>-59</v>
+      </c>
+      <c r="R29">
+        <v>-32</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>13</v>
-      </c>
-      <c r="I29">
-        <v>7</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>-2</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>-2</v>
-      </c>
-      <c r="O29">
-        <v>-2</v>
-      </c>
-      <c r="P29">
-        <v>-6</v>
-      </c>
-      <c r="Q29">
-        <v>-12</v>
-      </c>
-      <c r="R29">
-        <v>-12</v>
-      </c>
-      <c r="S29">
-        <v>-9</v>
-      </c>
-      <c r="T29">
-        <v>-15</v>
-      </c>
-      <c r="U29">
-        <v>-10</v>
-      </c>
       <c r="V29">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="W29">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="X29">
-        <v>-30</v>
+        <v>-13</v>
       </c>
       <c r="Y29">
-        <v>-36</v>
+        <v>-21</v>
       </c>
       <c r="Z29">
-        <v>-52</v>
+        <v>-28</v>
       </c>
       <c r="AA29">
-        <v>-61</v>
+        <v>-32</v>
       </c>
       <c r="AB29">
-        <v>-64</v>
+        <v>-39</v>
       </c>
       <c r="AC29">
-        <v>-69</v>
+        <v>-54</v>
       </c>
       <c r="AD29">
-        <v>-77</v>
+        <v>-63</v>
       </c>
       <c r="AE29">
         <v>-100</v>
@@ -8203,103 +8223,103 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>-2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>-2</v>
+      </c>
+      <c r="O30">
+        <v>-2</v>
+      </c>
+      <c r="P30">
         <v>-6</v>
       </c>
-      <c r="D30">
-        <v>-3</v>
-      </c>
-      <c r="E30">
+      <c r="Q30">
         <v>-12</v>
       </c>
-      <c r="F30">
-        <v>-7</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>14</v>
-      </c>
-      <c r="L30">
-        <v>21</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
-      <c r="P30">
+      <c r="R30">
+        <v>-12</v>
+      </c>
+      <c r="S30">
+        <v>-9</v>
+      </c>
+      <c r="T30">
+        <v>-15</v>
+      </c>
+      <c r="U30">
+        <v>-10</v>
+      </c>
+      <c r="V30">
+        <v>-4</v>
+      </c>
+      <c r="W30">
         <v>-18</v>
       </c>
-      <c r="Q30">
-        <v>-18</v>
-      </c>
-      <c r="R30">
-        <v>-18</v>
-      </c>
-      <c r="S30">
-        <v>-2</v>
-      </c>
-      <c r="T30">
-        <v>-1</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>-8</v>
-      </c>
-      <c r="W30">
-        <v>-34</v>
-      </c>
       <c r="X30">
-        <v>-37</v>
+        <v>-30</v>
       </c>
       <c r="Y30">
-        <v>-30</v>
+        <v>-36</v>
       </c>
       <c r="Z30">
-        <v>-30</v>
+        <v>-52</v>
       </c>
       <c r="AA30">
-        <v>-33</v>
+        <v>-61</v>
       </c>
       <c r="AB30">
-        <v>-32</v>
+        <v>-64</v>
       </c>
       <c r="AC30">
-        <v>-47</v>
+        <v>-69</v>
       </c>
       <c r="AD30">
-        <v>-53</v>
+        <v>-77</v>
       </c>
       <c r="AE30">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="AF30">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="AG30">
-        <v>-93</v>
+        <v>-100</v>
       </c>
       <c r="AH30">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AI30">
         <v>-100</v>
@@ -8434,16 +8454,16 @@
         <v>-100</v>
       </c>
       <c r="CA30">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CB30">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CC30">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="CD30">
-        <v>-95</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="31" spans="1:82" x14ac:dyDescent="0.2">
@@ -8451,103 +8471,103 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="D31">
-        <v>55</v>
+        <v>-3</v>
       </c>
       <c r="E31">
-        <v>11</v>
+        <v>-12</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>-18</v>
+      </c>
+      <c r="Q31">
+        <v>-18</v>
+      </c>
+      <c r="R31">
+        <v>-18</v>
+      </c>
+      <c r="S31">
         <v>-2</v>
       </c>
-      <c r="J31">
-        <v>-2</v>
-      </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31">
-        <v>13</v>
-      </c>
-      <c r="M31">
-        <v>11</v>
-      </c>
-      <c r="N31">
-        <v>7</v>
-      </c>
-      <c r="O31">
-        <v>21</v>
-      </c>
-      <c r="P31">
-        <v>13</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-      <c r="R31">
-        <v>6</v>
-      </c>
-      <c r="S31">
-        <v>8</v>
-      </c>
       <c r="T31">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="U31">
         <v>1</v>
       </c>
       <c r="V31">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="W31">
-        <v>-7</v>
+        <v>-34</v>
       </c>
       <c r="X31">
-        <v>-14</v>
+        <v>-37</v>
       </c>
       <c r="Y31">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="Z31">
-        <v>-39</v>
+        <v>-30</v>
       </c>
       <c r="AA31">
-        <v>-40</v>
+        <v>-33</v>
       </c>
       <c r="AB31">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AC31">
-        <v>-54</v>
+        <v>-47</v>
       </c>
       <c r="AD31">
+        <v>-53</v>
+      </c>
+      <c r="AE31">
         <v>-85</v>
       </c>
-      <c r="AE31">
-        <v>-100</v>
-      </c>
       <c r="AF31">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="AG31">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="AH31">
-        <v>-100</v>
+        <v>-97</v>
       </c>
       <c r="AI31">
         <v>-100</v>
@@ -8682,16 +8702,16 @@
         <v>-100</v>
       </c>
       <c r="CA31">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CB31">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CC31">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="CD31">
-        <v>-100</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="32" spans="1:82" x14ac:dyDescent="0.2">
@@ -8699,97 +8719,97 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I32">
+        <v>-2</v>
+      </c>
+      <c r="J32">
+        <v>-2</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+      <c r="N32">
         <v>7</v>
       </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32">
-        <v>-2</v>
-      </c>
-      <c r="L32">
-        <v>-2</v>
-      </c>
-      <c r="M32">
-        <v>7</v>
-      </c>
-      <c r="N32">
-        <v>-5</v>
-      </c>
       <c r="O32">
-        <v>-11</v>
+        <v>21</v>
       </c>
       <c r="P32">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="Q32">
-        <v>-21</v>
+        <v>4</v>
       </c>
       <c r="R32">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="S32">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="T32">
         <v>-7</v>
       </c>
       <c r="U32">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="W32">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="X32">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="Y32">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="Z32">
-        <v>-21</v>
+        <v>-39</v>
       </c>
       <c r="AA32">
-        <v>-28</v>
+        <v>-40</v>
       </c>
       <c r="AB32">
-        <v>-27</v>
+        <v>-48</v>
       </c>
       <c r="AC32">
-        <v>-45</v>
+        <v>-54</v>
       </c>
       <c r="AD32">
-        <v>-66</v>
+        <v>-85</v>
       </c>
       <c r="AE32">
-        <v>-86</v>
+        <v>-100</v>
       </c>
       <c r="AF32">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AG32">
         <v>-100</v>
@@ -8894,7 +8914,7 @@
         <v>-100</v>
       </c>
       <c r="BO32">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BP32">
         <v>-100</v>
@@ -8947,97 +8967,97 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="G33">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="L33">
-        <v>-19</v>
+        <v>-2</v>
       </c>
       <c r="M33">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="O33">
-        <v>32</v>
+        <v>-11</v>
       </c>
       <c r="P33">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="Q33">
-        <v>-11</v>
+        <v>-21</v>
       </c>
       <c r="R33">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="S33">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T33">
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="U33">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="W33">
+        <v>-18</v>
+      </c>
+      <c r="X33">
         <v>-13</v>
       </c>
-      <c r="X33">
-        <v>-31</v>
-      </c>
       <c r="Y33">
-        <v>-24</v>
+        <v>-28</v>
       </c>
       <c r="Z33">
-        <v>-42</v>
+        <v>-21</v>
       </c>
       <c r="AA33">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="AB33">
-        <v>-48</v>
+        <v>-27</v>
       </c>
       <c r="AC33">
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="AD33">
-        <v>-63</v>
+        <v>-66</v>
       </c>
       <c r="AE33">
-        <v>-100</v>
+        <v>-86</v>
       </c>
       <c r="AF33">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="AG33">
         <v>-100</v>
@@ -9142,7 +9162,7 @@
         <v>-100</v>
       </c>
       <c r="BO33">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BP33">
         <v>-100</v>
@@ -9195,91 +9215,91 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>-14</v>
+      </c>
+      <c r="F34">
+        <v>-9</v>
+      </c>
+      <c r="G34">
         <v>-4</v>
       </c>
-      <c r="E34">
-        <v>7</v>
-      </c>
-      <c r="F34">
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
       <c r="H34">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="I34">
         <v>14</v>
       </c>
       <c r="J34">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>-10</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>-19</v>
       </c>
       <c r="M34">
-        <v>-4</v>
+        <v>-16</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>-12</v>
+      </c>
+      <c r="Q34">
+        <v>-11</v>
+      </c>
+      <c r="R34">
+        <v>-2</v>
+      </c>
+      <c r="S34">
+        <v>-10</v>
+      </c>
+      <c r="T34">
+        <v>-17</v>
+      </c>
+      <c r="U34">
         <v>9</v>
       </c>
-      <c r="P34">
-        <v>5</v>
-      </c>
-      <c r="Q34">
-        <v>-3</v>
-      </c>
-      <c r="R34">
-        <v>-1</v>
-      </c>
-      <c r="S34">
-        <v>3</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>-3</v>
-      </c>
       <c r="V34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="X34">
-        <v>-7</v>
+        <v>-31</v>
       </c>
       <c r="Y34">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="Z34">
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="AA34">
-        <v>-41</v>
+        <v>-42</v>
       </c>
       <c r="AB34">
-        <v>-39</v>
+        <v>-48</v>
       </c>
       <c r="AC34">
-        <v>-54</v>
+        <v>-48</v>
       </c>
       <c r="AD34">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="AE34">
         <v>-100</v>
@@ -9443,94 +9463,94 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>-4</v>
+      </c>
+      <c r="E35">
         <v>7</v>
       </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>-49</v>
-      </c>
       <c r="F35">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
+      </c>
+      <c r="I35">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>-7</v>
+      </c>
+      <c r="K35">
+        <v>17</v>
+      </c>
+      <c r="L35">
         <v>4</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>-11</v>
-      </c>
-      <c r="J35">
-        <v>-9</v>
-      </c>
-      <c r="K35">
-        <v>-5</v>
-      </c>
-      <c r="L35">
-        <v>-1</v>
       </c>
       <c r="M35">
         <v>-4</v>
       </c>
       <c r="N35">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P35">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="Q35">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="R35">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="S35">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="V35">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="W35">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="X35">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="Y35">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="Z35">
-        <v>-21</v>
+        <v>-32</v>
       </c>
       <c r="AA35">
-        <v>-29</v>
+        <v>-41</v>
       </c>
       <c r="AB35">
         <v>-39</v>
       </c>
       <c r="AC35">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="AD35">
-        <v>-68</v>
+        <v>-61</v>
       </c>
       <c r="AE35">
-        <v>-97</v>
+        <v>-100</v>
       </c>
       <c r="AF35">
         <v>-100</v>
@@ -9691,97 +9711,97 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>-5</v>
+        <v>-49</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="G36">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="K36">
         <v>-5</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="M36">
+        <v>-4</v>
+      </c>
+      <c r="N36">
+        <v>-2</v>
+      </c>
+      <c r="O36">
         <v>1</v>
-      </c>
-      <c r="N36">
-        <v>-6</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
       </c>
       <c r="P36">
         <v>-6</v>
       </c>
       <c r="Q36">
-        <v>-22</v>
+        <v>-9</v>
       </c>
       <c r="R36">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="S36">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="T36">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="U36">
+        <v>-9</v>
+      </c>
+      <c r="V36">
+        <v>-11</v>
+      </c>
+      <c r="W36">
+        <v>-18</v>
+      </c>
+      <c r="X36">
+        <v>-18</v>
+      </c>
+      <c r="Y36">
         <v>-15</v>
       </c>
-      <c r="V36">
-        <v>-23</v>
-      </c>
-      <c r="W36">
-        <v>-32</v>
-      </c>
-      <c r="X36">
-        <v>-22</v>
-      </c>
-      <c r="Y36">
-        <v>-27</v>
-      </c>
       <c r="Z36">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="AA36">
-        <v>-41</v>
+        <v>-29</v>
       </c>
       <c r="AB36">
         <v>-39</v>
       </c>
       <c r="AC36">
-        <v>-45</v>
+        <v>-55</v>
       </c>
       <c r="AD36">
-        <v>-59</v>
+        <v>-68</v>
       </c>
       <c r="AE36">
-        <v>-83</v>
+        <v>-97</v>
       </c>
       <c r="AF36">
-        <v>-91</v>
+        <v>-100</v>
       </c>
       <c r="AG36">
         <v>-100</v>
@@ -9913,25 +9933,25 @@
         <v>-100</v>
       </c>
       <c r="BX36">
-        <v>-85</v>
+        <v>-100</v>
       </c>
       <c r="BY36">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="BZ36">
-        <v>-92</v>
+        <v>-100</v>
       </c>
       <c r="CA36">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="CB36">
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="CC36">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="CD36">
-        <v>-88</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="37" spans="1:82" x14ac:dyDescent="0.2">
@@ -9939,97 +9959,97 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="D37">
+        <v>-4</v>
+      </c>
+      <c r="E37">
+        <v>-5</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>-6</v>
+      </c>
+      <c r="H37">
+        <v>-15</v>
+      </c>
+      <c r="I37">
+        <v>-15</v>
+      </c>
+      <c r="J37">
         <v>9</v>
       </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-      <c r="F37">
-        <v>-1</v>
-      </c>
-      <c r="G37">
-        <v>-12</v>
-      </c>
-      <c r="H37">
-        <v>-1</v>
-      </c>
-      <c r="I37">
-        <v>-11</v>
-      </c>
-      <c r="J37">
-        <v>-2</v>
-      </c>
       <c r="K37">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="O37">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="Q37">
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="R37">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="S37">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="V37">
-        <v>-7</v>
+        <v>-23</v>
       </c>
       <c r="W37">
-        <v>-13</v>
+        <v>-32</v>
       </c>
       <c r="X37">
-        <v>-34</v>
+        <v>-22</v>
       </c>
       <c r="Y37">
-        <v>-31</v>
+        <v>-27</v>
       </c>
       <c r="Z37">
-        <v>-43</v>
+        <v>-28</v>
       </c>
       <c r="AA37">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="AB37">
-        <v>-42</v>
+        <v>-39</v>
       </c>
       <c r="AC37">
-        <v>-49</v>
+        <v>-45</v>
       </c>
       <c r="AD37">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="AE37">
-        <v>-100</v>
+        <v>-83</v>
       </c>
       <c r="AF37">
-        <v>-100</v>
+        <v>-91</v>
       </c>
       <c r="AG37">
         <v>-100</v>
@@ -10161,25 +10181,25 @@
         <v>-100</v>
       </c>
       <c r="BX37">
-        <v>-100</v>
+        <v>-85</v>
       </c>
       <c r="BY37">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="BZ37">
-        <v>-100</v>
+        <v>-92</v>
       </c>
       <c r="CA37">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="CB37">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="CC37">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="CD37">
-        <v>-100</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="38" spans="1:82" x14ac:dyDescent="0.2">
@@ -10187,91 +10207,91 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>-12</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
         <v>-11</v>
       </c>
-      <c r="E38">
-        <v>-4</v>
-      </c>
-      <c r="F38">
-        <v>-8</v>
-      </c>
-      <c r="G38">
-        <v>-9</v>
-      </c>
-      <c r="H38">
-        <v>-9</v>
-      </c>
-      <c r="I38">
-        <v>9</v>
-      </c>
       <c r="J38">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="K38">
+        <v>-3</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
         <v>12</v>
       </c>
-      <c r="L38">
-        <v>5</v>
-      </c>
-      <c r="M38">
-        <v>-8</v>
-      </c>
-      <c r="N38">
-        <v>-10</v>
-      </c>
       <c r="O38">
-        <v>-18</v>
+        <v>-2</v>
       </c>
       <c r="P38">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="Q38">
-        <v>-24</v>
+        <v>-2</v>
       </c>
       <c r="R38">
-        <v>-24</v>
+        <v>-3</v>
       </c>
       <c r="S38">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="T38">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="U38">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="V38">
-        <v>-26</v>
+        <v>-7</v>
       </c>
       <c r="W38">
-        <v>-41</v>
+        <v>-13</v>
       </c>
       <c r="X38">
+        <v>-34</v>
+      </c>
+      <c r="Y38">
+        <v>-31</v>
+      </c>
+      <c r="Z38">
         <v>-43</v>
       </c>
-      <c r="Y38">
+      <c r="AA38">
         <v>-43</v>
       </c>
-      <c r="Z38">
-        <v>-51</v>
-      </c>
-      <c r="AA38">
-        <v>-53</v>
-      </c>
       <c r="AB38">
-        <v>-58</v>
+        <v>-42</v>
       </c>
       <c r="AC38">
-        <v>-72</v>
+        <v>-49</v>
       </c>
       <c r="AD38">
-        <v>-80</v>
+        <v>-62</v>
       </c>
       <c r="AE38">
         <v>-100</v>
@@ -10435,103 +10455,103 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="D39">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G39">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="I39">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L39">
         <v>5</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="O39">
-        <v>-4</v>
+        <v>-18</v>
       </c>
       <c r="P39">
-        <v>-7</v>
+        <v>-22</v>
       </c>
       <c r="Q39">
-        <v>-6</v>
+        <v>-24</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>-24</v>
       </c>
       <c r="S39">
-        <v>-4</v>
+        <v>-22</v>
       </c>
       <c r="T39">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="U39">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="V39">
-        <v>-10</v>
+        <v>-26</v>
       </c>
       <c r="W39">
-        <v>-4</v>
+        <v>-41</v>
       </c>
       <c r="X39">
-        <v>-16</v>
+        <v>-43</v>
       </c>
       <c r="Y39">
-        <v>-23</v>
+        <v>-43</v>
       </c>
       <c r="Z39">
-        <v>-22</v>
+        <v>-51</v>
       </c>
       <c r="AA39">
-        <v>-29</v>
+        <v>-53</v>
       </c>
       <c r="AB39">
-        <v>-25</v>
+        <v>-58</v>
       </c>
       <c r="AC39">
-        <v>-38</v>
+        <v>-72</v>
       </c>
       <c r="AD39">
-        <v>-54</v>
+        <v>-80</v>
       </c>
       <c r="AE39">
-        <v>-76</v>
+        <v>-100</v>
       </c>
       <c r="AF39">
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="AG39">
-        <v>-93</v>
+        <v>-100</v>
       </c>
       <c r="AH39">
-        <v>-96</v>
+        <v>-100</v>
       </c>
       <c r="AI39">
         <v>-100</v>
@@ -10683,103 +10703,103 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="D40">
+        <v>-3</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>-5</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>-3</v>
+      </c>
+      <c r="J40">
         <v>11</v>
       </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>12</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>5</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>-18</v>
+        <v>-4</v>
       </c>
       <c r="P40">
+        <v>-7</v>
+      </c>
+      <c r="Q40">
+        <v>-6</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>-4</v>
+      </c>
+      <c r="T40">
+        <v>-2</v>
+      </c>
+      <c r="U40">
+        <v>-1</v>
+      </c>
+      <c r="V40">
+        <v>-10</v>
+      </c>
+      <c r="W40">
+        <v>-4</v>
+      </c>
+      <c r="X40">
+        <v>-16</v>
+      </c>
+      <c r="Y40">
+        <v>-23</v>
+      </c>
+      <c r="Z40">
+        <v>-22</v>
+      </c>
+      <c r="AA40">
         <v>-29</v>
       </c>
-      <c r="Q40">
-        <v>-31</v>
-      </c>
-      <c r="R40">
-        <v>-31</v>
-      </c>
-      <c r="S40">
-        <v>-36</v>
-      </c>
-      <c r="T40">
-        <v>-34</v>
-      </c>
-      <c r="U40">
-        <v>-35</v>
-      </c>
-      <c r="V40">
+      <c r="AB40">
         <v>-25</v>
       </c>
-      <c r="W40">
-        <v>-47</v>
-      </c>
-      <c r="X40">
-        <v>-49</v>
-      </c>
-      <c r="Y40">
+      <c r="AC40">
+        <v>-38</v>
+      </c>
+      <c r="AD40">
         <v>-54</v>
       </c>
-      <c r="Z40">
-        <v>-58</v>
-      </c>
-      <c r="AA40">
-        <v>-63</v>
-      </c>
-      <c r="AB40">
-        <v>-63</v>
-      </c>
-      <c r="AC40">
-        <v>-62</v>
-      </c>
-      <c r="AD40">
-        <v>-83</v>
-      </c>
       <c r="AE40">
-        <v>-100</v>
+        <v>-76</v>
       </c>
       <c r="AF40">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="AG40">
-        <v>-100</v>
+        <v>-93</v>
       </c>
       <c r="AH40">
-        <v>-100</v>
+        <v>-96</v>
       </c>
       <c r="AI40">
         <v>-100</v>
@@ -10931,103 +10951,103 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="I41">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <v>5</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="P41">
-        <v>12</v>
+        <v>-29</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>-31</v>
       </c>
       <c r="R41">
-        <v>10</v>
+        <v>-31</v>
       </c>
       <c r="S41">
-        <v>-1</v>
+        <v>-36</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>-34</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="V41">
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="X41">
-        <v>-15</v>
+        <v>-49</v>
       </c>
       <c r="Y41">
-        <v>-14</v>
+        <v>-54</v>
       </c>
       <c r="Z41">
-        <v>-16</v>
+        <v>-58</v>
       </c>
       <c r="AA41">
-        <v>-22</v>
+        <v>-63</v>
       </c>
       <c r="AB41">
-        <v>-23</v>
+        <v>-63</v>
       </c>
       <c r="AC41">
-        <v>-20</v>
+        <v>-62</v>
       </c>
       <c r="AD41">
-        <v>-48</v>
+        <v>-83</v>
       </c>
       <c r="AE41">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="AF41">
-        <v>-84</v>
+        <v>-100</v>
       </c>
       <c r="AG41">
-        <v>-86</v>
+        <v>-100</v>
       </c>
       <c r="AH41">
-        <v>-95</v>
+        <v>-100</v>
       </c>
       <c r="AI41">
         <v>-100</v>
@@ -11162,16 +11182,16 @@
         <v>-100</v>
       </c>
       <c r="CA41">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="CB41">
-        <v>-78</v>
+        <v>-100</v>
       </c>
       <c r="CC41">
-        <v>-83</v>
+        <v>-100</v>
       </c>
       <c r="CD41">
-        <v>-78</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="42" spans="1:82" x14ac:dyDescent="0.2">
@@ -11179,103 +11199,103 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>-4</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>-6</v>
+      </c>
+      <c r="I42">
+        <v>-6</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>-15</v>
+      </c>
+      <c r="P42">
+        <v>12</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>-1</v>
+      </c>
+      <c r="T42">
+        <v>-1</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>-2</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-15</v>
+      </c>
+      <c r="Y42">
         <v>-14</v>
       </c>
-      <c r="D42">
-        <v>-8</v>
-      </c>
-      <c r="E42">
-        <v>-9</v>
-      </c>
-      <c r="F42">
-        <v>-9</v>
-      </c>
-      <c r="G42">
-        <v>-4</v>
-      </c>
-      <c r="H42">
-        <v>12</v>
-      </c>
-      <c r="I42">
-        <v>-8</v>
-      </c>
-      <c r="J42">
-        <v>-7</v>
-      </c>
-      <c r="K42">
-        <v>-6</v>
-      </c>
-      <c r="L42">
-        <v>-17</v>
-      </c>
-      <c r="M42">
+      <c r="Z42">
         <v>-16</v>
       </c>
-      <c r="N42">
-        <v>-5</v>
-      </c>
-      <c r="O42">
-        <v>-9</v>
-      </c>
-      <c r="P42">
-        <v>-10</v>
-      </c>
-      <c r="Q42">
-        <v>-9</v>
-      </c>
-      <c r="R42">
-        <v>-2</v>
-      </c>
-      <c r="S42">
-        <v>-2</v>
-      </c>
-      <c r="T42">
-        <v>-15</v>
-      </c>
-      <c r="U42">
-        <v>-7</v>
-      </c>
-      <c r="V42">
-        <v>5</v>
-      </c>
-      <c r="W42">
-        <v>-18</v>
-      </c>
-      <c r="X42">
-        <v>-21</v>
-      </c>
-      <c r="Y42">
-        <v>-28</v>
-      </c>
-      <c r="Z42">
-        <v>-37</v>
-      </c>
       <c r="AA42">
-        <v>-49</v>
+        <v>-22</v>
       </c>
       <c r="AB42">
-        <v>-49</v>
+        <v>-23</v>
       </c>
       <c r="AC42">
-        <v>-54</v>
+        <v>-20</v>
       </c>
       <c r="AD42">
-        <v>-76</v>
+        <v>-48</v>
       </c>
       <c r="AE42">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="AF42">
-        <v>-100</v>
+        <v>-84</v>
       </c>
       <c r="AG42">
-        <v>-100</v>
+        <v>-86</v>
       </c>
       <c r="AH42">
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="AI42">
         <v>-100</v>
@@ -11410,16 +11430,16 @@
         <v>-100</v>
       </c>
       <c r="CA42">
-        <v>-100</v>
+        <v>-80</v>
       </c>
       <c r="CB42">
-        <v>-100</v>
+        <v>-78</v>
       </c>
       <c r="CC42">
-        <v>-100</v>
+        <v>-83</v>
       </c>
       <c r="CD42">
-        <v>-100</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="43" spans="1:82" x14ac:dyDescent="0.2">
@@ -11427,97 +11447,97 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>-14</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="L43">
+        <v>-17</v>
+      </c>
+      <c r="M43">
+        <v>-16</v>
+      </c>
+      <c r="N43">
         <v>-5</v>
       </c>
-      <c r="M43">
-        <v>-1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
       <c r="O43">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="P43">
         <v>-10</v>
       </c>
       <c r="Q43">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="R43">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="S43">
         <v>-2</v>
       </c>
       <c r="T43">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="U43">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>-18</v>
       </c>
       <c r="X43">
-        <v>-6</v>
+        <v>-21</v>
       </c>
       <c r="Y43">
-        <v>-17</v>
+        <v>-28</v>
       </c>
       <c r="Z43">
-        <v>-24</v>
+        <v>-37</v>
       </c>
       <c r="AA43">
-        <v>-36</v>
+        <v>-49</v>
       </c>
       <c r="AB43">
-        <v>-33</v>
+        <v>-49</v>
       </c>
       <c r="AC43">
-        <v>-36</v>
+        <v>-54</v>
       </c>
       <c r="AD43">
-        <v>-53</v>
+        <v>-76</v>
       </c>
       <c r="AE43">
-        <v>-98</v>
+        <v>-100</v>
       </c>
       <c r="AF43">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="AG43">
         <v>-100</v>
@@ -11675,246 +11695,494 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="C44">
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
         <v>-5</v>
       </c>
-      <c r="D44">
-        <v>57</v>
-      </c>
-      <c r="E44">
-        <v>9</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>9</v>
-      </c>
-      <c r="H44">
-        <v>16</v>
-      </c>
-      <c r="I44">
-        <v>13</v>
-      </c>
-      <c r="J44">
-        <v>9</v>
-      </c>
-      <c r="K44">
-        <v>9</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
       <c r="M44">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Q44">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="R44">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="S44">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="T44">
         <v>-5</v>
       </c>
       <c r="U44">
+        <v>-15</v>
+      </c>
+      <c r="V44">
+        <v>-1</v>
+      </c>
+      <c r="W44">
         <v>1</v>
       </c>
-      <c r="V44">
+      <c r="X44">
+        <v>-6</v>
+      </c>
+      <c r="Y44">
+        <v>-17</v>
+      </c>
+      <c r="Z44">
+        <v>-24</v>
+      </c>
+      <c r="AA44">
+        <v>-36</v>
+      </c>
+      <c r="AB44">
+        <v>-33</v>
+      </c>
+      <c r="AC44">
+        <v>-36</v>
+      </c>
+      <c r="AD44">
+        <v>-53</v>
+      </c>
+      <c r="AE44">
+        <v>-98</v>
+      </c>
+      <c r="AF44">
+        <v>-99</v>
+      </c>
+      <c r="AG44">
+        <v>-100</v>
+      </c>
+      <c r="AH44">
+        <v>-100</v>
+      </c>
+      <c r="AI44">
+        <v>-100</v>
+      </c>
+      <c r="AJ44">
+        <v>-100</v>
+      </c>
+      <c r="AK44">
+        <v>-100</v>
+      </c>
+      <c r="AL44">
+        <v>-100</v>
+      </c>
+      <c r="AM44">
+        <v>-100</v>
+      </c>
+      <c r="AN44">
+        <v>-100</v>
+      </c>
+      <c r="AO44">
+        <v>-100</v>
+      </c>
+      <c r="AP44">
+        <v>-100</v>
+      </c>
+      <c r="AQ44">
+        <v>-100</v>
+      </c>
+      <c r="AR44">
+        <v>-100</v>
+      </c>
+      <c r="AS44">
+        <v>-100</v>
+      </c>
+      <c r="AT44">
+        <v>-100</v>
+      </c>
+      <c r="AU44">
+        <v>-100</v>
+      </c>
+      <c r="AV44">
+        <v>-100</v>
+      </c>
+      <c r="AW44">
+        <v>-100</v>
+      </c>
+      <c r="AX44">
+        <v>-100</v>
+      </c>
+      <c r="AY44">
+        <v>-100</v>
+      </c>
+      <c r="AZ44">
+        <v>-100</v>
+      </c>
+      <c r="BA44">
+        <v>-100</v>
+      </c>
+      <c r="BB44">
+        <v>-100</v>
+      </c>
+      <c r="BC44">
+        <v>-100</v>
+      </c>
+      <c r="BD44">
+        <v>-100</v>
+      </c>
+      <c r="BE44">
+        <v>-100</v>
+      </c>
+      <c r="BF44">
+        <v>-100</v>
+      </c>
+      <c r="BG44">
+        <v>-100</v>
+      </c>
+      <c r="BH44">
+        <v>-100</v>
+      </c>
+      <c r="BI44">
+        <v>-100</v>
+      </c>
+      <c r="BJ44">
+        <v>-100</v>
+      </c>
+      <c r="BK44">
+        <v>-100</v>
+      </c>
+      <c r="BL44">
+        <v>-100</v>
+      </c>
+      <c r="BM44">
+        <v>-100</v>
+      </c>
+      <c r="BN44">
+        <v>-100</v>
+      </c>
+      <c r="BO44">
+        <v>-100</v>
+      </c>
+      <c r="BP44">
+        <v>-100</v>
+      </c>
+      <c r="BQ44">
+        <v>-100</v>
+      </c>
+      <c r="BR44">
+        <v>-100</v>
+      </c>
+      <c r="BS44">
+        <v>-100</v>
+      </c>
+      <c r="BT44">
+        <v>-100</v>
+      </c>
+      <c r="BU44">
+        <v>-100</v>
+      </c>
+      <c r="BV44">
+        <v>-100</v>
+      </c>
+      <c r="BW44">
+        <v>-100</v>
+      </c>
+      <c r="BX44">
+        <v>-100</v>
+      </c>
+      <c r="BY44">
+        <v>-100</v>
+      </c>
+      <c r="BZ44">
+        <v>-100</v>
+      </c>
+      <c r="CA44">
+        <v>-100</v>
+      </c>
+      <c r="CB44">
+        <v>-100</v>
+      </c>
+      <c r="CC44">
+        <v>-100</v>
+      </c>
+      <c r="CD44">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>-5</v>
+      </c>
+      <c r="D45">
+        <v>57</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <v>0</v>
       </c>
-      <c r="W44">
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>13</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>6</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-8</v>
+      </c>
+      <c r="R45">
+        <v>8</v>
+      </c>
+      <c r="S45">
+        <v>-4</v>
+      </c>
+      <c r="T45">
+        <v>-5</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
         <v>-9</v>
       </c>
-      <c r="X44">
+      <c r="X45">
         <v>-18</v>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <v>-22</v>
       </c>
-      <c r="Z44">
+      <c r="Z45">
         <v>-38</v>
       </c>
-      <c r="AA44">
+      <c r="AA45">
         <v>-44</v>
       </c>
-      <c r="AB44">
+      <c r="AB45">
         <v>-44</v>
       </c>
-      <c r="AC44">
+      <c r="AC45">
         <v>-55</v>
       </c>
-      <c r="AD44">
+      <c r="AD45">
         <v>-76</v>
       </c>
-      <c r="AE44">
-        <v>-100</v>
-      </c>
-      <c r="AF44">
-        <v>-100</v>
-      </c>
-      <c r="AG44">
-        <v>-100</v>
-      </c>
-      <c r="AH44">
-        <v>-100</v>
-      </c>
-      <c r="AI44">
-        <v>-100</v>
-      </c>
-      <c r="AJ44">
-        <v>-100</v>
-      </c>
-      <c r="AK44">
-        <v>-100</v>
-      </c>
-      <c r="AL44">
-        <v>-100</v>
-      </c>
-      <c r="AM44">
-        <v>-100</v>
-      </c>
-      <c r="AN44">
-        <v>-100</v>
-      </c>
-      <c r="AO44">
-        <v>-100</v>
-      </c>
-      <c r="AP44">
-        <v>-100</v>
-      </c>
-      <c r="AQ44">
-        <v>-100</v>
-      </c>
-      <c r="AR44">
-        <v>-100</v>
-      </c>
-      <c r="AS44">
-        <v>-100</v>
-      </c>
-      <c r="AT44">
-        <v>-100</v>
-      </c>
-      <c r="AU44">
-        <v>-100</v>
-      </c>
-      <c r="AV44">
-        <v>-100</v>
-      </c>
-      <c r="AW44">
-        <v>-100</v>
-      </c>
-      <c r="AX44">
-        <v>-100</v>
-      </c>
-      <c r="AY44">
-        <v>-100</v>
-      </c>
-      <c r="AZ44">
-        <v>-100</v>
-      </c>
-      <c r="BA44">
-        <v>-100</v>
-      </c>
-      <c r="BB44">
-        <v>-100</v>
-      </c>
-      <c r="BC44">
-        <v>-100</v>
-      </c>
-      <c r="BD44">
-        <v>-100</v>
-      </c>
-      <c r="BE44">
-        <v>-100</v>
-      </c>
-      <c r="BF44">
-        <v>-100</v>
-      </c>
-      <c r="BG44">
-        <v>-100</v>
-      </c>
-      <c r="BH44">
-        <v>-100</v>
-      </c>
-      <c r="BI44">
-        <v>-100</v>
-      </c>
-      <c r="BJ44">
-        <v>-100</v>
-      </c>
-      <c r="BK44">
-        <v>-100</v>
-      </c>
-      <c r="BL44">
-        <v>-100</v>
-      </c>
-      <c r="BM44">
-        <v>-100</v>
-      </c>
-      <c r="BN44">
-        <v>-100</v>
-      </c>
-      <c r="BO44">
-        <v>-100</v>
-      </c>
-      <c r="BP44">
-        <v>-100</v>
-      </c>
-      <c r="BQ44">
-        <v>-100</v>
-      </c>
-      <c r="BR44">
-        <v>-100</v>
-      </c>
-      <c r="BS44">
-        <v>-100</v>
-      </c>
-      <c r="BT44">
-        <v>-100</v>
-      </c>
-      <c r="BU44">
-        <v>-100</v>
-      </c>
-      <c r="BV44">
-        <v>-100</v>
-      </c>
-      <c r="BW44">
-        <v>-100</v>
-      </c>
-      <c r="BX44">
-        <v>-100</v>
-      </c>
-      <c r="BY44">
-        <v>-100</v>
-      </c>
-      <c r="BZ44">
-        <v>-100</v>
-      </c>
-      <c r="CA44">
-        <v>-100</v>
-      </c>
-      <c r="CB44">
-        <v>-100</v>
-      </c>
-      <c r="CC44">
-        <v>-100</v>
-      </c>
-      <c r="CD44">
+      <c r="AE45">
+        <v>-100</v>
+      </c>
+      <c r="AF45">
+        <v>-100</v>
+      </c>
+      <c r="AG45">
+        <v>-100</v>
+      </c>
+      <c r="AH45">
+        <v>-100</v>
+      </c>
+      <c r="AI45">
+        <v>-100</v>
+      </c>
+      <c r="AJ45">
+        <v>-100</v>
+      </c>
+      <c r="AK45">
+        <v>-100</v>
+      </c>
+      <c r="AL45">
+        <v>-100</v>
+      </c>
+      <c r="AM45">
+        <v>-100</v>
+      </c>
+      <c r="AN45">
+        <v>-100</v>
+      </c>
+      <c r="AO45">
+        <v>-100</v>
+      </c>
+      <c r="AP45">
+        <v>-100</v>
+      </c>
+      <c r="AQ45">
+        <v>-100</v>
+      </c>
+      <c r="AR45">
+        <v>-100</v>
+      </c>
+      <c r="AS45">
+        <v>-100</v>
+      </c>
+      <c r="AT45">
+        <v>-100</v>
+      </c>
+      <c r="AU45">
+        <v>-100</v>
+      </c>
+      <c r="AV45">
+        <v>-100</v>
+      </c>
+      <c r="AW45">
+        <v>-100</v>
+      </c>
+      <c r="AX45">
+        <v>-100</v>
+      </c>
+      <c r="AY45">
+        <v>-100</v>
+      </c>
+      <c r="AZ45">
+        <v>-100</v>
+      </c>
+      <c r="BA45">
+        <v>-100</v>
+      </c>
+      <c r="BB45">
+        <v>-100</v>
+      </c>
+      <c r="BC45">
+        <v>-100</v>
+      </c>
+      <c r="BD45">
+        <v>-100</v>
+      </c>
+      <c r="BE45">
+        <v>-100</v>
+      </c>
+      <c r="BF45">
+        <v>-100</v>
+      </c>
+      <c r="BG45">
+        <v>-100</v>
+      </c>
+      <c r="BH45">
+        <v>-100</v>
+      </c>
+      <c r="BI45">
+        <v>-100</v>
+      </c>
+      <c r="BJ45">
+        <v>-100</v>
+      </c>
+      <c r="BK45">
+        <v>-100</v>
+      </c>
+      <c r="BL45">
+        <v>-100</v>
+      </c>
+      <c r="BM45">
+        <v>-100</v>
+      </c>
+      <c r="BN45">
+        <v>-100</v>
+      </c>
+      <c r="BO45">
+        <v>-100</v>
+      </c>
+      <c r="BP45">
+        <v>-100</v>
+      </c>
+      <c r="BQ45">
+        <v>-100</v>
+      </c>
+      <c r="BR45">
+        <v>-100</v>
+      </c>
+      <c r="BS45">
+        <v>-100</v>
+      </c>
+      <c r="BT45">
+        <v>-100</v>
+      </c>
+      <c r="BU45">
+        <v>-100</v>
+      </c>
+      <c r="BV45">
+        <v>-100</v>
+      </c>
+      <c r="BW45">
+        <v>-100</v>
+      </c>
+      <c r="BX45">
+        <v>-100</v>
+      </c>
+      <c r="BY45">
+        <v>-100</v>
+      </c>
+      <c r="BZ45">
+        <v>-100</v>
+      </c>
+      <c r="CA45">
+        <v>-100</v>
+      </c>
+      <c r="CB45">
+        <v>-100</v>
+      </c>
+      <c r="CC45">
+        <v>-100</v>
+      </c>
+      <c r="CD45">
         <v>-100</v>
       </c>
     </row>

--- a/reopentable_05_08.xlsx
+++ b/reopentable_05_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntomczak/Documents/1Projects/Corona_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B41A38-5869-A945-BE51-8B47449DE56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5DCC69-AE9F-5643-8225-88ACE33D06E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,7 +1019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/reopentable_05_08.xlsx
+++ b/reopentable_05_08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntomczak/Documents/1Projects/Corona_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F837A85C-CBF9-6F4C-90D1-60F9F5A943EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC94ADDB-0EFF-3D47-8E3D-FAC1F9E18001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
